--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K702"/>
+  <dimension ref="A1:K708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25541,6 +25541,232 @@
         <v>380.15</v>
       </c>
       <c r="K702" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>375.49</v>
+      </c>
+      <c r="C703" t="n">
+        <v>383.2333333333333</v>
+      </c>
+      <c r="D703" t="n">
+        <v>390.09</v>
+      </c>
+      <c r="E703" t="n">
+        <v>383.94</v>
+      </c>
+      <c r="F703" t="n">
+        <v>368.91</v>
+      </c>
+      <c r="G703" t="n">
+        <v>359.15</v>
+      </c>
+      <c r="H703" t="n">
+        <v>366.23</v>
+      </c>
+      <c r="I703" t="n">
+        <v>376.46</v>
+      </c>
+      <c r="J703" t="n">
+        <v>385.05</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr"/>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr"/>
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="n">
+        <v>354.83</v>
+      </c>
+      <c r="G704" t="n">
+        <v>344.23</v>
+      </c>
+      <c r="H704" t="n">
+        <v>355.39</v>
+      </c>
+      <c r="I704" t="n">
+        <v>369.34</v>
+      </c>
+      <c r="J704" t="n">
+        <v>376.77</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>356.29</v>
+      </c>
+      <c r="C705" t="n">
+        <v>372.7666666666667</v>
+      </c>
+      <c r="D705" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="E705" t="n">
+        <v>375.12</v>
+      </c>
+      <c r="F705" t="n">
+        <v>352.19</v>
+      </c>
+      <c r="G705" t="n">
+        <v>349.74</v>
+      </c>
+      <c r="H705" t="n">
+        <v>350.91</v>
+      </c>
+      <c r="I705" t="n">
+        <v>362.21</v>
+      </c>
+      <c r="J705" t="n">
+        <v>370.27</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>349.12</v>
+      </c>
+      <c r="C706" t="n">
+        <v>368.2666666666667</v>
+      </c>
+      <c r="D706" t="n">
+        <v>365.7000000000001</v>
+      </c>
+      <c r="E706" t="n">
+        <v>362.37</v>
+      </c>
+      <c r="F706" t="n">
+        <v>356.04</v>
+      </c>
+      <c r="G706" t="n">
+        <v>342.37</v>
+      </c>
+      <c r="H706" t="n">
+        <v>337.46</v>
+      </c>
+      <c r="I706" t="n">
+        <v>336.81</v>
+      </c>
+      <c r="J706" t="n">
+        <v>342.7</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>355.12</v>
+      </c>
+      <c r="C707" t="n">
+        <v>372.9</v>
+      </c>
+      <c r="D707" t="n">
+        <v>375.23</v>
+      </c>
+      <c r="E707" t="n">
+        <v>370.15</v>
+      </c>
+      <c r="F707" t="n">
+        <v>367.62</v>
+      </c>
+      <c r="G707" t="n">
+        <v>363.06</v>
+      </c>
+      <c r="H707" t="n">
+        <v>355.8</v>
+      </c>
+      <c r="I707" t="n">
+        <v>344.89</v>
+      </c>
+      <c r="J707" t="n">
+        <v>345.35</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>352.68</v>
+      </c>
+      <c r="C708" t="n">
+        <v>375.1966666666667</v>
+      </c>
+      <c r="D708" t="n">
+        <v>373.06</v>
+      </c>
+      <c r="E708" t="n">
+        <v>371.51</v>
+      </c>
+      <c r="F708" t="n">
+        <v>363.49</v>
+      </c>
+      <c r="G708" t="n">
+        <v>361.96</v>
+      </c>
+      <c r="H708" t="n">
+        <v>358.35</v>
+      </c>
+      <c r="I708" t="n">
+        <v>341.62</v>
+      </c>
+      <c r="J708" t="n">
+        <v>345.69</v>
+      </c>
+      <c r="K708" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -25557,7 +25783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B710"/>
+  <dimension ref="A1:B716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32665,6 +32891,66 @@
       </c>
       <c r="B710" t="n">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -32833,28 +33119,28 @@
         <v>0.0302</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7789635645758503</v>
+        <v>-0.7776850991174098</v>
       </c>
       <c r="J2" t="n">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="K2" t="n">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1909158941900357</v>
+        <v>0.1923724530012744</v>
       </c>
       <c r="M2" t="n">
-        <v>9.595909083908698</v>
+        <v>9.569792994606946</v>
       </c>
       <c r="N2" t="n">
-        <v>139.0055825307616</v>
+        <v>138.5318905736223</v>
       </c>
       <c r="O2" t="n">
-        <v>11.79006287221411</v>
+        <v>11.76995711859743</v>
       </c>
       <c r="P2" t="n">
-        <v>376.7570133507438</v>
+        <v>376.745076024646</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32910,28 +33196,28 @@
         <v>0.0311</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6725883034300582</v>
+        <v>-0.6606998978436617</v>
       </c>
       <c r="J3" t="n">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="K3" t="n">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1735058807118842</v>
+        <v>0.1702164380359201</v>
       </c>
       <c r="M3" t="n">
-        <v>8.730309698598175</v>
+        <v>8.715974301612134</v>
       </c>
       <c r="N3" t="n">
-        <v>117.7223351688272</v>
+        <v>117.3424267387772</v>
       </c>
       <c r="O3" t="n">
-        <v>10.84999240409076</v>
+        <v>10.83247094336178</v>
       </c>
       <c r="P3" t="n">
-        <v>384.4434705452077</v>
+        <v>384.3288614032619</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32987,28 +33273,28 @@
         <v>0.026</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8586045950332799</v>
+        <v>-0.8388898979939066</v>
       </c>
       <c r="J4" t="n">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="K4" t="n">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1839043779466076</v>
+        <v>0.1782695556069467</v>
       </c>
       <c r="M4" t="n">
-        <v>10.74751132078492</v>
+        <v>10.74625377256201</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5117559421439</v>
+        <v>179.6785874472302</v>
       </c>
       <c r="O4" t="n">
-        <v>13.39819972765535</v>
+        <v>13.40442417439967</v>
       </c>
       <c r="P4" t="n">
-        <v>385.3996137448094</v>
+        <v>385.2100241401563</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -33064,28 +33350,28 @@
         <v>0.0256</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6440382614575476</v>
+        <v>-0.6212385650043785</v>
       </c>
       <c r="J5" t="n">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="K5" t="n">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1167240106763339</v>
+        <v>0.110087036661492</v>
       </c>
       <c r="M5" t="n">
-        <v>10.53237434605456</v>
+        <v>10.55351508359515</v>
       </c>
       <c r="N5" t="n">
-        <v>171.4775535908778</v>
+        <v>172.0091409130443</v>
       </c>
       <c r="O5" t="n">
-        <v>13.09494381778241</v>
+        <v>13.11522553801666</v>
       </c>
       <c r="P5" t="n">
-        <v>375.2808361126054</v>
+        <v>375.0602674431935</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33141,28 +33427,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5220085397848147</v>
+        <v>-0.5020733983383854</v>
       </c>
       <c r="J6" t="n">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="K6" t="n">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06982585617520465</v>
+        <v>0.06576612080615052</v>
       </c>
       <c r="M6" t="n">
-        <v>11.08262974166094</v>
+        <v>11.06454937860504</v>
       </c>
       <c r="N6" t="n">
-        <v>195.332586913313</v>
+        <v>194.7873328555456</v>
       </c>
       <c r="O6" t="n">
-        <v>13.97614349215523</v>
+        <v>13.95662326121708</v>
       </c>
       <c r="P6" t="n">
-        <v>363.6601471434085</v>
+        <v>363.4651943093778</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33218,28 +33504,28 @@
         <v>0.0267</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.386679120248051</v>
+        <v>-0.3636342982629611</v>
       </c>
       <c r="J7" t="n">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="K7" t="n">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0410472683421601</v>
+        <v>0.03680414294627687</v>
       </c>
       <c r="M7" t="n">
-        <v>10.8656070512666</v>
+        <v>10.86925881626948</v>
       </c>
       <c r="N7" t="n">
-        <v>186.4759225830012</v>
+        <v>186.6529122266084</v>
       </c>
       <c r="O7" t="n">
-        <v>13.65561871842507</v>
+        <v>13.66209765104204</v>
       </c>
       <c r="P7" t="n">
-        <v>351.514987909022</v>
+        <v>351.2863213911584</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33295,28 +33581,28 @@
         <v>0.0309</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2926815002299154</v>
+        <v>-0.2705332244951051</v>
       </c>
       <c r="J8" t="n">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="K8" t="n">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02169731385622709</v>
+        <v>0.01879365378549291</v>
       </c>
       <c r="M8" t="n">
-        <v>11.42103487838493</v>
+        <v>11.43021515375449</v>
       </c>
       <c r="N8" t="n">
-        <v>208.3641206321954</v>
+        <v>208.2664870338007</v>
       </c>
       <c r="O8" t="n">
-        <v>14.43482319365899</v>
+        <v>14.43144092022001</v>
       </c>
       <c r="P8" t="n">
-        <v>350.2073300802817</v>
+        <v>349.9893307374605</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33372,28 +33658,28 @@
         <v>0.0258</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2578418414587282</v>
+        <v>-0.2392802647300068</v>
       </c>
       <c r="J9" t="n">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="K9" t="n">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01640783401997659</v>
+        <v>0.01424020794798786</v>
       </c>
       <c r="M9" t="n">
-        <v>11.52079897169501</v>
+        <v>11.54261564274051</v>
       </c>
       <c r="N9" t="n">
-        <v>214.6888298191721</v>
+        <v>215.6816270690481</v>
       </c>
       <c r="O9" t="n">
-        <v>14.65226364147097</v>
+        <v>14.68610319550588</v>
       </c>
       <c r="P9" t="n">
-        <v>352.178365725738</v>
+        <v>351.9963562842104</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33449,28 +33735,28 @@
         <v>0.0259</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1294325945581368</v>
+        <v>-0.1126750069025709</v>
       </c>
       <c r="J10" t="n">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="K10" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005273821413292468</v>
+        <v>0.003995838658234496</v>
       </c>
       <c r="M10" t="n">
-        <v>10.41923516115989</v>
+        <v>10.47954967669631</v>
       </c>
       <c r="N10" t="n">
-        <v>169.8893930578458</v>
+        <v>171.8604182844595</v>
       </c>
       <c r="O10" t="n">
-        <v>13.03416253764874</v>
+        <v>13.10955446552092</v>
       </c>
       <c r="P10" t="n">
-        <v>355.4607471154107</v>
+        <v>355.2966102428921</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33507,7 +33793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K702"/>
+  <dimension ref="A1:K708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68957,6 +69243,332 @@
         </is>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>-40.021834467325384,176.89140030015056</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>-40.02247833534076,176.89107822552376</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>-40.02311881998846,176.8907467516587</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>-40.023709744998,176.89027737841167</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>-40.02426470693279,176.88971473809116</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>-40.02485149113835,176.88923191361675</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>-40.02550136046875,176.8889333182015</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>-40.02616242194832,176.8886686482801</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>-40.026817716615355,176.888386309534</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr"/>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr"/>
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>-40.02421287085865,176.88956437991098</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>-40.024798784308054,176.8890713190886</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>-40.02546327928012,176.88881652083518</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>-40.02613740916072,176.88859193193096</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>-40.0267886286154,176.88829709363333</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:50+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>-40.021761317629725,176.8911967414117</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>-40.022438458500936,176.89096725670055</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>-40.02305104173368,176.89055813841242</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>-40.02367614140751,176.89018386621512</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>-40.02420315157172,176.88953618777623</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>-40.02481824912333,176.8891306270943</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>-40.02544754089275,176.8887682503727</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>-40.026112361189,176.8885151078871</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>-40.02676579378195,176.88822705704638</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:47+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>-40.02173400069279,176.89112072505117</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>-40.02242131396502,176.89091954721243</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>-40.02302589626107,176.89048816394248</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>-40.023627564646844,176.89004868717362</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>-40.02421732552939,176.88957730130863</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>-40.024792213600904,176.88905129860746</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>-40.02540029047264,176.88862333136422</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>-40.02602312954787,176.8882414293955</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>-40.02666893846026,176.88792999465852</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:45+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>-40.021756860057856,176.8911843370644</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>-40.02243896648686,176.89096867031537</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>-40.02306220478516,176.89058920285183</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>-40.023657206015635,176.89013117287294</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>-40.024259957755625,176.8897009623682</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>-40.024865303680286,176.88927399975486</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>-40.02546471962253,176.88882093844552</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>-40.02605151512041,176.8883284892522</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>-40.02667824812899,176.88795854795484</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>-40.02174756392054,176.89115846817415</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>-40.022447716541635,176.89099301983362</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>-40.02305393727006,176.8905661960818</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>-40.023662387533854,176.8901455919739</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>-40.02424475301396,176.88965685870934</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>-40.02486141780056,176.88926215966322</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>-40.02547367784581,176.8888484138308</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>-40.026040027403226,176.8882932558614</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>-40.02667944257651,176.88796221139717</t>
+        </is>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -32964,7 +32964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33055,35 +33055,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33142,27 +33147,28 @@
       <c r="P2" t="n">
         <v>376.745076024646</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (176.8874194235508 -40.02040382653572, 176.89703145381273 -40.02385783670702)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>176.8874194235508</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-40.02040382653572</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>176.8970314538127</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-40.02385783670702</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>176.8922254386817</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-40.02213083162137</v>
       </c>
     </row>
@@ -33219,27 +33225,28 @@
       <c r="P3" t="n">
         <v>384.3288614032619</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (176.8870152210346 -40.02101818518732, 176.89662729918604 -40.02447220430237)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>176.8870152210346</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-40.02101818518732</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>176.896627299186</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-40.02447220430237</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>176.8918212601103</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-40.02274519474484</v>
       </c>
     </row>
@@ -33296,27 +33303,28 @@
       <c r="P4" t="n">
         <v>385.2100241401563</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (176.88661101851838 -40.0216325383068, 176.89622314455954 -40.02508656636623)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>176.8866110185184</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-40.0216325383068</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>176.8962231445595</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-40.02508656636623</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>176.891417081539</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-40.02335955233652</v>
       </c>
     </row>
@@ -33373,27 +33381,28 @@
       <c r="P5" t="n">
         <v>375.0602674431935</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (176.88620681600204 -40.02224688589413, 176.8958189899332 -40.02570092289852)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>176.886206816002</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-40.02224688589413</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>176.8958189899332</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-40.02570092289852</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>176.8910129029676</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-40.02397390439633</v>
       </c>
     </row>
@@ -33450,27 +33459,28 @@
       <c r="P6" t="n">
         <v>363.4651943093778</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (176.8857752754529 -40.02290648196142, 176.89545700001344 -40.026244144806796)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>176.8857752754529</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-40.02290648196142</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>176.8954570000134</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-40.0262441448068</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>176.8906161377332</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-40.0245753133841</v>
       </c>
     </row>
@@ -33527,27 +33537,28 @@
       <c r="P7" t="n">
         <v>351.2863213911584</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (176.8853661925142 -40.02358268195001, 176.89512500607592 -40.02678537761849)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>176.8853661925142</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-40.02358268195001</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>176.8951250060759</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-40.02678537761849</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>176.890245599295</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-40.02518402978425</v>
       </c>
     </row>
@@ -33604,27 +33615,28 @@
       <c r="P8" t="n">
         <v>349.9893307374605</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (176.88498738052533 -40.024214716490626, 176.8947561105971 -40.02739964404575)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>176.8849873805253</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-40.02421471649063</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>176.8947561105971</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-40.02739964404575</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>176.8898717455612</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-40.02580718026819</v>
       </c>
     </row>
@@ -33681,27 +33693,28 @@
       <c r="P9" t="n">
         <v>351.9963562842104</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (176.88461245151123 -40.02483983231506, 176.89438123312812 -40.02802476797289)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>176.8846124515112</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-40.02483983231506</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>176.8943812331281</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-40.02802476797289</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>176.8894968423197</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-40.02643230014397</v>
       </c>
     </row>
@@ -33758,27 +33771,28 @@
       <c r="P10" t="n">
         <v>355.2966102428921</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (176.88423752249702 -40.025464942411254, 176.8940063556595 -40.02864988617223)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>176.884237522497</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-40.02546494241125</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>176.8940063556595</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-40.02864988617223</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>176.8891219390783</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-40.02705741429175</v>
       </c>
     </row>

--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K708"/>
+  <dimension ref="A1:K712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25769,6 +25769,162 @@
       <c r="K708" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:54:16+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>352.22</v>
+      </c>
+      <c r="C709" t="n">
+        <v>359.7633333333333</v>
+      </c>
+      <c r="D709" t="n">
+        <v>364.63</v>
+      </c>
+      <c r="E709" t="n">
+        <v>363.26</v>
+      </c>
+      <c r="F709" t="n">
+        <v>360.34</v>
+      </c>
+      <c r="G709" t="n">
+        <v>344.88</v>
+      </c>
+      <c r="H709" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="I709" t="n">
+        <v>332.23</v>
+      </c>
+      <c r="J709" t="n">
+        <v>339.67</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:30+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>355.37</v>
+      </c>
+      <c r="C710" t="n">
+        <v>380.2433333333333</v>
+      </c>
+      <c r="D710" t="n">
+        <v>388.76</v>
+      </c>
+      <c r="E710" t="n">
+        <v>381.07</v>
+      </c>
+      <c r="F710" t="n">
+        <v>371.81</v>
+      </c>
+      <c r="G710" t="n">
+        <v>356.14</v>
+      </c>
+      <c r="H710" t="n">
+        <v>348.65</v>
+      </c>
+      <c r="I710" t="n">
+        <v>347.32</v>
+      </c>
+      <c r="J710" t="n">
+        <v>350.88</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>355.72</v>
+      </c>
+      <c r="C711" t="n">
+        <v>365.3733333333333</v>
+      </c>
+      <c r="D711" t="n">
+        <v>368.44</v>
+      </c>
+      <c r="E711" t="n">
+        <v>364.75</v>
+      </c>
+      <c r="F711" t="n">
+        <v>354.91</v>
+      </c>
+      <c r="G711" t="n">
+        <v>344.38</v>
+      </c>
+      <c r="H711" t="n">
+        <v>340.88</v>
+      </c>
+      <c r="I711" t="n">
+        <v>339.74</v>
+      </c>
+      <c r="J711" t="n">
+        <v>348.61</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:31+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>360.14</v>
+      </c>
+      <c r="C712" t="n">
+        <v>367.1566666666667</v>
+      </c>
+      <c r="D712" t="n">
+        <v>379.2600000000001</v>
+      </c>
+      <c r="E712" t="n">
+        <v>372.3200000000001</v>
+      </c>
+      <c r="F712" t="n">
+        <v>367.9</v>
+      </c>
+      <c r="G712" t="n">
+        <v>349.79</v>
+      </c>
+      <c r="H712" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="I712" t="n">
+        <v>352.26</v>
+      </c>
+      <c r="J712" t="n">
+        <v>356.34</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -25783,7 +25939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B716"/>
+  <dimension ref="A1:B720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32951,6 +33107,46 @@
       </c>
       <c r="B716" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -33124,28 +33320,28 @@
         <v>0.0302</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7776850991174098</v>
+        <v>-0.7789211100406895</v>
       </c>
       <c r="J2" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K2" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1923724530012744</v>
+        <v>0.1950517033010005</v>
       </c>
       <c r="M2" t="n">
-        <v>9.569792994606946</v>
+        <v>9.521590782404806</v>
       </c>
       <c r="N2" t="n">
-        <v>138.5318905736223</v>
+        <v>137.6381521079231</v>
       </c>
       <c r="O2" t="n">
-        <v>11.76995711859743</v>
+        <v>11.73192874628563</v>
       </c>
       <c r="P2" t="n">
-        <v>376.745076024646</v>
+        <v>376.7571861808542</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33202,28 +33398,28 @@
         <v>0.0311</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6606998978436617</v>
+        <v>-0.6596923579256528</v>
       </c>
       <c r="J3" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K3" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1702164380359201</v>
+        <v>0.1713539022048743</v>
       </c>
       <c r="M3" t="n">
-        <v>8.715974301612134</v>
+        <v>8.695129743190732</v>
       </c>
       <c r="N3" t="n">
-        <v>117.3424267387772</v>
+        <v>116.9273830217016</v>
       </c>
       <c r="O3" t="n">
-        <v>10.83247094336178</v>
+        <v>10.81329658437711</v>
       </c>
       <c r="P3" t="n">
-        <v>384.3288614032619</v>
+        <v>384.3190044676862</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33280,28 +33476,28 @@
         <v>0.026</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8388898979939066</v>
+        <v>-0.8233396024619684</v>
       </c>
       <c r="J4" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K4" t="n">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1782695556069467</v>
+        <v>0.1737114267006312</v>
       </c>
       <c r="M4" t="n">
-        <v>10.74625377256201</v>
+        <v>10.74492534223828</v>
       </c>
       <c r="N4" t="n">
-        <v>179.6785874472302</v>
+        <v>179.9663293905487</v>
       </c>
       <c r="O4" t="n">
-        <v>13.40442417439967</v>
+        <v>13.4151529767852</v>
       </c>
       <c r="P4" t="n">
-        <v>385.2100241401563</v>
+        <v>385.0587494548686</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33358,28 +33554,28 @@
         <v>0.0256</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6212385650043785</v>
+        <v>-0.6063427616400716</v>
       </c>
       <c r="J5" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K5" t="n">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="L5" t="n">
-        <v>0.110087036661492</v>
+        <v>0.1061159771927848</v>
       </c>
       <c r="M5" t="n">
-        <v>10.55351508359515</v>
+        <v>10.55318097775525</v>
       </c>
       <c r="N5" t="n">
-        <v>172.0091409130443</v>
+        <v>172.01977523244</v>
       </c>
       <c r="O5" t="n">
-        <v>13.11522553801666</v>
+        <v>13.11563095060394</v>
       </c>
       <c r="P5" t="n">
-        <v>375.0602674431935</v>
+        <v>374.914544899013</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33436,28 +33632,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5020733983383854</v>
+        <v>-0.4848889758068975</v>
       </c>
       <c r="J6" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K6" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06576612080615052</v>
+        <v>0.06200276847895081</v>
       </c>
       <c r="M6" t="n">
-        <v>11.06454937860504</v>
+        <v>11.07076500909478</v>
       </c>
       <c r="N6" t="n">
-        <v>194.7873328555456</v>
+        <v>194.9064721049172</v>
       </c>
       <c r="O6" t="n">
-        <v>13.95662326121708</v>
+        <v>13.96089080628157</v>
       </c>
       <c r="P6" t="n">
-        <v>363.4651943093778</v>
+        <v>363.2955973130717</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33514,28 +33710,28 @@
         <v>0.0267</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3636342982629611</v>
+        <v>-0.3547190077818638</v>
       </c>
       <c r="J7" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K7" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03680414294627687</v>
+        <v>0.03546862982037779</v>
       </c>
       <c r="M7" t="n">
-        <v>10.86925881626948</v>
+        <v>10.83946738912783</v>
       </c>
       <c r="N7" t="n">
-        <v>186.6529122266084</v>
+        <v>185.8503726178706</v>
       </c>
       <c r="O7" t="n">
-        <v>13.66209765104204</v>
+        <v>13.63269498734093</v>
       </c>
       <c r="P7" t="n">
-        <v>351.2863213911584</v>
+        <v>351.1970659433766</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33592,28 +33788,28 @@
         <v>0.0309</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2705332244951051</v>
+        <v>-0.2690096565406151</v>
       </c>
       <c r="J8" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K8" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01879365378549291</v>
+        <v>0.01881151230431244</v>
       </c>
       <c r="M8" t="n">
-        <v>11.43021515375449</v>
+        <v>11.39497681213148</v>
       </c>
       <c r="N8" t="n">
-        <v>208.2664870338007</v>
+        <v>207.1655429862467</v>
       </c>
       <c r="O8" t="n">
-        <v>14.43144092022001</v>
+        <v>14.39324643665378</v>
       </c>
       <c r="P8" t="n">
-        <v>349.9893307374605</v>
+        <v>349.9740516635338</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33670,28 +33866,28 @@
         <v>0.0258</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2392802647300068</v>
+        <v>-0.2431291517847344</v>
       </c>
       <c r="J9" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K9" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01424020794798786</v>
+        <v>0.01486464039465984</v>
       </c>
       <c r="M9" t="n">
-        <v>11.54261564274051</v>
+        <v>11.51175905226994</v>
       </c>
       <c r="N9" t="n">
-        <v>215.6816270690481</v>
+        <v>214.6579715858143</v>
       </c>
       <c r="O9" t="n">
-        <v>14.68610319550588</v>
+        <v>14.65121058431058</v>
       </c>
       <c r="P9" t="n">
-        <v>351.9963562842104</v>
+        <v>352.0346328036233</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33748,28 +33944,28 @@
         <v>0.0259</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1126750069025709</v>
+        <v>-0.1172059463648205</v>
       </c>
       <c r="J10" t="n">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="K10" t="n">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003995838658234496</v>
+        <v>0.004372870970171805</v>
       </c>
       <c r="M10" t="n">
-        <v>10.47954967669631</v>
+        <v>10.44552557677164</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8604182844595</v>
+        <v>171.0247868755398</v>
       </c>
       <c r="O10" t="n">
-        <v>13.10955446552092</v>
+        <v>13.07764454615355</v>
       </c>
       <c r="P10" t="n">
-        <v>355.2966102428921</v>
+        <v>355.3417464274161</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33807,7 +34003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K708"/>
+  <dimension ref="A1:K712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69583,6 +69779,234 @@
         </is>
       </c>
     </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13 21:54:16+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>-40.02174581136938,176.89115359125296</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>-40.02238891708497,176.89082939401203</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>-40.02302181964235,176.89047681960122</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>-40.02363095550067,176.8900581231949</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>-40.02423315616515,176.8896232203379</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>-40.024801080522046,176.88907831549415</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>-40.02539077010458,176.8885941320924</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>-40.02600703967532,176.8881920811406</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>-40.026658293811074,176.88789734693626</t>
+        </is>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:30+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>-40.02175781253059,176.89118698756585</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>-40.022466943783705,176.8910465251818</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>-40.02311375282274,176.89073265071232</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>-40.02369881050513,176.8902469498302</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>-40.02427538337123,176.88974570677718</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>-40.02484085794288,176.88919951483592</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>-40.02543960143034,176.88874389965622</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>-40.026060051857044,176.88835467187093</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>-40.026697675451445,176.88801813278164</t>
+        </is>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>-40.02175914599233,176.89119069826796</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>-40.022410290652374,176.89088887179057</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>-40.023036335447586,176.89051721394378</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>-40.023636632321555,176.89007392058087</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>-40.02421316538239,176.88956523421822</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>-40.02479931420363,176.88907293364366</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>-40.02541230509576,176.88866018064067</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>-40.02603342283897,176.88827299936042</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>-40.026689700767854,176.88799367390675</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:31+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>-40.02177598569812,176.89123755914653</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>-40.022417084976276,176.89090777887552</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>-40.02307755872887,176.89063192972452</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>-40.02366547358424,176.89015417982176</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>-40.02426098858493,176.88970395244746</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>-40.0248184257549,176.8891311652796</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>-40.02545312661748,176.88878538207462</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>-40.02607740635586,176.88840789910654</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>-40.026716856826674,176.8880769634014</t>
+        </is>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K712"/>
+  <dimension ref="A1:K716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25923,6 +25923,162 @@
         <v>356.34</v>
       </c>
       <c r="K712" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:01+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>359.09</v>
+      </c>
+      <c r="C713" t="n">
+        <v>369.3033333333333</v>
+      </c>
+      <c r="D713" t="n">
+        <v>368.43</v>
+      </c>
+      <c r="E713" t="n">
+        <v>374.21</v>
+      </c>
+      <c r="F713" t="n">
+        <v>371.36</v>
+      </c>
+      <c r="G713" t="n">
+        <v>339</v>
+      </c>
+      <c r="H713" t="n">
+        <v>341.32</v>
+      </c>
+      <c r="I713" t="n">
+        <v>356.13</v>
+      </c>
+      <c r="J713" t="n">
+        <v>361.92</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:11+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>362.62</v>
+      </c>
+      <c r="C714" t="n">
+        <v>368.6166666666667</v>
+      </c>
+      <c r="D714" t="n">
+        <v>363.62</v>
+      </c>
+      <c r="E714" t="n">
+        <v>367.99</v>
+      </c>
+      <c r="F714" t="n">
+        <v>356.87</v>
+      </c>
+      <c r="G714" t="n">
+        <v>352.05</v>
+      </c>
+      <c r="H714" t="n">
+        <v>352.17</v>
+      </c>
+      <c r="I714" t="n">
+        <v>353.81</v>
+      </c>
+      <c r="J714" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:53+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>374.18</v>
+      </c>
+      <c r="C715" t="n">
+        <v>377.0733333333333</v>
+      </c>
+      <c r="D715" t="n">
+        <v>370.96</v>
+      </c>
+      <c r="E715" t="n">
+        <v>374.83</v>
+      </c>
+      <c r="F715" t="n">
+        <v>364.19</v>
+      </c>
+      <c r="G715" t="n">
+        <v>359.05</v>
+      </c>
+      <c r="H715" t="n">
+        <v>357.3</v>
+      </c>
+      <c r="I715" t="n">
+        <v>360.9500000000001</v>
+      </c>
+      <c r="J715" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>361.15</v>
+      </c>
+      <c r="C716" t="n">
+        <v>383.8466666666667</v>
+      </c>
+      <c r="D716" t="n">
+        <v>393.89</v>
+      </c>
+      <c r="E716" t="n">
+        <v>379.66</v>
+      </c>
+      <c r="F716" t="n">
+        <v>359.45</v>
+      </c>
+      <c r="G716" t="n">
+        <v>337.04</v>
+      </c>
+      <c r="H716" t="n">
+        <v>338.9</v>
+      </c>
+      <c r="I716" t="n">
+        <v>348.22</v>
+      </c>
+      <c r="J716" t="n">
+        <v>365.68</v>
+      </c>
+      <c r="K716" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25939,7 +26095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B720"/>
+  <dimension ref="A1:B724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33147,6 +33303,46 @@
       </c>
       <c r="B720" t="n">
         <v>-0.16</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -33320,28 +33516,28 @@
         <v>0.0302</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7789211100406895</v>
+        <v>-0.7688862197210317</v>
       </c>
       <c r="J2" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K2" t="n">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1950517033010005</v>
+        <v>0.192535064336225</v>
       </c>
       <c r="M2" t="n">
-        <v>9.521590782404806</v>
+        <v>9.509742013514742</v>
       </c>
       <c r="N2" t="n">
-        <v>137.6381521079231</v>
+        <v>137.3165095439564</v>
       </c>
       <c r="O2" t="n">
-        <v>11.73192874628563</v>
+        <v>11.71821272822594</v>
       </c>
       <c r="P2" t="n">
-        <v>376.7571861808542</v>
+        <v>376.6578081508249</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33398,28 +33594,28 @@
         <v>0.0311</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6596923579256528</v>
+        <v>-0.6499595125944067</v>
       </c>
       <c r="J3" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K3" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1713539022048743</v>
+        <v>0.1684229999970271</v>
       </c>
       <c r="M3" t="n">
-        <v>8.695129743190732</v>
+        <v>8.68587009607096</v>
       </c>
       <c r="N3" t="n">
-        <v>116.9273830217016</v>
+        <v>116.7608658666269</v>
       </c>
       <c r="O3" t="n">
-        <v>10.81329658437711</v>
+        <v>10.80559419313102</v>
       </c>
       <c r="P3" t="n">
-        <v>384.3190044676862</v>
+        <v>384.2235104127562</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33476,28 +33672,28 @@
         <v>0.026</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8233396024619684</v>
+        <v>-0.8095188375431671</v>
       </c>
       <c r="J4" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K4" t="n">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1737114267006312</v>
+        <v>0.169634219007138</v>
       </c>
       <c r="M4" t="n">
-        <v>10.74492534223828</v>
+        <v>10.73796172436218</v>
       </c>
       <c r="N4" t="n">
-        <v>179.9663293905487</v>
+        <v>180.3947619517513</v>
       </c>
       <c r="O4" t="n">
-        <v>13.4151529767852</v>
+        <v>13.43111171689638</v>
       </c>
       <c r="P4" t="n">
-        <v>385.0587494548686</v>
+        <v>384.9234325743444</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33554,28 +33750,28 @@
         <v>0.0256</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6063427616400716</v>
+        <v>-0.5867780775983403</v>
       </c>
       <c r="J5" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K5" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1061159771927848</v>
+        <v>0.100495716442058</v>
       </c>
       <c r="M5" t="n">
-        <v>10.55318097775525</v>
+        <v>10.57624136374464</v>
       </c>
       <c r="N5" t="n">
-        <v>172.01977523244</v>
+        <v>172.4467793533071</v>
       </c>
       <c r="O5" t="n">
-        <v>13.11563095060394</v>
+        <v>13.13189930487236</v>
       </c>
       <c r="P5" t="n">
-        <v>374.914544899013</v>
+        <v>374.7219875955482</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33632,28 +33828,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4848889758068975</v>
+        <v>-0.4691410468082926</v>
       </c>
       <c r="J6" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K6" t="n">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06200276847895081</v>
+        <v>0.05871096154876954</v>
       </c>
       <c r="M6" t="n">
-        <v>11.07076500909478</v>
+        <v>11.07047904263791</v>
       </c>
       <c r="N6" t="n">
-        <v>194.9064721049172</v>
+        <v>194.7760816546319</v>
       </c>
       <c r="O6" t="n">
-        <v>13.96089080628157</v>
+        <v>13.95622017792181</v>
       </c>
       <c r="P6" t="n">
-        <v>363.2955973130717</v>
+        <v>363.1392837661586</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33710,28 +33906,28 @@
         <v>0.0267</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3547190077818638</v>
+        <v>-0.3486061009738862</v>
       </c>
       <c r="J7" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K7" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03546862982037779</v>
+        <v>0.03462800817709777</v>
       </c>
       <c r="M7" t="n">
-        <v>10.83946738912783</v>
+        <v>10.82416260863541</v>
       </c>
       <c r="N7" t="n">
-        <v>185.8503726178706</v>
+        <v>185.3083583237971</v>
       </c>
       <c r="O7" t="n">
-        <v>13.63269498734093</v>
+        <v>13.61280126659451</v>
       </c>
       <c r="P7" t="n">
-        <v>351.1970659433766</v>
+        <v>351.1355039914053</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33788,28 +33984,28 @@
         <v>0.0309</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2690096565406151</v>
+        <v>-0.2633118982000592</v>
       </c>
       <c r="J8" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K8" t="n">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01881151230431244</v>
+        <v>0.01823845809395286</v>
       </c>
       <c r="M8" t="n">
-        <v>11.39497681213148</v>
+        <v>11.36554611734254</v>
       </c>
       <c r="N8" t="n">
-        <v>207.1655429862467</v>
+        <v>206.2692394295277</v>
       </c>
       <c r="O8" t="n">
-        <v>14.39324643665378</v>
+        <v>14.36207643168381</v>
       </c>
       <c r="P8" t="n">
-        <v>349.9740516635338</v>
+        <v>349.9169771949123</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33866,28 +34062,28 @@
         <v>0.0258</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2431291517847344</v>
+        <v>-0.2314873980093941</v>
       </c>
       <c r="J9" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K9" t="n">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01486464039465984</v>
+        <v>0.01363455095098287</v>
       </c>
       <c r="M9" t="n">
-        <v>11.51175905226994</v>
+        <v>11.49109040957065</v>
       </c>
       <c r="N9" t="n">
-        <v>214.6579715858143</v>
+        <v>213.8799301483366</v>
       </c>
       <c r="O9" t="n">
-        <v>14.65121058431058</v>
+        <v>14.624634359475</v>
       </c>
       <c r="P9" t="n">
-        <v>352.0346328036233</v>
+        <v>351.9177691493435</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33944,28 +34140,28 @@
         <v>0.0259</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1172059463648205</v>
+        <v>-0.1002432153718852</v>
       </c>
       <c r="J10" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="K10" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004372870970171805</v>
+        <v>0.00322302660870033</v>
       </c>
       <c r="M10" t="n">
-        <v>10.44552557677164</v>
+        <v>10.46396997651659</v>
       </c>
       <c r="N10" t="n">
-        <v>171.0247868755398</v>
+        <v>171.0951297005511</v>
       </c>
       <c r="O10" t="n">
-        <v>13.07764454615355</v>
+        <v>13.08033369989279</v>
       </c>
       <c r="P10" t="n">
-        <v>355.3417464274161</v>
+        <v>355.1712632567136</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34003,7 +34199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K712"/>
+  <dimension ref="A1:K716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70007,6 +70203,234 @@
         </is>
       </c>
     </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07 22:00:01+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>-40.02177198531735,176.89122642703538</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>-40.022425263559946,176.89093053806286</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>-40.023036297348376,176.89051710792188</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>-40.023672674365834,176.8901742181363</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>-40.02427372668309,176.8897409012908</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>-40.02478030860071,176.88901502494926</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>-40.02541385083585,176.88866492148418</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>-40.02609100186622,176.8884495973838</t>
+        </is>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>-40.02673645973795,176.88813708703393</t>
+        </is>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:11+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>-40.021785434212006,176.89126385213774</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>-40.022422647429664,176.89092325794957</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>-40.023017971617975,176.8904661113924</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>-40.023648976541615,176.8901082719522</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>-40.02422038121176,176.8895861647476</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>-40.02482640949912,176.88915549125858</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>-40.025451967316336,176.88878182643813</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>-40.02608285158801,176.8884245999651</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>-40.026745523438464,176.88816488614378</t>
+        </is>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16 21:53:53+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>-40.02182947639469,176.89138641149432</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>-40.02245486643723,176.89101291646898</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>-40.0230459364444,176.89054393147063</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>-40.02367503652619,176.89018079155255</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>-40.02424733009008,176.88966433390445</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>-40.02485113787618,176.88923083724515</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>-40.025469989166474,176.88883710043604</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>-40.026107934753604,176.88850153169412</t>
+        </is>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>-40.02676568839031,176.8882267338007</t>
+        </is>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-24 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>-40.021779833682366,176.8912482671784</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>-40.022480672069264,176.89108472815926</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>-40.02313329759474,176.89078704008784</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>-40.02369343850379,176.89023200060018</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>-40.02422987959328,176.88961371616512</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>-40.0247733846188,176.888993928109</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>-40.025405349262826,176.88863884684756</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>-40.02606321360977,176.88836436913869</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>-40.02674966884953,176.88817760046766</t>
+        </is>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K716"/>
+  <dimension ref="A1:K719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26079,6 +26079,123 @@
         <v>365.68</v>
       </c>
       <c r="K716" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>364.19</v>
+      </c>
+      <c r="C717" t="n">
+        <v>371.4966666666666</v>
+      </c>
+      <c r="D717" t="n">
+        <v>366.43</v>
+      </c>
+      <c r="E717" t="n">
+        <v>356.84</v>
+      </c>
+      <c r="F717" t="n">
+        <v>353.92</v>
+      </c>
+      <c r="G717" t="n">
+        <v>343.31</v>
+      </c>
+      <c r="H717" t="n">
+        <v>346.79</v>
+      </c>
+      <c r="I717" t="n">
+        <v>345.31</v>
+      </c>
+      <c r="J717" t="n">
+        <v>363.35</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>366.45</v>
+      </c>
+      <c r="C718" t="n">
+        <v>376.6933333333333</v>
+      </c>
+      <c r="D718" t="n">
+        <v>367.81</v>
+      </c>
+      <c r="E718" t="n">
+        <v>358.41</v>
+      </c>
+      <c r="F718" t="n">
+        <v>354.88</v>
+      </c>
+      <c r="G718" t="n">
+        <v>342.06</v>
+      </c>
+      <c r="H718" t="n">
+        <v>345.9</v>
+      </c>
+      <c r="I718" t="n">
+        <v>344.56</v>
+      </c>
+      <c r="J718" t="n">
+        <v>366.63</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>345.98</v>
+      </c>
+      <c r="C719" t="n">
+        <v>360.2366666666667</v>
+      </c>
+      <c r="D719" t="n">
+        <v>360.66</v>
+      </c>
+      <c r="E719" t="n">
+        <v>348.92</v>
+      </c>
+      <c r="F719" t="n">
+        <v>327.25</v>
+      </c>
+      <c r="G719" t="n">
+        <v>321</v>
+      </c>
+      <c r="H719" t="n">
+        <v>330.65</v>
+      </c>
+      <c r="I719" t="n">
+        <v>338.6</v>
+      </c>
+      <c r="J719" t="n">
+        <v>343.16</v>
+      </c>
+      <c r="K719" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -26095,7 +26212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B724"/>
+  <dimension ref="A1:B727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33343,6 +33460,36 @@
       </c>
       <c r="B724" t="n">
         <v>-0.73</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>-0.49</v>
       </c>
     </row>
   </sheetData>
@@ -33516,28 +33663,28 @@
         <v>0.0302</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7688862197210317</v>
+        <v>-0.7668576834330245</v>
       </c>
       <c r="J2" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K2" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="L2" t="n">
-        <v>0.192535064336225</v>
+        <v>0.1928520753756667</v>
       </c>
       <c r="M2" t="n">
-        <v>9.509742013514742</v>
+        <v>9.508824018254648</v>
       </c>
       <c r="N2" t="n">
-        <v>137.3165095439564</v>
+        <v>137.064771759891</v>
       </c>
       <c r="O2" t="n">
-        <v>11.71821272822594</v>
+        <v>11.70746649621048</v>
       </c>
       <c r="P2" t="n">
-        <v>376.6578081508249</v>
+        <v>376.6377180318177</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33594,28 +33741,28 @@
         <v>0.0311</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6499595125944067</v>
+        <v>-0.6479763024793272</v>
       </c>
       <c r="J3" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K3" t="n">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1684229999970271</v>
+        <v>0.1687401881619558</v>
       </c>
       <c r="M3" t="n">
-        <v>8.68587009607096</v>
+        <v>8.676365616023968</v>
       </c>
       <c r="N3" t="n">
-        <v>116.7608658666269</v>
+        <v>116.4268775402563</v>
       </c>
       <c r="O3" t="n">
-        <v>10.80559419313102</v>
+        <v>10.79012870823404</v>
       </c>
       <c r="P3" t="n">
-        <v>384.2235104127562</v>
+        <v>384.2040470969465</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33672,28 +33819,28 @@
         <v>0.026</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8095188375431671</v>
+        <v>-0.8085829640951425</v>
       </c>
       <c r="J4" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K4" t="n">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L4" t="n">
-        <v>0.169634219007138</v>
+        <v>0.1707796968433879</v>
       </c>
       <c r="M4" t="n">
-        <v>10.73796172436218</v>
+        <v>10.69849612147741</v>
       </c>
       <c r="N4" t="n">
-        <v>180.3947619517513</v>
+        <v>179.5156438247687</v>
       </c>
       <c r="O4" t="n">
-        <v>13.43111171689638</v>
+        <v>13.39834481660957</v>
       </c>
       <c r="P4" t="n">
-        <v>384.9234325743444</v>
+        <v>384.9142685934384</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33750,28 +33897,28 @@
         <v>0.0256</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5867780775983403</v>
+        <v>-0.5915018465907409</v>
       </c>
       <c r="J5" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K5" t="n">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L5" t="n">
-        <v>0.100495716442058</v>
+        <v>0.1028137668928256</v>
       </c>
       <c r="M5" t="n">
-        <v>10.57624136374464</v>
+        <v>10.54800499347965</v>
       </c>
       <c r="N5" t="n">
-        <v>172.4467793533071</v>
+        <v>171.770161574954</v>
       </c>
       <c r="O5" t="n">
-        <v>13.13189930487236</v>
+        <v>13.10611161157092</v>
       </c>
       <c r="P5" t="n">
-        <v>374.7219875955482</v>
+        <v>374.7686133292587</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33828,28 +33975,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4691410468082926</v>
+        <v>-0.474602113044417</v>
       </c>
       <c r="J6" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K6" t="n">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05871096154876954</v>
+        <v>0.06030533596506227</v>
       </c>
       <c r="M6" t="n">
-        <v>11.07047904263791</v>
+        <v>11.06848620542797</v>
       </c>
       <c r="N6" t="n">
-        <v>194.7760816546319</v>
+        <v>194.7796987276479</v>
       </c>
       <c r="O6" t="n">
-        <v>13.95622017792181</v>
+        <v>13.95634976373292</v>
       </c>
       <c r="P6" t="n">
-        <v>363.1392837661586</v>
+        <v>363.1937055889665</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33906,28 +34053,28 @@
         <v>0.0267</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3486061009738862</v>
+        <v>-0.3550179329893712</v>
       </c>
       <c r="J7" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K7" t="n">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03462800817709777</v>
+        <v>0.03607986959766774</v>
       </c>
       <c r="M7" t="n">
-        <v>10.82416260863541</v>
+        <v>10.80857026328054</v>
       </c>
       <c r="N7" t="n">
-        <v>185.3083583237971</v>
+        <v>185.1236610106646</v>
       </c>
       <c r="O7" t="n">
-        <v>13.61280126659451</v>
+        <v>13.6060156184926</v>
       </c>
       <c r="P7" t="n">
-        <v>351.1355039914053</v>
+        <v>351.2002997032017</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33984,28 +34131,28 @@
         <v>0.0309</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2633118982000592</v>
+        <v>-0.2652518461189161</v>
       </c>
       <c r="J8" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K8" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01823845809395286</v>
+        <v>0.01866305737739749</v>
       </c>
       <c r="M8" t="n">
-        <v>11.36554611734254</v>
+        <v>11.34021652583735</v>
       </c>
       <c r="N8" t="n">
-        <v>206.2692394295277</v>
+        <v>205.5154498828365</v>
       </c>
       <c r="O8" t="n">
-        <v>14.36207643168381</v>
+        <v>14.33581005324905</v>
       </c>
       <c r="P8" t="n">
-        <v>349.9169771949123</v>
+        <v>349.9365020826758</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34062,28 +34209,28 @@
         <v>0.0258</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2314873980093941</v>
+        <v>-0.2344795056150121</v>
       </c>
       <c r="J9" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K9" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01363455095098287</v>
+        <v>0.01411871707461598</v>
       </c>
       <c r="M9" t="n">
-        <v>11.49109040957065</v>
+        <v>11.44899865337633</v>
       </c>
       <c r="N9" t="n">
-        <v>213.8799301483366</v>
+        <v>212.8867472950337</v>
       </c>
       <c r="O9" t="n">
-        <v>14.624634359475</v>
+        <v>14.59063902970099</v>
       </c>
       <c r="P9" t="n">
-        <v>351.9177691493435</v>
+        <v>351.9479055671806</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34140,28 +34287,28 @@
         <v>0.0259</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1002432153718852</v>
+        <v>-0.09538243467323096</v>
       </c>
       <c r="J10" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K10" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00322302660870033</v>
+        <v>0.002936760099413682</v>
       </c>
       <c r="M10" t="n">
-        <v>10.46396997651659</v>
+        <v>10.46846986477928</v>
       </c>
       <c r="N10" t="n">
-        <v>171.0951297005511</v>
+        <v>170.9070690461678</v>
       </c>
       <c r="O10" t="n">
-        <v>13.08033369989279</v>
+        <v>13.07314304389605</v>
       </c>
       <c r="P10" t="n">
-        <v>355.1712632567136</v>
+        <v>355.1223427205769</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34199,7 +34346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K716"/>
+  <dimension ref="A1:K719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37187,7 +37334,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-40.02367541751977,176.890181851781</t>
+          <t>-40.02367541751976,176.890181851781</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -51074,7 +51221,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>-40.02661199123052,176.88775533484306</t>
+          <t>-40.02661199123051,176.88775533484306</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -56030,7 +56177,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>-40.02611959805592,176.8885373038887</t>
+          <t>-40.026119598055914,176.8885373038887</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -70431,6 +70578,177 @@
         </is>
       </c>
     </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:05+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>-40.021791415727606,176.8912804973011</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>-40.02243361993402,176.8909537920205</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>-40.02302867750496,176.89049590354057</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>-40.023606495615404,176.88999005663428</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>-40.02420952065072,176.88955466216672</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>-40.024795534281324,176.88906141648457</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>-40.025433067178454,176.8887238588051</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>-40.02605299060621,176.88833301464265</t>
+        </is>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>-40.026741483417794,176.88815249506683</t>
+        </is>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-01 21:53:56+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>-40.02180002605769,176.89130445785952</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>-40.022453418678914,176.89100888766507</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>-40.02303393519736,176.89051053456316</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>-40.02361247724236,176.8900067021908</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>-40.02421305493599,176.88956491385304</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>-40.02479111848272,176.88904796186094</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>-40.02542994057278,176.88871426936683</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>-40.026050355810014,176.8883249335884</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>-40.02675300625568,176.88818783657692</t>
+        </is>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-09 21:53:57+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>-40.02172203761028,176.89108743478033</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>-40.022390720441294,176.8908344123378</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>-40.02300669423358,176.89043472892564</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>-40.02357632074512,176.88990608673527</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>-40.02411133340379,176.8892698579074</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>-40.024716720859175,176.88882127860833</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>-40.02537636658093,176.88854995608685</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>-40.02602941794182,176.8882607161648</t>
+        </is>
+      </c>
+      <c r="J719" t="inlineStr">
+        <is>
+          <t>-40.02667055447877,176.88793495107925</t>
+        </is>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K719"/>
+  <dimension ref="A1:K721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26198,6 +26198,84 @@
       <c r="K719" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:15+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>370.91</v>
+      </c>
+      <c r="C720" t="n">
+        <v>375.57</v>
+      </c>
+      <c r="D720" t="n">
+        <v>376.79</v>
+      </c>
+      <c r="E720" t="n">
+        <v>365.76</v>
+      </c>
+      <c r="F720" t="n">
+        <v>354.33</v>
+      </c>
+      <c r="G720" t="n">
+        <v>341.25</v>
+      </c>
+      <c r="H720" t="n">
+        <v>350.14</v>
+      </c>
+      <c r="I720" t="n">
+        <v>348.77</v>
+      </c>
+      <c r="J720" t="n">
+        <v>366.65</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>368.57</v>
+      </c>
+      <c r="C721" t="n">
+        <v>377.2366666666667</v>
+      </c>
+      <c r="D721" t="n">
+        <v>373.68</v>
+      </c>
+      <c r="E721" t="n">
+        <v>366.94</v>
+      </c>
+      <c r="F721" t="n">
+        <v>351.31</v>
+      </c>
+      <c r="G721" t="n">
+        <v>341.3</v>
+      </c>
+      <c r="H721" t="n">
+        <v>345.34</v>
+      </c>
+      <c r="I721" t="n">
+        <v>350.94</v>
+      </c>
+      <c r="J721" t="n">
+        <v>366.01</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -26212,7 +26290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B727"/>
+  <dimension ref="A1:B729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33490,6 +33568,26 @@
       </c>
       <c r="B727" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -33663,28 +33761,28 @@
         <v>0.0302</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7668576834330245</v>
+        <v>-0.7584502744850254</v>
       </c>
       <c r="J2" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K2" t="n">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1928520753756667</v>
+        <v>0.1898822086589395</v>
       </c>
       <c r="M2" t="n">
-        <v>9.508824018254648</v>
+        <v>9.521363555786658</v>
       </c>
       <c r="N2" t="n">
-        <v>137.064771759891</v>
+        <v>137.1664833626552</v>
       </c>
       <c r="O2" t="n">
-        <v>11.70746649621048</v>
+        <v>11.71180956823732</v>
       </c>
       <c r="P2" t="n">
-        <v>376.6377180318177</v>
+        <v>376.5541108022284</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33741,28 +33839,28 @@
         <v>0.0311</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6479763024793272</v>
+        <v>-0.6421929986344458</v>
       </c>
       <c r="J3" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K3" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1687401881619558</v>
+        <v>0.1668881184225637</v>
       </c>
       <c r="M3" t="n">
-        <v>8.676365616023968</v>
+        <v>8.676928650285483</v>
       </c>
       <c r="N3" t="n">
-        <v>116.4268775402563</v>
+        <v>116.3040890631392</v>
       </c>
       <c r="O3" t="n">
-        <v>10.79012870823404</v>
+        <v>10.78443735496383</v>
       </c>
       <c r="P3" t="n">
-        <v>384.2040470969465</v>
+        <v>384.147092990109</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33819,28 +33917,28 @@
         <v>0.026</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8085829640951425</v>
+        <v>-0.8012562280198801</v>
       </c>
       <c r="J4" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K4" t="n">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1707796968433879</v>
+        <v>0.1688658288494234</v>
       </c>
       <c r="M4" t="n">
-        <v>10.69849612147741</v>
+        <v>10.69745459119729</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5156438247687</v>
+        <v>179.3363073707459</v>
       </c>
       <c r="O4" t="n">
-        <v>13.39834481660957</v>
+        <v>13.39165065892722</v>
       </c>
       <c r="P4" t="n">
-        <v>384.9142685934384</v>
+        <v>384.8422754300398</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33897,28 +33995,28 @@
         <v>0.0256</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5915018465907409</v>
+        <v>-0.5870617283539872</v>
       </c>
       <c r="J5" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K5" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1028137668928256</v>
+        <v>0.1019821267792687</v>
       </c>
       <c r="M5" t="n">
-        <v>10.54800499347965</v>
+        <v>10.53424691086343</v>
       </c>
       <c r="N5" t="n">
-        <v>171.770161574954</v>
+        <v>171.3464876923868</v>
       </c>
       <c r="O5" t="n">
-        <v>13.10611161157092</v>
+        <v>13.0899384143848</v>
       </c>
       <c r="P5" t="n">
-        <v>374.7686133292587</v>
+        <v>374.7247287477363</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33975,28 +34073,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.474602113044417</v>
+        <v>-0.473392159113904</v>
       </c>
       <c r="J6" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K6" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06030533596506227</v>
+        <v>0.06039804614316158</v>
       </c>
       <c r="M6" t="n">
-        <v>11.06848620542797</v>
+        <v>11.03746810941416</v>
       </c>
       <c r="N6" t="n">
-        <v>194.7796987276479</v>
+        <v>194.1531001285815</v>
       </c>
       <c r="O6" t="n">
-        <v>13.95634976373292</v>
+        <v>13.93388316760915</v>
       </c>
       <c r="P6" t="n">
-        <v>363.1937055889665</v>
+        <v>363.1816418703207</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34053,28 +34151,28 @@
         <v>0.0267</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3550179329893712</v>
+        <v>-0.3554895330495947</v>
       </c>
       <c r="J7" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K7" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03607986959766774</v>
+        <v>0.03640665760568207</v>
       </c>
       <c r="M7" t="n">
-        <v>10.80857026328054</v>
+        <v>10.7750619352195</v>
       </c>
       <c r="N7" t="n">
-        <v>185.1236610106646</v>
+        <v>184.5073762744669</v>
       </c>
       <c r="O7" t="n">
-        <v>13.6060156184926</v>
+        <v>13.58334922890768</v>
       </c>
       <c r="P7" t="n">
-        <v>351.2002997032017</v>
+        <v>351.2050700065705</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34131,28 +34229,28 @@
         <v>0.0309</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2652518461189161</v>
+        <v>-0.2622710687360728</v>
       </c>
       <c r="J8" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K8" t="n">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01866305737739749</v>
+        <v>0.01836676781305047</v>
       </c>
       <c r="M8" t="n">
-        <v>11.34021652583735</v>
+        <v>11.31657426103234</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5154498828365</v>
+        <v>204.9102895494728</v>
       </c>
       <c r="O8" t="n">
-        <v>14.33581005324905</v>
+        <v>14.31468789563617</v>
       </c>
       <c r="P8" t="n">
-        <v>349.9365020826758</v>
+        <v>349.9065096610718</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34209,28 +34307,28 @@
         <v>0.0258</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2344795056150121</v>
+        <v>-0.2319553426755094</v>
       </c>
       <c r="J9" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K9" t="n">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01411871707461598</v>
+        <v>0.01390843032192612</v>
       </c>
       <c r="M9" t="n">
-        <v>11.44899865337633</v>
+        <v>11.42317186529038</v>
       </c>
       <c r="N9" t="n">
-        <v>212.8867472950337</v>
+        <v>212.2242829923992</v>
       </c>
       <c r="O9" t="n">
-        <v>14.59063902970099</v>
+        <v>14.56791965218093</v>
       </c>
       <c r="P9" t="n">
-        <v>351.9479055671806</v>
+        <v>351.9224494304434</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34287,28 +34385,28 @@
         <v>0.0259</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09538243467323096</v>
+        <v>-0.08678496725381545</v>
       </c>
       <c r="J10" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K10" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002936760099413682</v>
+        <v>0.002439740249532418</v>
       </c>
       <c r="M10" t="n">
-        <v>10.46846986477928</v>
+        <v>10.47840601721352</v>
       </c>
       <c r="N10" t="n">
-        <v>170.9070690461678</v>
+        <v>170.9548730128981</v>
       </c>
       <c r="O10" t="n">
-        <v>13.07314304389605</v>
+        <v>13.07497124329144</v>
       </c>
       <c r="P10" t="n">
-        <v>355.1223427205769</v>
+        <v>355.0355647336903</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34346,7 +34444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K719"/>
+  <dimension ref="A1:K721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70749,6 +70847,120 @@
         </is>
       </c>
     </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:15+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>-40.02181701810958,176.8913517428722</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>-40.022449138901266,176.89099697795612</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>-40.02306814824922,176.89060574228427</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>-40.02364048036662,176.89008462887745</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>-40.024211030085176,176.88955904049095</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>-40.02478825704432,176.88903924326573</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>-40.025444835855275,176.88875995388904</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>-40.02606514579156,176.88837029524717</t>
+        </is>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>-40.02675307651685,176.88818805207399</t>
+        </is>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:54:08+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>-40.0218081029997,176.8913269341408</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>-40.022455488719274,176.89101464814792</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>-40.02305629941773,176.89057276944413</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>-40.02364497610111,176.89009713956204</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>-40.02419991180779,176.88952679039966</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>-40.024788433676335,176.88903978145058</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>-40.02542797326989,176.8887082355634</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>-40.02607276912389,176.88839367644192</t>
+        </is>
+      </c>
+      <c r="J721" t="inlineStr">
+        <is>
+          <t>-40.026750828159145,176.88818115616866</t>
+        </is>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K721"/>
+  <dimension ref="A1:K725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26276,6 +26276,162 @@
       <c r="K721" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:54:14+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>362.63</v>
+      </c>
+      <c r="C722" t="n">
+        <v>366.4966666666666</v>
+      </c>
+      <c r="D722" t="n">
+        <v>356.46</v>
+      </c>
+      <c r="E722" t="n">
+        <v>350.53</v>
+      </c>
+      <c r="F722" t="n">
+        <v>344.01</v>
+      </c>
+      <c r="G722" t="n">
+        <v>337.07</v>
+      </c>
+      <c r="H722" t="n">
+        <v>337.81</v>
+      </c>
+      <c r="I722" t="n">
+        <v>347.33</v>
+      </c>
+      <c r="J722" t="n">
+        <v>356</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:28+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>352.31</v>
+      </c>
+      <c r="C723" t="n">
+        <v>366.3</v>
+      </c>
+      <c r="D723" t="n">
+        <v>356.96</v>
+      </c>
+      <c r="E723" t="n">
+        <v>357.51</v>
+      </c>
+      <c r="F723" t="n">
+        <v>352.19</v>
+      </c>
+      <c r="G723" t="n">
+        <v>337.18</v>
+      </c>
+      <c r="H723" t="n">
+        <v>338.52</v>
+      </c>
+      <c r="I723" t="n">
+        <v>349.27</v>
+      </c>
+      <c r="J723" t="n">
+        <v>358.99</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>342.53</v>
+      </c>
+      <c r="C724" t="n">
+        <v>355.8166666666667</v>
+      </c>
+      <c r="D724" t="n">
+        <v>353.14</v>
+      </c>
+      <c r="E724" t="n">
+        <v>354.43</v>
+      </c>
+      <c r="F724" t="n">
+        <v>354.23</v>
+      </c>
+      <c r="G724" t="n">
+        <v>346.37</v>
+      </c>
+      <c r="H724" t="n">
+        <v>352.37</v>
+      </c>
+      <c r="I724" t="n">
+        <v>361.48</v>
+      </c>
+      <c r="J724" t="n">
+        <v>363.92</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>359.94</v>
+      </c>
+      <c r="C725" t="n">
+        <v>367.6033333333333</v>
+      </c>
+      <c r="D725" t="n">
+        <v>364.63</v>
+      </c>
+      <c r="E725" t="n">
+        <v>358.27</v>
+      </c>
+      <c r="F725" t="n">
+        <v>354.62</v>
+      </c>
+      <c r="G725" t="n">
+        <v>342.55</v>
+      </c>
+      <c r="H725" t="n">
+        <v>343.58</v>
+      </c>
+      <c r="I725" t="n">
+        <v>340.88</v>
+      </c>
+      <c r="J725" t="n">
+        <v>354.13</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -26290,7 +26446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B729"/>
+  <dimension ref="A1:B733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33588,6 +33744,46 @@
       </c>
       <c r="B729" t="n">
         <v>0.47</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -33761,28 +33957,28 @@
         <v>0.0302</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7584502744850254</v>
+        <v>-0.7616913098840605</v>
       </c>
       <c r="J2" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K2" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1898822086589395</v>
+        <v>0.1928437850474818</v>
       </c>
       <c r="M2" t="n">
-        <v>9.521363555786658</v>
+        <v>9.503481410078507</v>
       </c>
       <c r="N2" t="n">
-        <v>137.1664833626552</v>
+        <v>136.6935598265821</v>
       </c>
       <c r="O2" t="n">
-        <v>11.71180956823732</v>
+        <v>11.69160210692196</v>
       </c>
       <c r="P2" t="n">
-        <v>376.5541108022284</v>
+        <v>376.5865081858718</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33839,28 +34035,28 @@
         <v>0.0311</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6421929986344458</v>
+        <v>-0.6465632052915206</v>
       </c>
       <c r="J3" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K3" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1668881184225637</v>
+        <v>0.1704634644529192</v>
       </c>
       <c r="M3" t="n">
-        <v>8.676928650285483</v>
+        <v>8.642147327869802</v>
       </c>
       <c r="N3" t="n">
-        <v>116.3040890631392</v>
+        <v>115.7532783936509</v>
       </c>
       <c r="O3" t="n">
-        <v>10.78443735496383</v>
+        <v>10.75886975447007</v>
       </c>
       <c r="P3" t="n">
-        <v>384.147092990109</v>
+        <v>384.1903106707424</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33917,28 +34113,28 @@
         <v>0.026</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8012562280198801</v>
+        <v>-0.8092982542867767</v>
       </c>
       <c r="J4" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K4" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1688658288494234</v>
+        <v>0.1733893981750516</v>
       </c>
       <c r="M4" t="n">
-        <v>10.69745459119729</v>
+        <v>10.67190296994775</v>
       </c>
       <c r="N4" t="n">
-        <v>179.3363073707459</v>
+        <v>178.4950743371404</v>
       </c>
       <c r="O4" t="n">
-        <v>13.39165065892722</v>
+        <v>13.36020487631609</v>
       </c>
       <c r="P4" t="n">
-        <v>384.8422754300398</v>
+        <v>384.9215876186305</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33995,28 +34191,28 @@
         <v>0.0256</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5870617283539872</v>
+        <v>-0.5925397502101006</v>
       </c>
       <c r="J5" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K5" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1019821267792687</v>
+        <v>0.1048873298326303</v>
       </c>
       <c r="M5" t="n">
-        <v>10.53424691086343</v>
+        <v>10.49313695077895</v>
       </c>
       <c r="N5" t="n">
-        <v>171.3464876923868</v>
+        <v>170.3747853142039</v>
       </c>
       <c r="O5" t="n">
-        <v>13.0899384143848</v>
+        <v>13.05276925844489</v>
       </c>
       <c r="P5" t="n">
-        <v>374.7247287477363</v>
+        <v>374.77905087454</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34073,28 +34269,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.473392159113904</v>
+        <v>-0.4729224228934797</v>
       </c>
       <c r="J6" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K6" t="n">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06039804614316158</v>
+        <v>0.06102504522674401</v>
       </c>
       <c r="M6" t="n">
-        <v>11.03746810941416</v>
+        <v>10.98963378487152</v>
       </c>
       <c r="N6" t="n">
-        <v>194.1531001285815</v>
+        <v>192.9962881919353</v>
       </c>
       <c r="O6" t="n">
-        <v>13.93388316760915</v>
+        <v>13.89231039791205</v>
       </c>
       <c r="P6" t="n">
-        <v>363.1816418703207</v>
+        <v>363.1768792687412</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34151,28 +34347,28 @@
         <v>0.0267</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3554895330495947</v>
+        <v>-0.3569742781533209</v>
       </c>
       <c r="J7" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K7" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03640665760568207</v>
+        <v>0.03715397604555748</v>
       </c>
       <c r="M7" t="n">
-        <v>10.7750619352195</v>
+        <v>10.72827129879678</v>
       </c>
       <c r="N7" t="n">
-        <v>184.5073762744669</v>
+        <v>183.3942097044916</v>
       </c>
       <c r="O7" t="n">
-        <v>13.58334922890768</v>
+        <v>13.54231183013047</v>
       </c>
       <c r="P7" t="n">
-        <v>351.2050700065705</v>
+        <v>351.2201160647501</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34229,28 +34425,28 @@
         <v>0.0309</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2622710687360728</v>
+        <v>-0.2623024589081411</v>
       </c>
       <c r="J8" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K8" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01836676781305047</v>
+        <v>0.01859455106204189</v>
       </c>
       <c r="M8" t="n">
-        <v>11.31657426103234</v>
+        <v>11.27336760144092</v>
       </c>
       <c r="N8" t="n">
-        <v>204.9102895494728</v>
+        <v>203.7561853694077</v>
       </c>
       <c r="O8" t="n">
-        <v>14.31468789563617</v>
+        <v>14.27431908601625</v>
       </c>
       <c r="P8" t="n">
-        <v>349.9065096610718</v>
+        <v>349.9067859364142</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34307,28 +34503,28 @@
         <v>0.0258</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2319553426755094</v>
+        <v>-0.2271411921833555</v>
       </c>
       <c r="J9" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K9" t="n">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01390843032192612</v>
+        <v>0.0134917188266177</v>
       </c>
       <c r="M9" t="n">
-        <v>11.42317186529038</v>
+        <v>11.3879367442258</v>
       </c>
       <c r="N9" t="n">
-        <v>212.2242829923992</v>
+        <v>211.2697937635206</v>
       </c>
       <c r="O9" t="n">
-        <v>14.56791965218093</v>
+        <v>14.53512276396456</v>
       </c>
       <c r="P9" t="n">
-        <v>351.9224494304434</v>
+        <v>351.8737126363699</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34385,28 +34581,28 @@
         <v>0.0259</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.08678496725381545</v>
+        <v>-0.07998054060175633</v>
       </c>
       <c r="J10" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K10" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002439740249532418</v>
+        <v>0.002096890029411824</v>
       </c>
       <c r="M10" t="n">
-        <v>10.47840601721352</v>
+        <v>10.44446766602922</v>
       </c>
       <c r="N10" t="n">
-        <v>170.9548730128981</v>
+        <v>170.1080533200235</v>
       </c>
       <c r="O10" t="n">
-        <v>13.07497124329144</v>
+        <v>13.04254780784888</v>
       </c>
       <c r="P10" t="n">
-        <v>355.0355647336903</v>
+        <v>354.9666004009831</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34444,7 +34640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K721"/>
+  <dimension ref="A1:K725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70961,6 +71157,234 @@
         </is>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-03 21:54:14+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>-40.02178547231084,176.8912639581579</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>-40.022414570441825,176.89090078148664</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>-40.02299069252398,176.89039019976667</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>-40.02358245478333,176.88992315636816</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>-40.02417303646225,176.88944883492192</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>-40.02477349059814,176.8889942510198</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>-40.0254015200399,176.88862710248844</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>-40.02606008698764,176.88835477961834</t>
+        </is>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>-40.026715662382976,176.88807329995532</t>
+        </is>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:28+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>-40.02174615425984,176.89115454543318</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>-40.02241382116129,176.89089869640623</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>-40.02299259749037,176.890395500856</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>-40.02360904828455,176.88999716015167</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>-40.02420315157172,176.88953618777623</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>-40.02477387918908,176.88899543502603</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>-40.02540401430453,176.8886347524837</t>
+        </is>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>-40.02606690232018,176.8883756826188</t>
+        </is>
+      </c>
+      <c r="J723" t="inlineStr">
+        <is>
+          <t>-40.0267261664571,176.88810551673538</t>
+        </is>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-19 21:54:19+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>-40.02170889344738,176.8910508579031</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>-40.02237388064021,176.89078755108025</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>-40.02297804354068,176.89035500054075</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>-40.02359731362257,176.8899645051803</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>-40.02421066193043,176.88955797260698</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>-40.024806344149376,176.8890943534101</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>-40.02545266992311,176.88878398136933</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>-40.026109796667114,176.88850724231477</t>
+        </is>
+      </c>
+      <c r="J724" t="inlineStr">
+        <is>
+          <t>-40.026743485862994,176.88815863673088</t>
+        </is>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-27 21:54:21+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>-40.02177522372091,176.8912354387443</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>-40.022418786731656,176.89091251448238</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>-40.02302181964235,176.89047681960122</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>-40.02361194384898,176.89000521787352</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>-40.024212097733816,176.88956213735455</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>-40.02479284947595,176.8890532360732</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>-40.0254217903158,176.88868927218337</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>-40.026037427734764,176.8882852825574</t>
+        </is>
+      </c>
+      <c r="J725" t="inlineStr">
+        <is>
+          <t>-40.02670909294049,176.88805315100396</t>
+        </is>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K725"/>
+  <dimension ref="A1:K726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26430,6 +26430,45 @@
         <v>354.13</v>
       </c>
       <c r="K725" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:35+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="C726" t="n">
+        <v>373.2166666666667</v>
+      </c>
+      <c r="D726" t="n">
+        <v>367.15</v>
+      </c>
+      <c r="E726" t="n">
+        <v>362.14</v>
+      </c>
+      <c r="F726" t="n">
+        <v>356.89</v>
+      </c>
+      <c r="G726" t="n">
+        <v>340.13</v>
+      </c>
+      <c r="H726" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="I726" t="n">
+        <v>346.16</v>
+      </c>
+      <c r="J726" t="n">
+        <v>353.23</v>
+      </c>
+      <c r="K726" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -26446,7 +26485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B733"/>
+  <dimension ref="A1:B734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33784,6 +33823,16 @@
       </c>
       <c r="B733" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -33957,28 +34006,28 @@
         <v>0.0302</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7616913098840605</v>
+        <v>-0.7585736574577712</v>
       </c>
       <c r="J2" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K2" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1928437850474818</v>
+        <v>0.1919344264201945</v>
       </c>
       <c r="M2" t="n">
-        <v>9.503481410078507</v>
+        <v>9.504052656851881</v>
       </c>
       <c r="N2" t="n">
-        <v>136.6935598265821</v>
+        <v>136.6199306017448</v>
       </c>
       <c r="O2" t="n">
-        <v>11.69160210692196</v>
+        <v>11.68845287459999</v>
       </c>
       <c r="P2" t="n">
-        <v>376.5865081858718</v>
+        <v>376.5552042163883</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34035,28 +34084,28 @@
         <v>0.0311</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6465632052915206</v>
+        <v>-0.6446802093409517</v>
       </c>
       <c r="J3" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K3" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1704634644529192</v>
+        <v>0.1700630282269474</v>
       </c>
       <c r="M3" t="n">
-        <v>8.642147327869802</v>
+        <v>8.637411723326704</v>
       </c>
       <c r="N3" t="n">
-        <v>115.7532783936509</v>
+        <v>115.616745178219</v>
       </c>
       <c r="O3" t="n">
-        <v>10.75886975447007</v>
+        <v>10.75252273553602</v>
       </c>
       <c r="P3" t="n">
-        <v>384.1903106707424</v>
+        <v>384.1715862776089</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34113,28 +34162,28 @@
         <v>0.026</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8092982542867767</v>
+        <v>-0.8082234368052362</v>
       </c>
       <c r="J4" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K4" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1733893981750516</v>
+        <v>0.173499489679798</v>
       </c>
       <c r="M4" t="n">
-        <v>10.67190296994775</v>
+        <v>10.65894096328658</v>
       </c>
       <c r="N4" t="n">
-        <v>178.4950743371404</v>
+        <v>178.2096987744767</v>
       </c>
       <c r="O4" t="n">
-        <v>13.36020487631609</v>
+        <v>13.34952054474155</v>
       </c>
       <c r="P4" t="n">
-        <v>384.9215876186305</v>
+        <v>384.9109225213809</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34191,28 +34240,28 @@
         <v>0.0256</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5925397502101006</v>
+        <v>-0.5916413748593689</v>
       </c>
       <c r="J5" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K5" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1048873298326303</v>
+        <v>0.1049215449668618</v>
       </c>
       <c r="M5" t="n">
-        <v>10.49313695077895</v>
+        <v>10.47999208553078</v>
       </c>
       <c r="N5" t="n">
-        <v>170.3747853142039</v>
+        <v>170.1006762159814</v>
       </c>
       <c r="O5" t="n">
-        <v>13.05276925844489</v>
+        <v>13.04226499562026</v>
       </c>
       <c r="P5" t="n">
-        <v>374.77905087454</v>
+        <v>374.7700844996334</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34269,28 +34318,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4729224228934797</v>
+        <v>-0.4710145282934121</v>
       </c>
       <c r="J6" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K6" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06102504522674401</v>
+        <v>0.06074063169883248</v>
       </c>
       <c r="M6" t="n">
-        <v>10.98963378487152</v>
+        <v>10.98039165044959</v>
       </c>
       <c r="N6" t="n">
-        <v>192.9962881919353</v>
+        <v>192.7385502287247</v>
       </c>
       <c r="O6" t="n">
-        <v>13.89231039791205</v>
+        <v>13.88303101735081</v>
       </c>
       <c r="P6" t="n">
-        <v>363.1768792687412</v>
+        <v>363.1576721597055</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34347,28 +34396,28 @@
         <v>0.0267</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3569742781533209</v>
+        <v>-0.3575379240290698</v>
       </c>
       <c r="J7" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K7" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03715397604555748</v>
+        <v>0.03738666709432537</v>
       </c>
       <c r="M7" t="n">
-        <v>10.72827129879678</v>
+        <v>10.71357089478357</v>
       </c>
       <c r="N7" t="n">
-        <v>183.3942097044916</v>
+        <v>183.0958305308427</v>
       </c>
       <c r="O7" t="n">
-        <v>13.54231183013047</v>
+        <v>13.531290793226</v>
       </c>
       <c r="P7" t="n">
-        <v>351.2201160647501</v>
+        <v>351.2258730797691</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34425,28 +34474,28 @@
         <v>0.0309</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2623024589081411</v>
+        <v>-0.263293033176596</v>
       </c>
       <c r="J8" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K8" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01859455106204189</v>
+        <v>0.01879331426113939</v>
       </c>
       <c r="M8" t="n">
-        <v>11.27336760144092</v>
+        <v>11.25993290109751</v>
       </c>
       <c r="N8" t="n">
-        <v>203.7561853694077</v>
+        <v>203.4294671054469</v>
       </c>
       <c r="O8" t="n">
-        <v>14.27431908601625</v>
+        <v>14.26287022676176</v>
       </c>
       <c r="P8" t="n">
-        <v>349.9067859364142</v>
+        <v>349.91685228146</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34503,28 +34552,28 @@
         <v>0.0258</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2271411921833555</v>
+        <v>-0.2270759664344932</v>
       </c>
       <c r="J9" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K9" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0134917188266177</v>
+        <v>0.01352870836669817</v>
       </c>
       <c r="M9" t="n">
-        <v>11.3879367442258</v>
+        <v>11.36919022277431</v>
       </c>
       <c r="N9" t="n">
-        <v>211.2697937635206</v>
+        <v>210.915979131161</v>
       </c>
       <c r="O9" t="n">
-        <v>14.53512276396456</v>
+        <v>14.5229466407875</v>
       </c>
       <c r="P9" t="n">
-        <v>351.8737126363699</v>
+        <v>351.873048317693</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34581,28 +34630,28 @@
         <v>0.0259</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07998054060175633</v>
+        <v>-0.07987178300555239</v>
       </c>
       <c r="J10" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K10" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002096890029411824</v>
+        <v>0.002098135343959973</v>
       </c>
       <c r="M10" t="n">
-        <v>10.44446766602922</v>
+        <v>10.42776965307043</v>
       </c>
       <c r="N10" t="n">
-        <v>170.1080533200235</v>
+        <v>169.8270822083944</v>
       </c>
       <c r="O10" t="n">
-        <v>13.04254780784888</v>
+        <v>13.03177202871484</v>
       </c>
       <c r="P10" t="n">
-        <v>354.9666004009831</v>
+        <v>354.9654918097763</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34640,7 +34689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K725"/>
+  <dimension ref="A1:K726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71385,6 +71434,63 @@
         </is>
       </c>
     </row>
+    <row r="726">
+      <c r="A726" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-28 21:54:35+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>-40.02179983556372,176.89130392775863</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>-40.02244017295338,176.89097202765063</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>-40.02303142064906,176.8905035371173</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>-40.02362668835864,176.8900462486514</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>-40.02422045484265,176.88958637832448</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>-40.02478430048639,176.8890271879253</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>-40.02540903796263,176.8886501602222</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>-40.02605597670783,176.8883421731715</t>
+        </is>
+      </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>-40.02670593117542,176.88804345364898</t>
+        </is>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K726"/>
+  <dimension ref="A1:K727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26469,6 +26469,45 @@
         <v>353.23</v>
       </c>
       <c r="K726" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:44+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>373.41</v>
+      </c>
+      <c r="C727" t="n">
+        <v>379.9933333333333</v>
+      </c>
+      <c r="D727" t="n">
+        <v>372.1</v>
+      </c>
+      <c r="E727" t="n">
+        <v>365.79</v>
+      </c>
+      <c r="F727" t="n">
+        <v>355.35</v>
+      </c>
+      <c r="G727" t="n">
+        <v>358.09</v>
+      </c>
+      <c r="H727" t="n">
+        <v>364.66</v>
+      </c>
+      <c r="I727" t="n">
+        <v>362.93</v>
+      </c>
+      <c r="J727" t="n">
+        <v>370.46</v>
+      </c>
+      <c r="K727" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -26485,7 +26524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B734"/>
+  <dimension ref="A1:B735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33833,6 +33872,16 @@
       </c>
       <c r="B734" t="n">
         <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:50:00+00:00</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -34689,7 +34738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K726"/>
+  <dimension ref="A1:K727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71491,6 +71540,63 @@
         </is>
       </c>
     </row>
+    <row r="727">
+      <c r="A727" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-29 21:54:44+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>-40.02182654279338,176.8913782479339</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>-40.02246599131196,176.89104387465198</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>-40.02305027975032,176.8905560179732</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>-40.02364059466497,176.8900849469457</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>-40.0242147852628,176.88956993290816</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>-40.02484774655897,176.88922050407822</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>-40.02549584502755,176.88891640197022</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>-40.02611489057988,176.8885228657124</t>
+        </is>
+      </c>
+      <c r="J727" t="inlineStr">
+        <is>
+          <t>-40.02676646126233,176.88822910426907</t>
+        </is>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -34055,28 +34055,28 @@
         <v>0.0302</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7585736574577712</v>
+        <v>-0.7531743509419274</v>
       </c>
       <c r="J2" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K2" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1919344264201945</v>
+        <v>0.1897467077590832</v>
       </c>
       <c r="M2" t="n">
-        <v>9.504052656851881</v>
+        <v>9.516749567482863</v>
       </c>
       <c r="N2" t="n">
-        <v>136.6199306017448</v>
+        <v>136.856211653346</v>
       </c>
       <c r="O2" t="n">
-        <v>11.68845287459999</v>
+        <v>11.69855596444903</v>
       </c>
       <c r="P2" t="n">
-        <v>376.5552042163883</v>
+        <v>376.5007637239913</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34133,28 +34133,28 @@
         <v>0.0311</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6446802093409517</v>
+        <v>-0.6406067458283004</v>
       </c>
       <c r="J3" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K3" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1700630282269474</v>
+        <v>0.1684507670773522</v>
       </c>
       <c r="M3" t="n">
-        <v>8.637411723326704</v>
+        <v>8.644031297085995</v>
       </c>
       <c r="N3" t="n">
-        <v>115.616745178219</v>
+        <v>115.6910598542111</v>
       </c>
       <c r="O3" t="n">
-        <v>10.75252273553602</v>
+        <v>10.75597786601531</v>
       </c>
       <c r="P3" t="n">
-        <v>384.1715862776089</v>
+        <v>384.130909600814</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34211,28 +34211,28 @@
         <v>0.026</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8082234368052362</v>
+        <v>-0.8055224495391087</v>
       </c>
       <c r="J4" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K4" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L4" t="n">
-        <v>0.173499489679798</v>
+        <v>0.1729565698707587</v>
       </c>
       <c r="M4" t="n">
-        <v>10.65894096328658</v>
+        <v>10.65387798092509</v>
       </c>
       <c r="N4" t="n">
-        <v>178.2096987744767</v>
+        <v>178.0238884354997</v>
       </c>
       <c r="O4" t="n">
-        <v>13.34952054474155</v>
+        <v>13.34255929106181</v>
       </c>
       <c r="P4" t="n">
-        <v>384.9109225213809</v>
+        <v>384.8840077650588</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34289,28 +34289,28 @@
         <v>0.0256</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5916413748593689</v>
+        <v>-0.589556081352012</v>
       </c>
       <c r="J5" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K5" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1049215449668618</v>
+        <v>0.1045494510515982</v>
       </c>
       <c r="M5" t="n">
-        <v>10.47999208553078</v>
+        <v>10.47280976471072</v>
       </c>
       <c r="N5" t="n">
-        <v>170.1006762159814</v>
+        <v>169.8849075362499</v>
       </c>
       <c r="O5" t="n">
-        <v>13.04226499562026</v>
+        <v>13.03399046862663</v>
       </c>
       <c r="P5" t="n">
-        <v>374.7700844996334</v>
+        <v>374.7491836960628</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34367,28 +34367,28 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4710145282934121</v>
+        <v>-0.4695854600097661</v>
       </c>
       <c r="J6" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K6" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06074063169883248</v>
+        <v>0.06058124075340843</v>
       </c>
       <c r="M6" t="n">
-        <v>10.98039165044959</v>
+        <v>10.96891140149788</v>
       </c>
       <c r="N6" t="n">
-        <v>192.7385502287247</v>
+        <v>192.4553000489011</v>
       </c>
       <c r="O6" t="n">
-        <v>13.88303101735081</v>
+        <v>13.87282595756542</v>
       </c>
       <c r="P6" t="n">
-        <v>363.1576721597055</v>
+        <v>363.1432255554768</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34445,28 +34445,28 @@
         <v>0.0267</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3575379240290698</v>
+        <v>-0.352403955725604</v>
       </c>
       <c r="J7" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K7" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03738666709432537</v>
+        <v>0.03639550812005621</v>
       </c>
       <c r="M7" t="n">
-        <v>10.71357089478357</v>
+        <v>10.72161794394684</v>
       </c>
       <c r="N7" t="n">
-        <v>183.0958305308427</v>
+        <v>183.2255645675629</v>
       </c>
       <c r="O7" t="n">
-        <v>13.531290793226</v>
+        <v>13.5360837973013</v>
       </c>
       <c r="P7" t="n">
-        <v>351.2258730797691</v>
+        <v>351.1732146477369</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34523,28 +34523,28 @@
         <v>0.0309</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.263293033176596</v>
+        <v>-0.2564045809460079</v>
       </c>
       <c r="J8" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K8" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01879331426113939</v>
+        <v>0.01783250861326868</v>
       </c>
       <c r="M8" t="n">
-        <v>11.25993290109751</v>
+        <v>11.27520181698053</v>
       </c>
       <c r="N8" t="n">
-        <v>203.4294671054469</v>
+        <v>203.8698008477192</v>
       </c>
       <c r="O8" t="n">
-        <v>14.26287022676176</v>
+        <v>14.27829824761058</v>
       </c>
       <c r="P8" t="n">
-        <v>349.91685228146</v>
+        <v>349.8465514949554</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34601,28 +34601,28 @@
         <v>0.0258</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2270759664344932</v>
+        <v>-0.2216924505543078</v>
       </c>
       <c r="J9" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K9" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01352870836669817</v>
+        <v>0.01291707413666021</v>
       </c>
       <c r="M9" t="n">
-        <v>11.36919022277431</v>
+        <v>11.3770367474929</v>
       </c>
       <c r="N9" t="n">
-        <v>210.915979131161</v>
+        <v>211.0438583669308</v>
       </c>
       <c r="O9" t="n">
-        <v>14.5229466407875</v>
+        <v>14.52734863514092</v>
       </c>
       <c r="P9" t="n">
-        <v>351.873048317693</v>
+        <v>351.8179829964412</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34679,28 +34679,28 @@
         <v>0.0259</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07987178300555239</v>
+        <v>-0.07435938849895914</v>
       </c>
       <c r="J10" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K10" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002098135343959973</v>
+        <v>0.001819685017730444</v>
       </c>
       <c r="M10" t="n">
-        <v>10.42776965307043</v>
+        <v>10.4389476946149</v>
       </c>
       <c r="N10" t="n">
-        <v>169.8270822083944</v>
+        <v>170.0544801300613</v>
       </c>
       <c r="O10" t="n">
-        <v>13.03177202871484</v>
+        <v>13.04049386066576</v>
       </c>
       <c r="P10" t="n">
-        <v>354.9654918097763</v>
+        <v>354.9090632729176</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -599,7 +599,7 @@
         <v>329.49</v>
       </c>
       <c r="I4" t="n">
-        <v>335.5700000000001</v>
+        <v>335.57</v>
       </c>
       <c r="J4" t="n">
         <v>347.44</v>
@@ -620,7 +620,7 @@
         <v>389.02</v>
       </c>
       <c r="C5" t="n">
-        <v>392.4366666666667</v>
+        <v>392.44</v>
       </c>
       <c r="D5" t="n">
         <v>392.4</v>
@@ -659,7 +659,7 @@
         <v>378.9</v>
       </c>
       <c r="C6" t="n">
-        <v>400.6466666666667</v>
+        <v>400.65</v>
       </c>
       <c r="D6" t="n">
         <v>403.02</v>
@@ -776,7 +776,7 @@
         <v>381.48</v>
       </c>
       <c r="C9" t="n">
-        <v>392.7033333333333</v>
+        <v>392.7</v>
       </c>
       <c r="D9" t="n">
         <v>380.9</v>
@@ -815,7 +815,7 @@
         <v>370.06</v>
       </c>
       <c r="C10" t="n">
-        <v>380.6033333333333</v>
+        <v>380.6</v>
       </c>
       <c r="D10" t="n">
         <v>382.91</v>
@@ -854,7 +854,7 @@
         <v>344.51</v>
       </c>
       <c r="C11" t="n">
-        <v>351.4833333333333</v>
+        <v>351.48</v>
       </c>
       <c r="D11" t="n">
         <v>346.31</v>
@@ -932,7 +932,7 @@
         <v>374.68</v>
       </c>
       <c r="C13" t="n">
-        <v>388.3666666666667</v>
+        <v>388.37</v>
       </c>
       <c r="D13" t="n">
         <v>389.47</v>
@@ -941,7 +941,7 @@
         <v>374.15</v>
       </c>
       <c r="F13" t="n">
-        <v>351.5700000000001</v>
+        <v>351.57</v>
       </c>
       <c r="G13" t="n">
         <v>343.03</v>
@@ -971,13 +971,13 @@
         <v>386.53</v>
       </c>
       <c r="C14" t="n">
-        <v>397.7866666666667</v>
+        <v>397.79</v>
       </c>
       <c r="D14" t="n">
         <v>406.75</v>
       </c>
       <c r="E14" t="n">
-        <v>388.4500000000001</v>
+        <v>388.45</v>
       </c>
       <c r="F14" t="n">
         <v>373.05</v>
@@ -1049,7 +1049,7 @@
         <v>364.6</v>
       </c>
       <c r="C16" t="n">
-        <v>371.0833333333333</v>
+        <v>371.08</v>
       </c>
       <c r="D16" t="n">
         <v>369.62</v>
@@ -1127,7 +1127,7 @@
         <v>354.26</v>
       </c>
       <c r="C18" t="n">
-        <v>362.8666666666667</v>
+        <v>362.87</v>
       </c>
       <c r="D18" t="n">
         <v>365.69</v>
@@ -1277,7 +1277,7 @@
         <v>376.54</v>
       </c>
       <c r="C22" t="n">
-        <v>376.4166666666667</v>
+        <v>376.42</v>
       </c>
       <c r="D22" t="n">
         <v>375.7</v>
@@ -1355,7 +1355,7 @@
         <v>360.16</v>
       </c>
       <c r="C24" t="n">
-        <v>375.5833333333333</v>
+        <v>375.58</v>
       </c>
       <c r="D24" t="n">
         <v>383.74</v>
@@ -1433,7 +1433,7 @@
         <v>382.06</v>
       </c>
       <c r="C26" t="n">
-        <v>386.3866666666667</v>
+        <v>386.39</v>
       </c>
       <c r="D26" t="n">
         <v>391.95</v>
@@ -1472,7 +1472,7 @@
         <v>370.07</v>
       </c>
       <c r="C27" t="n">
-        <v>371.7233333333333</v>
+        <v>371.72</v>
       </c>
       <c r="D27" t="n">
         <v>377.99</v>
@@ -1550,7 +1550,7 @@
         <v>384.42</v>
       </c>
       <c r="C29" t="n">
-        <v>387.5533333333333</v>
+        <v>387.55</v>
       </c>
       <c r="D29" t="n">
         <v>383.8</v>
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>364.0100000000001</v>
+        <v>364.01</v>
       </c>
       <c r="C30" t="n">
-        <v>372.0666666666667</v>
+        <v>372.07</v>
       </c>
       <c r="D30" t="n">
         <v>348.37</v>
@@ -1628,7 +1628,7 @@
         <v>362.89</v>
       </c>
       <c r="C31" t="n">
-        <v>367.4133333333333</v>
+        <v>367.41</v>
       </c>
       <c r="D31" t="n">
         <v>366.83</v>
@@ -1667,7 +1667,7 @@
         <v>372.5</v>
       </c>
       <c r="C32" t="n">
-        <v>379.3866666666667</v>
+        <v>379.39</v>
       </c>
       <c r="D32" t="n">
         <v>380.28</v>
@@ -1706,7 +1706,7 @@
         <v>382.58</v>
       </c>
       <c r="C33" t="n">
-        <v>396.0733333333333</v>
+        <v>396.07</v>
       </c>
       <c r="D33" t="n">
         <v>389.04</v>
@@ -1784,7 +1784,7 @@
         <v>388.01</v>
       </c>
       <c r="C35" t="n">
-        <v>388.7966666666667</v>
+        <v>388.8</v>
       </c>
       <c r="D35" t="n">
         <v>380.29</v>
@@ -1823,7 +1823,7 @@
         <v>403.2</v>
       </c>
       <c r="C36" t="n">
-        <v>405.9666666666667</v>
+        <v>405.97</v>
       </c>
       <c r="D36" t="n">
         <v>396.83</v>
@@ -1862,7 +1862,7 @@
         <v>382.04</v>
       </c>
       <c r="C37" t="n">
-        <v>388.1733333333333</v>
+        <v>388.17</v>
       </c>
       <c r="D37" t="n">
         <v>382.27</v>
@@ -2049,7 +2049,7 @@
         <v>387.72</v>
       </c>
       <c r="C42" t="n">
-        <v>391.6633333333333</v>
+        <v>391.66</v>
       </c>
       <c r="D42" t="n">
         <v>376.51</v>
@@ -2088,7 +2088,7 @@
         <v>374.67</v>
       </c>
       <c r="C43" t="n">
-        <v>380.9433333333333</v>
+        <v>380.94</v>
       </c>
       <c r="D43" t="n">
         <v>368.79</v>
@@ -2156,7 +2156,7 @@
         <v>384.56</v>
       </c>
       <c r="C45" t="n">
-        <v>384.6133333333333</v>
+        <v>384.61</v>
       </c>
       <c r="D45" t="n">
         <v>374.99</v>
@@ -2195,7 +2195,7 @@
         <v>390.41</v>
       </c>
       <c r="C46" t="n">
-        <v>407.4566666666667</v>
+        <v>407.46</v>
       </c>
       <c r="D46" t="n">
         <v>390.8</v>
@@ -2234,7 +2234,7 @@
         <v>380.24</v>
       </c>
       <c r="C47" t="n">
-        <v>387.1966666666667</v>
+        <v>387.2</v>
       </c>
       <c r="D47" t="n">
         <v>384.08</v>
@@ -2273,7 +2273,7 @@
         <v>383.33</v>
       </c>
       <c r="C48" t="n">
-        <v>384.9333333333333</v>
+        <v>384.93</v>
       </c>
       <c r="D48" t="n">
         <v>377.86</v>
@@ -2312,7 +2312,7 @@
         <v>380.3</v>
       </c>
       <c r="C49" t="n">
-        <v>390.1233333333333</v>
+        <v>390.12</v>
       </c>
       <c r="D49" t="n">
         <v>392.17</v>
@@ -2351,7 +2351,7 @@
         <v>383.85</v>
       </c>
       <c r="C50" t="n">
-        <v>383.0166666666667</v>
+        <v>383.02</v>
       </c>
       <c r="D50" t="n">
         <v>389.41</v>
@@ -2390,7 +2390,7 @@
         <v>382.71</v>
       </c>
       <c r="C51" t="n">
-        <v>386.1566666666667</v>
+        <v>386.16</v>
       </c>
       <c r="D51" t="n">
         <v>388.64</v>
@@ -2405,7 +2405,7 @@
         <v>364.13</v>
       </c>
       <c r="H51" t="n">
-        <v>355.9299999999999</v>
+        <v>355.93</v>
       </c>
       <c r="I51" t="n">
         <v>355.45</v>
@@ -2460,7 +2460,7 @@
         <v>387.12</v>
       </c>
       <c r="C53" t="n">
-        <v>389.0933333333333</v>
+        <v>389.09</v>
       </c>
       <c r="D53" t="n">
         <v>393.81</v>
@@ -2499,7 +2499,7 @@
         <v>359.32</v>
       </c>
       <c r="C54" t="n">
-        <v>375.2933333333333</v>
+        <v>375.29</v>
       </c>
       <c r="D54" t="n">
         <v>373.36</v>
@@ -2538,7 +2538,7 @@
         <v>368.98</v>
       </c>
       <c r="C55" t="n">
-        <v>379.3166666666667</v>
+        <v>379.32</v>
       </c>
       <c r="D55" t="n">
         <v>383.55</v>
@@ -2616,7 +2616,7 @@
         <v>374.07</v>
       </c>
       <c r="C57" t="n">
-        <v>383.0966666666667</v>
+        <v>383.1</v>
       </c>
       <c r="D57" t="n">
         <v>384.35</v>
@@ -2655,7 +2655,7 @@
         <v>371.56</v>
       </c>
       <c r="C58" t="n">
-        <v>402.8233333333333</v>
+        <v>402.82</v>
       </c>
       <c r="D58" t="n">
         <v>394.85</v>
@@ -2772,7 +2772,7 @@
         <v>359.81</v>
       </c>
       <c r="C61" t="n">
-        <v>376.1066666666667</v>
+        <v>376.11</v>
       </c>
       <c r="D61" t="n">
         <v>373.18</v>
@@ -2811,7 +2811,7 @@
         <v>366.67</v>
       </c>
       <c r="C62" t="n">
-        <v>376.1066666666667</v>
+        <v>376.11</v>
       </c>
       <c r="D62" t="n">
         <v>369.64</v>
@@ -2848,7 +2848,7 @@
         <v>388.45</v>
       </c>
       <c r="C63" t="n">
-        <v>392.7566666666667</v>
+        <v>392.76</v>
       </c>
       <c r="D63" t="n">
         <v>394.9</v>
@@ -2884,10 +2884,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>375.2600000000001</v>
+        <v>375.26</v>
       </c>
       <c r="C64" t="n">
-        <v>386.5433333333333</v>
+        <v>386.54</v>
       </c>
       <c r="D64" t="n">
         <v>390.72</v>
@@ -2926,7 +2926,7 @@
         <v>378.65</v>
       </c>
       <c r="C65" t="n">
-        <v>375.6766666666667</v>
+        <v>375.68</v>
       </c>
       <c r="D65" t="n">
         <v>376.39</v>
@@ -2965,7 +2965,7 @@
         <v>355.82</v>
       </c>
       <c r="C66" t="n">
-        <v>370.7933333333333</v>
+        <v>370.79</v>
       </c>
       <c r="D66" t="n">
         <v>383.35</v>
@@ -3002,7 +3002,7 @@
         <v>381.4</v>
       </c>
       <c r="C67" t="n">
-        <v>384.9033333333333</v>
+        <v>384.9</v>
       </c>
       <c r="D67" t="n">
         <v>393.96</v>
@@ -3111,13 +3111,13 @@
         <v>387.83</v>
       </c>
       <c r="C70" t="n">
-        <v>390.1633333333333</v>
+        <v>390.16</v>
       </c>
       <c r="D70" t="n">
         <v>403.52</v>
       </c>
       <c r="E70" t="n">
-        <v>392.9500000000001</v>
+        <v>392.95</v>
       </c>
       <c r="F70" t="n">
         <v>381.41</v>
@@ -3150,7 +3150,7 @@
         <v>380.98</v>
       </c>
       <c r="C71" t="n">
-        <v>390.0733333333333</v>
+        <v>390.07</v>
       </c>
       <c r="D71" t="n">
         <v>396.36</v>
@@ -3189,7 +3189,7 @@
         <v>377</v>
       </c>
       <c r="C72" t="n">
-        <v>386.8133333333333</v>
+        <v>386.81</v>
       </c>
       <c r="D72" t="n">
         <v>387.13</v>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>383.1833333333333</v>
+        <v>383.18</v>
       </c>
       <c r="D75" t="n">
         <v>379.48</v>
@@ -3370,7 +3370,7 @@
         <v>381.41</v>
       </c>
       <c r="C77" t="n">
-        <v>390.4266666666667</v>
+        <v>390.43</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
@@ -3440,7 +3440,7 @@
         <v>358.37</v>
       </c>
       <c r="C79" t="n">
-        <v>363.0833333333333</v>
+        <v>363.08</v>
       </c>
       <c r="D79" t="n">
         <v>367.37</v>
@@ -3539,7 +3539,7 @@
         <v>379.12</v>
       </c>
       <c r="C82" t="n">
-        <v>386.6133333333333</v>
+        <v>386.61</v>
       </c>
       <c r="D82" t="n">
         <v>379.68</v>
@@ -3609,7 +3609,7 @@
         <v>385.92</v>
       </c>
       <c r="C84" t="n">
-        <v>392.8733333333333</v>
+        <v>392.87</v>
       </c>
       <c r="D84" t="n">
         <v>394.22</v>
@@ -3642,7 +3642,7 @@
         <v>383.89</v>
       </c>
       <c r="C85" t="n">
-        <v>387.6466666666667</v>
+        <v>387.65</v>
       </c>
       <c r="D85" t="n">
         <v>390.24</v>
@@ -3681,7 +3681,7 @@
         <v>372.77</v>
       </c>
       <c r="C86" t="n">
-        <v>376.9733333333333</v>
+        <v>376.97</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
@@ -3689,7 +3689,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>340.6799999999999</v>
+        <v>340.68</v>
       </c>
       <c r="J86" t="n">
         <v>361.15</v>
@@ -3710,7 +3710,7 @@
         <v>358.76</v>
       </c>
       <c r="C87" t="n">
-        <v>361.7866666666667</v>
+        <v>361.79</v>
       </c>
       <c r="D87" t="n">
         <v>353.94</v>
@@ -3805,7 +3805,7 @@
         <v>403.01</v>
       </c>
       <c r="C90" t="n">
-        <v>407.0366666666667</v>
+        <v>407.04</v>
       </c>
       <c r="D90" t="n">
         <v>398.82</v>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>394.1033333333333</v>
+        <v>394.1</v>
       </c>
       <c r="D91" t="n">
         <v>384</v>
@@ -3871,7 +3871,7 @@
         <v>401.9</v>
       </c>
       <c r="C92" t="n">
-        <v>397.8366666666667</v>
+        <v>397.84</v>
       </c>
       <c r="D92" t="n">
         <v>394.2</v>
@@ -3910,7 +3910,7 @@
         <v>379.84</v>
       </c>
       <c r="C93" t="n">
-        <v>384.9566666666667</v>
+        <v>384.96</v>
       </c>
       <c r="D93" t="n">
         <v>370.64</v>
@@ -3941,7 +3941,7 @@
         <v>384.65</v>
       </c>
       <c r="C94" t="n">
-        <v>390.8733333333333</v>
+        <v>390.87</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -3972,7 +3972,7 @@
         <v>374.96</v>
       </c>
       <c r="C95" t="n">
-        <v>377.7866666666667</v>
+        <v>377.79</v>
       </c>
       <c r="D95" t="n">
         <v>368.5</v>
@@ -4036,7 +4036,7 @@
         <v>398.09</v>
       </c>
       <c r="C97" t="n">
-        <v>397.2566666666667</v>
+        <v>397.26</v>
       </c>
       <c r="D97" t="n">
         <v>389.16</v>
@@ -4075,7 +4075,7 @@
         <v>368.29</v>
       </c>
       <c r="C98" t="n">
-        <v>372.1466666666667</v>
+        <v>372.15</v>
       </c>
       <c r="D98" t="n">
         <v>368.83</v>
@@ -4114,7 +4114,7 @@
         <v>373.07</v>
       </c>
       <c r="C99" t="n">
-        <v>377.3733333333333</v>
+        <v>377.37</v>
       </c>
       <c r="D99" t="n">
         <v>368.47</v>
@@ -4153,7 +4153,7 @@
         <v>368.57</v>
       </c>
       <c r="C100" t="n">
-        <v>381.1933333333333</v>
+        <v>381.19</v>
       </c>
       <c r="D100" t="n">
         <v>386.65</v>
@@ -4188,7 +4188,7 @@
         <v>368.13</v>
       </c>
       <c r="C101" t="n">
-        <v>384.6033333333333</v>
+        <v>384.6</v>
       </c>
       <c r="D101" t="n">
         <v>396.77</v>
@@ -4262,7 +4262,7 @@
         <v>377.11</v>
       </c>
       <c r="C103" t="n">
-        <v>388.9833333333333</v>
+        <v>388.98</v>
       </c>
       <c r="D103" t="n">
         <v>392.09</v>
@@ -4322,7 +4322,7 @@
         <v>353.31</v>
       </c>
       <c r="C105" t="n">
-        <v>368.9033333333333</v>
+        <v>368.9</v>
       </c>
       <c r="D105" t="n">
         <v>370.25</v>
@@ -4353,7 +4353,7 @@
         <v>371.29</v>
       </c>
       <c r="C106" t="n">
-        <v>378.9433333333333</v>
+        <v>378.94</v>
       </c>
       <c r="D106" t="n">
         <v>382.1</v>
@@ -4421,7 +4421,7 @@
         <v>373.15</v>
       </c>
       <c r="C108" t="n">
-        <v>373.6566666666667</v>
+        <v>373.66</v>
       </c>
       <c r="D108" t="n">
         <v>372.17</v>
@@ -4526,7 +4526,7 @@
         <v>377.26</v>
       </c>
       <c r="C111" t="n">
-        <v>385.5033333333333</v>
+        <v>385.5</v>
       </c>
       <c r="D111" t="n">
         <v>381.47</v>
@@ -4557,7 +4557,7 @@
         <v>389.18</v>
       </c>
       <c r="C112" t="n">
-        <v>396.0166666666667</v>
+        <v>396.02</v>
       </c>
       <c r="D112" t="n">
         <v>385.59</v>
@@ -4596,7 +4596,7 @@
         <v>379.5</v>
       </c>
       <c r="C113" t="n">
-        <v>381.7666666666667</v>
+        <v>381.77</v>
       </c>
       <c r="D113" t="n">
         <v>377.79</v>
@@ -4674,7 +4674,7 @@
         <v>382.62</v>
       </c>
       <c r="C115" t="n">
-        <v>386.6833333333333</v>
+        <v>386.68</v>
       </c>
       <c r="D115" t="n">
         <v>375.49</v>
@@ -4744,7 +4744,7 @@
         <v>369.5</v>
       </c>
       <c r="C117" t="n">
-        <v>373.0133333333333</v>
+        <v>373.01</v>
       </c>
       <c r="D117" t="n">
         <v>373.39</v>
@@ -4783,7 +4783,7 @@
         <v>359.04</v>
       </c>
       <c r="C118" t="n">
-        <v>362.8333333333333</v>
+        <v>362.83</v>
       </c>
       <c r="D118" t="n">
         <v>361.35</v>
@@ -4822,7 +4822,7 @@
         <v>373.21</v>
       </c>
       <c r="C119" t="n">
-        <v>373.1266666666667</v>
+        <v>373.13</v>
       </c>
       <c r="D119" t="n">
         <v>371.2</v>
@@ -4866,7 +4866,7 @@
         <v>371.66</v>
       </c>
       <c r="H120" t="n">
-        <v>370.5100000000001</v>
+        <v>370.51</v>
       </c>
       <c r="I120" t="n">
         <v>355.59</v>
@@ -4890,7 +4890,7 @@
         <v>363.64</v>
       </c>
       <c r="C121" t="n">
-        <v>368.0033333333333</v>
+        <v>368</v>
       </c>
       <c r="D121" t="n">
         <v>367.25</v>
@@ -4929,7 +4929,7 @@
         <v>362.32</v>
       </c>
       <c r="C122" t="n">
-        <v>364.9633333333333</v>
+        <v>364.96</v>
       </c>
       <c r="D122" t="n">
         <v>367.04</v>
@@ -4944,7 +4944,7 @@
         <v>349.23</v>
       </c>
       <c r="H122" t="n">
-        <v>345.1799999999999</v>
+        <v>345.18</v>
       </c>
       <c r="I122" t="n">
         <v>340.61</v>
@@ -4968,7 +4968,7 @@
         <v>372.64</v>
       </c>
       <c r="C123" t="n">
-        <v>379.9666666666667</v>
+        <v>379.97</v>
       </c>
       <c r="D123" t="n">
         <v>377.27</v>
@@ -4999,7 +4999,7 @@
         <v>352.58</v>
       </c>
       <c r="C124" t="n">
-        <v>365.9866666666667</v>
+        <v>365.99</v>
       </c>
       <c r="D124" t="n">
         <v>371.97</v>
@@ -5031,10 +5031,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>375.5700000000001</v>
+        <v>375.57</v>
       </c>
       <c r="C125" t="n">
-        <v>381.3166666666667</v>
+        <v>381.32</v>
       </c>
       <c r="D125" t="n">
         <v>386.54</v>
@@ -5043,7 +5043,7 @@
         <v>383.81</v>
       </c>
       <c r="F125" t="n">
-        <v>372.4500000000001</v>
+        <v>372.45</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
@@ -5075,10 +5075,10 @@
         <v>349.7</v>
       </c>
       <c r="I126" t="n">
-        <v>355.8200000000001</v>
+        <v>355.82</v>
       </c>
       <c r="J126" t="n">
-        <v>365.7600000000001</v>
+        <v>365.76</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>375.03</v>
       </c>
       <c r="C127" t="n">
-        <v>385.1233333333333</v>
+        <v>385.12</v>
       </c>
       <c r="D127" t="n">
         <v>389.64</v>
@@ -5135,7 +5135,7 @@
         <v>377.48</v>
       </c>
       <c r="C128" t="n">
-        <v>385.6133333333333</v>
+        <v>385.61</v>
       </c>
       <c r="D128" t="n">
         <v>389.92</v>
@@ -5273,7 +5273,7 @@
         <v>361.64</v>
       </c>
       <c r="C132" t="n">
-        <v>373.6366666666667</v>
+        <v>373.64</v>
       </c>
       <c r="D132" t="n">
         <v>374.91</v>
@@ -5385,7 +5385,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>368.0700000000001</v>
+        <v>368.07</v>
       </c>
       <c r="C135" t="n">
         <v>372.01</v>
@@ -5427,7 +5427,7 @@
         <v>358.69</v>
       </c>
       <c r="C136" t="n">
-        <v>359.9133333333333</v>
+        <v>359.91</v>
       </c>
       <c r="D136" t="n">
         <v>358.52</v>
@@ -5573,7 +5573,7 @@
         <v>383.62</v>
       </c>
       <c r="C140" t="n">
-        <v>383.6733333333333</v>
+        <v>383.67</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
@@ -5581,7 +5581,7 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>364.2000000000001</v>
+        <v>364.2</v>
       </c>
       <c r="J140" t="n">
         <v>363.98</v>
@@ -5602,7 +5602,7 @@
         <v>342.63</v>
       </c>
       <c r="C141" t="n">
-        <v>350.1966666666667</v>
+        <v>350.2</v>
       </c>
       <c r="D141" t="n">
         <v>349.53</v>
@@ -5631,7 +5631,7 @@
         <v>343.99</v>
       </c>
       <c r="C142" t="n">
-        <v>353.4433333333333</v>
+        <v>353.44</v>
       </c>
       <c r="D142" t="n">
         <v>350.42</v>
@@ -5670,7 +5670,7 @@
         <v>361.9</v>
       </c>
       <c r="C143" t="n">
-        <v>374.9833333333333</v>
+        <v>374.98</v>
       </c>
       <c r="D143" t="n">
         <v>380.25</v>
@@ -5780,13 +5780,13 @@
         <v>355.05</v>
       </c>
       <c r="F146" t="n">
-        <v>344.1799999999999</v>
+        <v>344.18</v>
       </c>
       <c r="G146" t="n">
         <v>335.99</v>
       </c>
       <c r="H146" t="n">
-        <v>337.1799999999999</v>
+        <v>337.18</v>
       </c>
       <c r="I146" t="n">
         <v>338.32</v>
@@ -5810,7 +5810,7 @@
         <v>346.37</v>
       </c>
       <c r="C147" t="n">
-        <v>357.7066666666667</v>
+        <v>357.71</v>
       </c>
       <c r="D147" t="n">
         <v>352.4</v>
@@ -5888,7 +5888,7 @@
         <v>348.41</v>
       </c>
       <c r="C149" t="n">
-        <v>364.3333333333333</v>
+        <v>364.33</v>
       </c>
       <c r="D149" t="n">
         <v>355.56</v>
@@ -5921,7 +5921,7 @@
         <v>370.69</v>
       </c>
       <c r="C150" t="n">
-        <v>377.6566666666667</v>
+        <v>377.66</v>
       </c>
       <c r="D150" t="n">
         <v>370.84</v>
@@ -5950,7 +5950,7 @@
         <v>360.73</v>
       </c>
       <c r="C151" t="n">
-        <v>374.0266666666667</v>
+        <v>374.03</v>
       </c>
       <c r="D151" t="n">
         <v>369.39</v>
@@ -5971,7 +5971,7 @@
         <v>323.42</v>
       </c>
       <c r="J151" t="n">
-        <v>330.1799999999999</v>
+        <v>330.18</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>357.84</v>
       </c>
       <c r="G152" t="n">
-        <v>343.0700000000001</v>
+        <v>343.07</v>
       </c>
       <c r="H152" t="n">
         <v>346.9</v>
@@ -6067,7 +6067,7 @@
         <v>363.36</v>
       </c>
       <c r="C154" t="n">
-        <v>376.8666666666667</v>
+        <v>376.87</v>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
         <v>384.67</v>
       </c>
       <c r="C155" t="n">
-        <v>391.4633333333333</v>
+        <v>391.46</v>
       </c>
       <c r="D155" t="n">
         <v>387.35</v>
@@ -6164,7 +6164,7 @@
         <v>390.46</v>
       </c>
       <c r="C157" t="n">
-        <v>399.7866666666667</v>
+        <v>399.79</v>
       </c>
       <c r="D157" t="n">
         <v>405.14</v>
@@ -6193,7 +6193,7 @@
         <v>352.72</v>
       </c>
       <c r="C158" t="n">
-        <v>365.2666666666667</v>
+        <v>365.27</v>
       </c>
       <c r="D158" t="n">
         <v>364.97</v>
@@ -6263,7 +6263,7 @@
         <v>380.76</v>
       </c>
       <c r="C160" t="n">
-        <v>380.8333333333333</v>
+        <v>380.83</v>
       </c>
       <c r="D160" t="n">
         <v>386.28</v>
@@ -6294,7 +6294,7 @@
         <v>366.52</v>
       </c>
       <c r="C161" t="n">
-        <v>393.5266666666667</v>
+        <v>393.53</v>
       </c>
       <c r="D161" t="n">
         <v>409.37</v>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>382.4133333333333</v>
+        <v>382.41</v>
       </c>
       <c r="D163" t="n">
         <v>392.74</v>
@@ -6409,10 +6409,10 @@
         <v>378.94</v>
       </c>
       <c r="C164" t="n">
-        <v>384.0733333333333</v>
+        <v>384.07</v>
       </c>
       <c r="D164" t="n">
-        <v>390.5100000000001</v>
+        <v>390.51</v>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
@@ -6440,7 +6440,7 @@
         <v>388.8</v>
       </c>
       <c r="C165" t="n">
-        <v>390.9133333333333</v>
+        <v>390.91</v>
       </c>
       <c r="D165" t="n">
         <v>402.77</v>
@@ -6449,7 +6449,7 @@
         <v>399.44</v>
       </c>
       <c r="F165" t="n">
-        <v>385.5700000000001</v>
+        <v>385.57</v>
       </c>
       <c r="G165" t="n">
         <v>370.15</v>
@@ -6461,7 +6461,7 @@
         <v>378.64</v>
       </c>
       <c r="J165" t="n">
-        <v>375.5100000000001</v>
+        <v>375.51</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>391.65</v>
       </c>
       <c r="C166" t="n">
-        <v>412.3833333333333</v>
+        <v>412.38</v>
       </c>
       <c r="D166" t="n">
         <v>420.51</v>
@@ -6510,7 +6510,7 @@
         <v>355.15</v>
       </c>
       <c r="C167" t="n">
-        <v>365.3466666666667</v>
+        <v>365.35</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>386.0700000000001</v>
+        <v>386.07</v>
       </c>
       <c r="C170" t="n">
         <v>395.76</v>
@@ -6615,7 +6615,7 @@
         <v>403.3</v>
       </c>
       <c r="E170" t="n">
-        <v>383.2600000000001</v>
+        <v>383.26</v>
       </c>
       <c r="F170" t="n">
         <v>366.69</v>
@@ -6679,7 +6679,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>404.4033333333333</v>
+        <v>404.4</v>
       </c>
       <c r="D172" t="n">
         <v>396.56</v>
@@ -6718,7 +6718,7 @@
         <v>390.27</v>
       </c>
       <c r="C173" t="n">
-        <v>396.0533333333333</v>
+        <v>396.05</v>
       </c>
       <c r="D173" t="n">
         <v>392.88</v>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>413.1533333333333</v>
+        <v>413.15</v>
       </c>
       <c r="D174" t="n">
         <v>413.03</v>
@@ -6756,7 +6756,7 @@
         <v>373.75</v>
       </c>
       <c r="F174" t="n">
-        <v>373.5100000000001</v>
+        <v>373.51</v>
       </c>
       <c r="G174" t="n">
         <v>360.87</v>
@@ -6852,7 +6852,7 @@
         <v>364.27</v>
       </c>
       <c r="C177" t="n">
-        <v>377.5133333333333</v>
+        <v>377.51</v>
       </c>
       <c r="D177" t="n">
         <v>374.68</v>
@@ -6945,7 +6945,7 @@
         <v>374.15</v>
       </c>
       <c r="C180" t="n">
-        <v>379.9766666666667</v>
+        <v>379.98</v>
       </c>
       <c r="D180" t="n">
         <v>367.04</v>
@@ -7050,7 +7050,7 @@
         <v>374.57</v>
       </c>
       <c r="C183" t="n">
-        <v>385.8033333333333</v>
+        <v>385.8</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -7081,7 +7081,7 @@
         <v>370.25</v>
       </c>
       <c r="C184" t="n">
-        <v>383.5433333333333</v>
+        <v>383.54</v>
       </c>
       <c r="D184" t="n">
         <v>386.88</v>
@@ -7145,7 +7145,7 @@
         <v>378.92</v>
       </c>
       <c r="C186" t="n">
-        <v>378.5066666666667</v>
+        <v>378.51</v>
       </c>
       <c r="D186" t="n">
         <v>378.76</v>
@@ -7174,7 +7174,7 @@
         <v>383.68</v>
       </c>
       <c r="C187" t="n">
-        <v>381.5433333333333</v>
+        <v>381.54</v>
       </c>
       <c r="D187" t="n">
         <v>383.4</v>
@@ -7211,7 +7211,7 @@
         <v>391.51</v>
       </c>
       <c r="C188" t="n">
-        <v>388.6666666666667</v>
+        <v>388.67</v>
       </c>
       <c r="D188" t="n">
         <v>387.66</v>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>373.5433333333333</v>
+        <v>373.54</v>
       </c>
       <c r="D189" t="n">
         <v>370.87</v>
@@ -7419,7 +7419,7 @@
         <v>396.36</v>
       </c>
       <c r="C194" t="n">
-        <v>390.0533333333333</v>
+        <v>390.05</v>
       </c>
       <c r="D194" t="n">
         <v>396.74</v>
@@ -7458,7 +7458,7 @@
         <v>358.15</v>
       </c>
       <c r="C195" t="n">
-        <v>367.4333333333333</v>
+        <v>367.43</v>
       </c>
       <c r="D195" t="n">
         <v>379.94</v>
@@ -7489,7 +7489,7 @@
         <v>357.53</v>
       </c>
       <c r="C196" t="n">
-        <v>392.5533333333333</v>
+        <v>392.55</v>
       </c>
       <c r="D196" t="n">
         <v>390.22</v>
@@ -7559,7 +7559,7 @@
         <v>369.49</v>
       </c>
       <c r="C198" t="n">
-        <v>378.6766666666667</v>
+        <v>378.68</v>
       </c>
       <c r="D198" t="n">
         <v>386.3</v>
@@ -7594,7 +7594,7 @@
         <v>388.57</v>
       </c>
       <c r="C199" t="n">
-        <v>402.6233333333333</v>
+        <v>402.62</v>
       </c>
       <c r="D199" t="n">
         <v>401.85</v>
@@ -7660,7 +7660,7 @@
         <v>363.55</v>
       </c>
       <c r="C201" t="n">
-        <v>371.1166666666667</v>
+        <v>371.12</v>
       </c>
       <c r="D201" t="n">
         <v>371.18</v>
@@ -7732,7 +7732,7 @@
         <v>373.78</v>
       </c>
       <c r="C203" t="n">
-        <v>379.1233333333333</v>
+        <v>379.12</v>
       </c>
       <c r="D203" t="n">
         <v>372.51</v>
@@ -7766,7 +7766,7 @@
         <v>366.69</v>
       </c>
       <c r="D204" t="n">
-        <v>354.9299999999999</v>
+        <v>354.93</v>
       </c>
       <c r="E204" t="n">
         <v>350.24</v>
@@ -7967,7 +7967,7 @@
         <v>351.61</v>
       </c>
       <c r="I210" t="n">
-        <v>344.1799999999999</v>
+        <v>344.18</v>
       </c>
       <c r="J210" t="n">
         <v>347.15</v>
@@ -8021,7 +8021,7 @@
         <v>375.74</v>
       </c>
       <c r="C212" t="n">
-        <v>393.8566666666667</v>
+        <v>393.86</v>
       </c>
       <c r="D212" t="n">
         <v>398.98</v>
@@ -8127,7 +8127,7 @@
         <v>375.55</v>
       </c>
       <c r="F215" t="n">
-        <v>364.4500000000001</v>
+        <v>364.45</v>
       </c>
       <c r="G215" t="n">
         <v>358.95</v>
@@ -8151,7 +8151,7 @@
         <v>372</v>
       </c>
       <c r="C216" t="n">
-        <v>381.1533333333333</v>
+        <v>381.15</v>
       </c>
       <c r="D216" t="n">
         <v>385.7</v>
@@ -8182,7 +8182,7 @@
         <v>360.16</v>
       </c>
       <c r="C217" t="n">
-        <v>374.1833333333333</v>
+        <v>374.18</v>
       </c>
       <c r="D217" t="n">
         <v>386.43</v>
@@ -8291,7 +8291,7 @@
         <v>375.06</v>
       </c>
       <c r="C220" t="n">
-        <v>376.8466666666667</v>
+        <v>376.85</v>
       </c>
       <c r="D220" t="n">
         <v>369.85</v>
@@ -8300,7 +8300,7 @@
         <v>379.83</v>
       </c>
       <c r="F220" t="n">
-        <v>368.5700000000001</v>
+        <v>368.57</v>
       </c>
       <c r="G220" t="n">
         <v>360.61</v>
@@ -8452,13 +8452,13 @@
         <v>362.83</v>
       </c>
       <c r="C225" t="n">
-        <v>374.6733333333333</v>
+        <v>374.67</v>
       </c>
       <c r="D225" t="n">
         <v>369.12</v>
       </c>
       <c r="E225" t="n">
-        <v>355.0700000000001</v>
+        <v>355.07</v>
       </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
@@ -8516,7 +8516,7 @@
         <v>385.93</v>
       </c>
       <c r="C227" t="n">
-        <v>388.8933333333333</v>
+        <v>388.89</v>
       </c>
       <c r="D227" t="n">
         <v>395.18</v>
@@ -8553,7 +8553,7 @@
         <v>388.5</v>
       </c>
       <c r="C228" t="n">
-        <v>410.1333333333333</v>
+        <v>410.13</v>
       </c>
       <c r="D228" t="n">
         <v>420.51</v>
@@ -8609,16 +8609,16 @@
         <v>371.72</v>
       </c>
       <c r="C230" t="n">
-        <v>381.3866666666667</v>
+        <v>381.39</v>
       </c>
       <c r="D230" t="n">
-        <v>387.3200000000001</v>
+        <v>387.32</v>
       </c>
       <c r="E230" t="n">
         <v>386.58</v>
       </c>
       <c r="F230" t="n">
-        <v>380.7600000000001</v>
+        <v>380.76</v>
       </c>
       <c r="G230" t="n">
         <v>367.43</v>
@@ -8681,7 +8681,7 @@
         <v>365.45</v>
       </c>
       <c r="C232" t="n">
-        <v>377.0466666666667</v>
+        <v>377.05</v>
       </c>
       <c r="D232" t="n">
         <v>384.39</v>
@@ -8855,10 +8855,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>357.1799999999999</v>
+        <v>357.18</v>
       </c>
       <c r="C237" t="n">
-        <v>360.9333333333333</v>
+        <v>360.93</v>
       </c>
       <c r="D237" t="n">
         <v>353.88</v>
@@ -8994,7 +8994,7 @@
         <v>358.06</v>
       </c>
       <c r="C241" t="n">
-        <v>368.2966666666667</v>
+        <v>368.3</v>
       </c>
       <c r="D241" t="n">
         <v>374.47</v>
@@ -9023,7 +9023,7 @@
         <v>360.75</v>
       </c>
       <c r="C242" t="n">
-        <v>367.9266666666667</v>
+        <v>367.93</v>
       </c>
       <c r="D242" t="n">
         <v>368.18</v>
@@ -9069,7 +9069,7 @@
         <v>348.64</v>
       </c>
       <c r="J243" t="n">
-        <v>363.0700000000001</v>
+        <v>363.07</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>378.62</v>
       </c>
       <c r="C244" t="n">
-        <v>381.9433333333333</v>
+        <v>381.94</v>
       </c>
       <c r="D244" t="n">
         <v>378.31</v>
@@ -9122,7 +9122,7 @@
         <v>377.82</v>
       </c>
       <c r="C245" t="n">
-        <v>383.2466666666666</v>
+        <v>383.25</v>
       </c>
       <c r="D245" t="n">
         <v>382.24</v>
@@ -9192,7 +9192,7 @@
         <v>386.27</v>
       </c>
       <c r="C247" t="n">
-        <v>383.2466666666666</v>
+        <v>383.25</v>
       </c>
       <c r="D247" t="n">
         <v>379.66</v>
@@ -9231,7 +9231,7 @@
         <v>389.47</v>
       </c>
       <c r="C248" t="n">
-        <v>396.1766666666667</v>
+        <v>396.18</v>
       </c>
       <c r="D248" t="n">
         <v>381.38</v>
@@ -9303,7 +9303,7 @@
         <v>364.55</v>
       </c>
       <c r="C250" t="n">
-        <v>372.0166666666667</v>
+        <v>372.02</v>
       </c>
       <c r="D250" t="n">
         <v>365.37</v>
@@ -9495,7 +9495,7 @@
         <v>335.15</v>
       </c>
       <c r="C256" t="n">
-        <v>358.4366666666667</v>
+        <v>358.44</v>
       </c>
       <c r="D256" t="n">
         <v>352.72</v>
@@ -9528,7 +9528,7 @@
         <v>357.2</v>
       </c>
       <c r="C257" t="n">
-        <v>362.4233333333333</v>
+        <v>362.42</v>
       </c>
       <c r="D257" t="n">
         <v>365.12</v>
@@ -9621,7 +9621,7 @@
         <v>367.91</v>
       </c>
       <c r="C260" t="n">
-        <v>376.5833333333333</v>
+        <v>376.58</v>
       </c>
       <c r="D260" t="n">
         <v>376.14</v>
@@ -9724,7 +9724,7 @@
         <v>366.25</v>
       </c>
       <c r="C263" t="n">
-        <v>379.7633333333333</v>
+        <v>379.76</v>
       </c>
       <c r="D263" t="n">
         <v>392.25</v>
@@ -9763,7 +9763,7 @@
         <v>376.88</v>
       </c>
       <c r="C264" t="n">
-        <v>382.6433333333333</v>
+        <v>382.64</v>
       </c>
       <c r="D264" t="n">
         <v>380.73</v>
@@ -9794,7 +9794,7 @@
         <v>383.19</v>
       </c>
       <c r="C265" t="n">
-        <v>386.8466666666667</v>
+        <v>386.85</v>
       </c>
       <c r="D265" t="n">
         <v>391.29</v>
@@ -9833,7 +9833,7 @@
         <v>367.5</v>
       </c>
       <c r="C266" t="n">
-        <v>380.6733333333333</v>
+        <v>380.67</v>
       </c>
       <c r="D266" t="n">
         <v>396.29</v>
@@ -9868,7 +9868,7 @@
         <v>385.62</v>
       </c>
       <c r="C267" t="n">
-        <v>394.2666666666667</v>
+        <v>394.27</v>
       </c>
       <c r="D267" t="n">
         <v>398.88</v>
@@ -9901,7 +9901,7 @@
         <v>364.24</v>
       </c>
       <c r="C268" t="n">
-        <v>379.4133333333333</v>
+        <v>379.41</v>
       </c>
       <c r="D268" t="n">
         <v>385.27</v>
@@ -9998,7 +9998,7 @@
         <v>337.7</v>
       </c>
       <c r="C271" t="n">
-        <v>355.7033333333333</v>
+        <v>355.7</v>
       </c>
       <c r="D271" t="n">
         <v>357.71</v>
@@ -10037,7 +10037,7 @@
         <v>368.33</v>
       </c>
       <c r="C272" t="n">
-        <v>374.3433333333333</v>
+        <v>374.34</v>
       </c>
       <c r="D272" t="n">
         <v>371.59</v>
@@ -10142,7 +10142,7 @@
         <v>341.88</v>
       </c>
       <c r="C275" t="n">
-        <v>371.2666666666667</v>
+        <v>371.27</v>
       </c>
       <c r="D275" t="n">
         <v>359.48</v>
@@ -10179,7 +10179,7 @@
         <v>375.78</v>
       </c>
       <c r="C276" t="n">
-        <v>383.8633333333333</v>
+        <v>383.86</v>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr"/>
@@ -10208,7 +10208,7 @@
         <v>383.02</v>
       </c>
       <c r="C277" t="n">
-        <v>384.4333333333333</v>
+        <v>384.43</v>
       </c>
       <c r="D277" t="n">
         <v>389.15</v>
@@ -10256,7 +10256,7 @@
         <v>358.34</v>
       </c>
       <c r="F278" t="n">
-        <v>341.8200000000001</v>
+        <v>341.82</v>
       </c>
       <c r="G278" t="n">
         <v>336.47</v>
@@ -10428,7 +10428,7 @@
         <v>374.07</v>
       </c>
       <c r="C283" t="n">
-        <v>375.1066666666667</v>
+        <v>375.11</v>
       </c>
       <c r="D283" t="n">
         <v>371.71</v>
@@ -10459,7 +10459,7 @@
         <v>361.74</v>
       </c>
       <c r="C284" t="n">
-        <v>367.8233333333333</v>
+        <v>367.82</v>
       </c>
       <c r="D284" t="n">
         <v>357.3</v>
@@ -10498,7 +10498,7 @@
         <v>382.67</v>
       </c>
       <c r="C285" t="n">
-        <v>382.2566666666667</v>
+        <v>382.26</v>
       </c>
       <c r="D285" t="n">
         <v>375.68</v>
@@ -10535,7 +10535,7 @@
         <v>375.43</v>
       </c>
       <c r="E286" t="n">
-        <v>365.9500000000001</v>
+        <v>365.95</v>
       </c>
       <c r="F286" t="n">
         <v>359.29</v>
@@ -10568,7 +10568,7 @@
         <v>364.23</v>
       </c>
       <c r="C287" t="n">
-        <v>372.5433333333333</v>
+        <v>372.54</v>
       </c>
       <c r="D287" t="n">
         <v>367.22</v>
@@ -10607,7 +10607,7 @@
         <v>348.58</v>
       </c>
       <c r="C288" t="n">
-        <v>358.2266666666667</v>
+        <v>358.23</v>
       </c>
       <c r="D288" t="n">
         <v>354.4</v>
@@ -10681,7 +10681,7 @@
         <v>348.37</v>
       </c>
       <c r="C290" t="n">
-        <v>358.8233333333333</v>
+        <v>358.82</v>
       </c>
       <c r="D290" t="n">
         <v>355.42</v>
@@ -10757,7 +10757,7 @@
         <v>359.74</v>
       </c>
       <c r="C292" t="n">
-        <v>374.9166666666667</v>
+        <v>374.92</v>
       </c>
       <c r="D292" t="n">
         <v>381.64</v>
@@ -10829,7 +10829,7 @@
         <v>362.1</v>
       </c>
       <c r="C294" t="n">
-        <v>369.6066666666667</v>
+        <v>369.61</v>
       </c>
       <c r="D294" t="n">
         <v>369.87</v>
@@ -11025,7 +11025,7 @@
         <v>355.92</v>
       </c>
       <c r="C300" t="n">
-        <v>371.6833333333333</v>
+        <v>371.68</v>
       </c>
       <c r="D300" t="n">
         <v>363.46</v>
@@ -11095,7 +11095,7 @@
         <v>359.8</v>
       </c>
       <c r="C302" t="n">
-        <v>367.4466666666667</v>
+        <v>367.45</v>
       </c>
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr"/>
@@ -11181,7 +11181,7 @@
         <v>347.54</v>
       </c>
       <c r="I304" t="n">
-        <v>353.1799999999999</v>
+        <v>353.18</v>
       </c>
       <c r="J304" t="n">
         <v>352.91</v>
@@ -11233,7 +11233,7 @@
         <v>366.02</v>
       </c>
       <c r="C306" t="n">
-        <v>372.9866666666667</v>
+        <v>372.99</v>
       </c>
       <c r="D306" t="n">
         <v>378.43</v>
@@ -11264,7 +11264,7 @@
         <v>375.98</v>
       </c>
       <c r="C307" t="n">
-        <v>383.0766666666667</v>
+        <v>383.08</v>
       </c>
       <c r="D307" t="n">
         <v>384.53</v>
@@ -11303,7 +11303,7 @@
         <v>357.69</v>
       </c>
       <c r="C308" t="n">
-        <v>380.0633333333333</v>
+        <v>380.06</v>
       </c>
       <c r="D308" t="n">
         <v>380.84</v>
@@ -11373,7 +11373,7 @@
         <v>365.68</v>
       </c>
       <c r="C310" t="n">
-        <v>374.0966666666667</v>
+        <v>374.1</v>
       </c>
       <c r="D310" t="n">
         <v>368.36</v>
@@ -11484,7 +11484,7 @@
         <v>341.21</v>
       </c>
       <c r="C313" t="n">
-        <v>366.5533333333333</v>
+        <v>366.55</v>
       </c>
       <c r="D313" t="n">
         <v>360.37</v>
@@ -11562,7 +11562,7 @@
         <v>368.89</v>
       </c>
       <c r="C315" t="n">
-        <v>375.1433333333333</v>
+        <v>375.14</v>
       </c>
       <c r="D315" t="n">
         <v>378.59</v>
@@ -11647,7 +11647,7 @@
         <v>352.15</v>
       </c>
       <c r="J317" t="n">
-        <v>352.5700000000001</v>
+        <v>352.57</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>362.68</v>
       </c>
       <c r="C318" t="n">
-        <v>376.4033333333333</v>
+        <v>376.4</v>
       </c>
       <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr"/>
@@ -11719,7 +11719,7 @@
         <v>366.4</v>
       </c>
       <c r="C320" t="n">
-        <v>377.8566666666667</v>
+        <v>377.86</v>
       </c>
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr"/>
@@ -11826,7 +11826,7 @@
         <v>367.87</v>
       </c>
       <c r="C323" t="n">
-        <v>372.9066666666667</v>
+        <v>372.91</v>
       </c>
       <c r="D323" t="n">
         <v>378.81</v>
@@ -11896,7 +11896,7 @@
         <v>373.01</v>
       </c>
       <c r="C325" t="n">
-        <v>390.4666666666667</v>
+        <v>390.47</v>
       </c>
       <c r="D325" t="n">
         <v>400.49</v>
@@ -11935,7 +11935,7 @@
         <v>382.76</v>
       </c>
       <c r="C326" t="n">
-        <v>384.5533333333333</v>
+        <v>384.55</v>
       </c>
       <c r="D326" t="n">
         <v>381.02</v>
@@ -11966,7 +11966,7 @@
         <v>373.52</v>
       </c>
       <c r="C327" t="n">
-        <v>375.9333333333333</v>
+        <v>375.93</v>
       </c>
       <c r="D327" t="n">
         <v>377.87</v>
@@ -12081,7 +12081,7 @@
         <v>336</v>
       </c>
       <c r="C330" t="n">
-        <v>341.9133333333333</v>
+        <v>341.91</v>
       </c>
       <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr"/>
@@ -12141,7 +12141,7 @@
         <v>352.83</v>
       </c>
       <c r="C332" t="n">
-        <v>359.3966666666667</v>
+        <v>359.4</v>
       </c>
       <c r="D332" t="n">
         <v>356.18</v>
@@ -12180,7 +12180,7 @@
         <v>358.82</v>
       </c>
       <c r="C333" t="n">
-        <v>368.7633333333333</v>
+        <v>368.76</v>
       </c>
       <c r="D333" t="n">
         <v>360.45</v>
@@ -12215,7 +12215,7 @@
         <v>365.9</v>
       </c>
       <c r="C334" t="n">
-        <v>369.2766666666667</v>
+        <v>369.28</v>
       </c>
       <c r="D334" t="n">
         <v>367.74</v>
@@ -12254,7 +12254,7 @@
         <v>358.3</v>
       </c>
       <c r="C335" t="n">
-        <v>362.8433333333333</v>
+        <v>362.84</v>
       </c>
       <c r="D335" t="n">
         <v>357.28</v>
@@ -12363,7 +12363,7 @@
         <v>352.98</v>
       </c>
       <c r="C338" t="n">
-        <v>365.2233333333333</v>
+        <v>365.22</v>
       </c>
       <c r="D338" t="n">
         <v>359.86</v>
@@ -12433,7 +12433,7 @@
         <v>339.54</v>
       </c>
       <c r="C340" t="n">
-        <v>355.5033333333333</v>
+        <v>355.5</v>
       </c>
       <c r="D340" t="n">
         <v>347.68</v>
@@ -12507,7 +12507,7 @@
         <v>339.41</v>
       </c>
       <c r="C342" t="n">
-        <v>352.7166666666667</v>
+        <v>352.72</v>
       </c>
       <c r="D342" t="n">
         <v>341.16</v>
@@ -12546,7 +12546,7 @@
         <v>346.92</v>
       </c>
       <c r="C343" t="n">
-        <v>364.4566666666667</v>
+        <v>364.46</v>
       </c>
       <c r="D343" t="n">
         <v>353.84</v>
@@ -12577,7 +12577,7 @@
         <v>352.86</v>
       </c>
       <c r="C344" t="n">
-        <v>365.8533333333333</v>
+        <v>365.85</v>
       </c>
       <c r="D344" t="n">
         <v>353.66</v>
@@ -12711,7 +12711,7 @@
         <v>365.39</v>
       </c>
       <c r="C348" t="n">
-        <v>370.7333333333333</v>
+        <v>370.73</v>
       </c>
       <c r="D348" t="n">
         <v>367.69</v>
@@ -12781,7 +12781,7 @@
         <v>357.71</v>
       </c>
       <c r="C350" t="n">
-        <v>364.3633333333333</v>
+        <v>364.36</v>
       </c>
       <c r="D350" t="n">
         <v>364.02</v>
@@ -12820,7 +12820,7 @@
         <v>352.42</v>
       </c>
       <c r="C351" t="n">
-        <v>368.3466666666667</v>
+        <v>368.35</v>
       </c>
       <c r="D351" t="n">
         <v>356.96</v>
@@ -12833,7 +12833,7 @@
         <v>329.41</v>
       </c>
       <c r="J351" t="n">
-        <v>335.1799999999999</v>
+        <v>335.18</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>381.15</v>
       </c>
       <c r="C353" t="n">
-        <v>391.5466666666667</v>
+        <v>391.55</v>
       </c>
       <c r="D353" t="n">
         <v>389.7</v>
@@ -12914,10 +12914,10 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>369.0100000000001</v>
+        <v>369.01</v>
       </c>
       <c r="C354" t="n">
-        <v>387.2266666666667</v>
+        <v>387.23</v>
       </c>
       <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr"/>
@@ -12987,7 +12987,7 @@
         <v>373.39</v>
       </c>
       <c r="C356" t="n">
-        <v>391.0733333333333</v>
+        <v>391.07</v>
       </c>
       <c r="D356" t="n">
         <v>383.76</v>
@@ -13049,7 +13049,7 @@
         <v>363.75</v>
       </c>
       <c r="C358" t="n">
-        <v>377.9533333333333</v>
+        <v>377.95</v>
       </c>
       <c r="D358" t="n">
         <v>372.96</v>
@@ -13088,7 +13088,7 @@
         <v>357.7</v>
       </c>
       <c r="C359" t="n">
-        <v>386.7666666666667</v>
+        <v>386.77</v>
       </c>
       <c r="D359" t="n">
         <v>389.72</v>
@@ -13230,7 +13230,7 @@
         <v>381.4</v>
       </c>
       <c r="C363" t="n">
-        <v>387.2733333333333</v>
+        <v>387.27</v>
       </c>
       <c r="D363" t="n">
         <v>388.07</v>
@@ -13296,7 +13296,7 @@
         <v>368.73</v>
       </c>
       <c r="C365" t="n">
-        <v>381.1133333333333</v>
+        <v>381.11</v>
       </c>
       <c r="D365" t="n">
         <v>386.77</v>
@@ -13335,13 +13335,13 @@
         <v>374.21</v>
       </c>
       <c r="C366" t="n">
-        <v>386.0666666666667</v>
+        <v>386.07</v>
       </c>
       <c r="D366" t="n">
         <v>382.63</v>
       </c>
       <c r="E366" t="n">
-        <v>374.5700000000001</v>
+        <v>374.57</v>
       </c>
       <c r="F366" t="n">
         <v>369.58</v>
@@ -13366,7 +13366,7 @@
         <v>367.01</v>
       </c>
       <c r="C367" t="n">
-        <v>385.3666666666667</v>
+        <v>385.37</v>
       </c>
       <c r="D367" t="n">
         <v>399.36</v>
@@ -13442,7 +13442,7 @@
         <v>372.08</v>
       </c>
       <c r="C369" t="n">
-        <v>379.8233333333333</v>
+        <v>379.82</v>
       </c>
       <c r="D369" t="n">
         <v>381.51</v>
@@ -13473,7 +13473,7 @@
         <v>360.26</v>
       </c>
       <c r="C370" t="n">
-        <v>372.8733333333333</v>
+        <v>372.87</v>
       </c>
       <c r="D370" t="n">
         <v>381.19</v>
@@ -13512,7 +13512,7 @@
         <v>378.96</v>
       </c>
       <c r="C371" t="n">
-        <v>382.8833333333333</v>
+        <v>382.88</v>
       </c>
       <c r="D371" t="n">
         <v>391.28</v>
@@ -13551,7 +13551,7 @@
         <v>370.94</v>
       </c>
       <c r="C372" t="n">
-        <v>375.8966666666667</v>
+        <v>375.9</v>
       </c>
       <c r="D372" t="n">
         <v>388.95</v>
@@ -13623,7 +13623,7 @@
         <v>354.59</v>
       </c>
       <c r="C374" t="n">
-        <v>366.5766666666667</v>
+        <v>366.58</v>
       </c>
       <c r="D374" t="n">
         <v>375.05</v>
@@ -13658,13 +13658,13 @@
         <v>367.63</v>
       </c>
       <c r="C375" t="n">
-        <v>379.8466666666667</v>
+        <v>379.85</v>
       </c>
       <c r="D375" t="n">
         <v>384.27</v>
       </c>
       <c r="E375" t="n">
-        <v>375.2600000000001</v>
+        <v>375.26</v>
       </c>
       <c r="F375" t="n">
         <v>360.16</v>
@@ -13691,7 +13691,7 @@
         <v>367.44</v>
       </c>
       <c r="C376" t="n">
-        <v>386.2633333333333</v>
+        <v>386.26</v>
       </c>
       <c r="D376" t="n">
         <v>381.96</v>
@@ -13730,7 +13730,7 @@
         <v>352.98</v>
       </c>
       <c r="C377" t="n">
-        <v>376.9833333333333</v>
+        <v>376.98</v>
       </c>
       <c r="D377" t="n">
         <v>385.52</v>
@@ -13862,7 +13862,7 @@
         <v>336.18</v>
       </c>
       <c r="C381" t="n">
-        <v>350.4433333333333</v>
+        <v>350.44</v>
       </c>
       <c r="D381" t="n">
         <v>343.04</v>
@@ -13877,7 +13877,7 @@
         <v>324.94</v>
       </c>
       <c r="H381" t="n">
-        <v>316.5700000000001</v>
+        <v>316.57</v>
       </c>
       <c r="I381" t="n">
         <v>318.06</v>
@@ -13940,7 +13940,7 @@
         <v>371.39</v>
       </c>
       <c r="C383" t="n">
-        <v>385.7666666666667</v>
+        <v>385.77</v>
       </c>
       <c r="D383" t="n">
         <v>386.37</v>
@@ -13958,7 +13958,7 @@
         <v>347.41</v>
       </c>
       <c r="I383" t="n">
-        <v>346.4299999999999</v>
+        <v>346.43</v>
       </c>
       <c r="J383" t="n">
         <v>359.61</v>
@@ -14012,7 +14012,7 @@
         <v>360.36</v>
       </c>
       <c r="C385" t="n">
-        <v>367.1233333333333</v>
+        <v>367.12</v>
       </c>
       <c r="D385" t="n">
         <v>364.84</v>
@@ -14051,7 +14051,7 @@
         <v>366.42</v>
       </c>
       <c r="C386" t="n">
-        <v>375.9733333333333</v>
+        <v>375.97</v>
       </c>
       <c r="D386" t="n">
         <v>379</v>
@@ -14158,7 +14158,7 @@
         <v>364.75</v>
       </c>
       <c r="C389" t="n">
-        <v>368.6666666666667</v>
+        <v>368.67</v>
       </c>
       <c r="D389" t="inlineStr"/>
       <c r="E389" t="inlineStr"/>
@@ -14187,7 +14187,7 @@
         <v>373.68</v>
       </c>
       <c r="C390" t="n">
-        <v>382.1966666666667</v>
+        <v>382.2</v>
       </c>
       <c r="D390" t="n">
         <v>383.74</v>
@@ -14257,7 +14257,7 @@
         <v>384.38</v>
       </c>
       <c r="C392" t="n">
-        <v>391.0033333333333</v>
+        <v>391</v>
       </c>
       <c r="D392" t="n">
         <v>390.23</v>
@@ -14329,7 +14329,7 @@
         <v>381.8</v>
       </c>
       <c r="C394" t="n">
-        <v>395.2233333333333</v>
+        <v>395.22</v>
       </c>
       <c r="D394" t="n">
         <v>385.73</v>
@@ -14362,7 +14362,7 @@
         <v>377.32</v>
       </c>
       <c r="C395" t="n">
-        <v>401.4066666666667</v>
+        <v>401.41</v>
       </c>
       <c r="D395" t="n">
         <v>393.9</v>
@@ -14432,14 +14432,14 @@
         <v>381.75</v>
       </c>
       <c r="C397" t="n">
-        <v>384.9233333333333</v>
+        <v>384.92</v>
       </c>
       <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
       <c r="H397" t="n">
-        <v>351.4299999999999</v>
+        <v>351.43</v>
       </c>
       <c r="I397" t="n">
         <v>357.15</v>
@@ -14494,7 +14494,7 @@
         <v>388.01</v>
       </c>
       <c r="C399" t="n">
-        <v>389.1533333333333</v>
+        <v>389.15</v>
       </c>
       <c r="D399" t="inlineStr"/>
       <c r="E399" t="inlineStr"/>
@@ -14523,7 +14523,7 @@
         <v>390.33</v>
       </c>
       <c r="C400" t="n">
-        <v>394.5533333333333</v>
+        <v>394.55</v>
       </c>
       <c r="D400" t="n">
         <v>395.72</v>
@@ -14575,7 +14575,7 @@
         <v>333.75</v>
       </c>
       <c r="J401" t="n">
-        <v>344.0700000000001</v>
+        <v>344.07</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>352.16</v>
       </c>
       <c r="C403" t="n">
-        <v>365.9833333333333</v>
+        <v>365.98</v>
       </c>
       <c r="D403" t="n">
         <v>368.64</v>
@@ -14671,10 +14671,10 @@
         <v>362.74</v>
       </c>
       <c r="C404" t="n">
-        <v>372.5733333333333</v>
+        <v>372.57</v>
       </c>
       <c r="D404" t="n">
-        <v>364.3200000000001</v>
+        <v>364.32</v>
       </c>
       <c r="E404" t="n">
         <v>363.11</v>
@@ -14710,7 +14710,7 @@
         <v>345.48</v>
       </c>
       <c r="C405" t="n">
-        <v>362.5566666666667</v>
+        <v>362.56</v>
       </c>
       <c r="D405" t="n">
         <v>371.06</v>
@@ -14749,7 +14749,7 @@
         <v>364.02</v>
       </c>
       <c r="C406" t="n">
-        <v>377.5466666666667</v>
+        <v>377.55</v>
       </c>
       <c r="D406" t="n">
         <v>371.97</v>
@@ -14788,7 +14788,7 @@
         <v>370.9</v>
       </c>
       <c r="C407" t="n">
-        <v>381.1133333333333</v>
+        <v>381.11</v>
       </c>
       <c r="D407" t="n">
         <v>378.91</v>
@@ -14914,7 +14914,7 @@
         <v>371.7</v>
       </c>
       <c r="C411" t="n">
-        <v>380.4833333333333</v>
+        <v>380.48</v>
       </c>
       <c r="D411" t="n">
         <v>375.27</v>
@@ -15023,7 +15023,7 @@
         <v>343.35</v>
       </c>
       <c r="C414" t="n">
-        <v>345.4566666666667</v>
+        <v>345.46</v>
       </c>
       <c r="D414" t="n">
         <v>337.96</v>
@@ -15149,7 +15149,7 @@
         <v>363.74</v>
       </c>
       <c r="C418" t="n">
-        <v>373.8233333333333</v>
+        <v>373.82</v>
       </c>
       <c r="D418" t="n">
         <v>366.28</v>
@@ -15188,7 +15188,7 @@
         <v>363.44</v>
       </c>
       <c r="C419" t="n">
-        <v>376.2033333333333</v>
+        <v>376.2</v>
       </c>
       <c r="D419" t="n">
         <v>370.81</v>
@@ -15258,7 +15258,7 @@
         <v>372.19</v>
       </c>
       <c r="C421" t="n">
-        <v>381.0666666666667</v>
+        <v>381.07</v>
       </c>
       <c r="D421" t="n">
         <v>373.14</v>
@@ -15293,7 +15293,7 @@
         <v>355.59</v>
       </c>
       <c r="C422" t="n">
-        <v>358.4066666666667</v>
+        <v>358.41</v>
       </c>
       <c r="D422" t="n">
         <v>353.41</v>
@@ -15326,7 +15326,7 @@
         <v>362.66</v>
       </c>
       <c r="C423" t="n">
-        <v>366.3433333333333</v>
+        <v>366.34</v>
       </c>
       <c r="D423" t="n">
         <v>360.15</v>
@@ -15365,7 +15365,7 @@
         <v>378.34</v>
       </c>
       <c r="C424" t="n">
-        <v>374.9833333333333</v>
+        <v>374.98</v>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr"/>
@@ -15394,7 +15394,7 @@
         <v>378.36</v>
       </c>
       <c r="C425" t="n">
-        <v>382.6566666666667</v>
+        <v>382.66</v>
       </c>
       <c r="D425" t="n">
         <v>369.5</v>
@@ -15433,7 +15433,7 @@
         <v>365.71</v>
       </c>
       <c r="C426" t="n">
-        <v>370.5866666666667</v>
+        <v>370.59</v>
       </c>
       <c r="D426" t="n">
         <v>365.35</v>
@@ -15507,10 +15507,10 @@
         <v>358.24</v>
       </c>
       <c r="C428" t="n">
-        <v>360.8366666666667</v>
+        <v>360.84</v>
       </c>
       <c r="D428" t="n">
-        <v>361.0700000000001</v>
+        <v>361.07</v>
       </c>
       <c r="E428" t="n">
         <v>350.1</v>
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B429" t="inlineStr"/>
       <c r="C429" t="n">
-        <v>386.7333333333333</v>
+        <v>386.73</v>
       </c>
       <c r="D429" t="n">
         <v>393.71</v>
@@ -15556,7 +15556,7 @@
         <v>354.89</v>
       </c>
       <c r="G429" t="n">
-        <v>337.8200000000001</v>
+        <v>337.82</v>
       </c>
       <c r="H429" t="n">
         <v>352</v>
@@ -15828,7 +15828,7 @@
         <v>381.46</v>
       </c>
       <c r="C437" t="n">
-        <v>380.7533333333333</v>
+        <v>380.75</v>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr"/>
@@ -15859,7 +15859,7 @@
         <v>383.58</v>
       </c>
       <c r="C438" t="n">
-        <v>383.8333333333333</v>
+        <v>383.83</v>
       </c>
       <c r="D438" t="n">
         <v>381.42</v>
@@ -15898,7 +15898,7 @@
         <v>367.69</v>
       </c>
       <c r="C439" t="n">
-        <v>377.0666666666667</v>
+        <v>377.07</v>
       </c>
       <c r="D439" t="n">
         <v>376.16</v>
@@ -15974,7 +15974,7 @@
         <v>368.45</v>
       </c>
       <c r="C441" t="n">
-        <v>374.5566666666667</v>
+        <v>374.56</v>
       </c>
       <c r="D441" t="n">
         <v>377.36</v>
@@ -16087,7 +16087,7 @@
         <v>375.05</v>
       </c>
       <c r="C444" t="n">
-        <v>382.8766666666667</v>
+        <v>382.88</v>
       </c>
       <c r="D444" t="n">
         <v>385.14</v>
@@ -16126,7 +16126,7 @@
         <v>369.64</v>
       </c>
       <c r="C445" t="n">
-        <v>396.6166666666667</v>
+        <v>396.62</v>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr"/>
@@ -16217,7 +16217,7 @@
         <v>377.71</v>
       </c>
       <c r="C448" t="n">
-        <v>378.9333333333333</v>
+        <v>378.93</v>
       </c>
       <c r="D448" t="n">
         <v>372.36</v>
@@ -16256,7 +16256,7 @@
         <v>364.18</v>
       </c>
       <c r="C449" t="n">
-        <v>370.4933333333333</v>
+        <v>370.49</v>
       </c>
       <c r="D449" t="n">
         <v>360.94</v>
@@ -16268,7 +16268,7 @@
         <v>342.03</v>
       </c>
       <c r="G449" t="n">
-        <v>338.3200000000001</v>
+        <v>338.32</v>
       </c>
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr"/>
@@ -16293,7 +16293,7 @@
         <v>333.46</v>
       </c>
       <c r="G450" t="n">
-        <v>334.9299999999999</v>
+        <v>334.93</v>
       </c>
       <c r="H450" t="n">
         <v>323.59</v>
@@ -16351,7 +16351,7 @@
         <v>371.97</v>
       </c>
       <c r="C452" t="n">
-        <v>377.3966666666667</v>
+        <v>377.4</v>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr"/>
@@ -16382,7 +16382,7 @@
         <v>386.53</v>
       </c>
       <c r="C453" t="n">
-        <v>384.5566666666667</v>
+        <v>384.56</v>
       </c>
       <c r="D453" t="n">
         <v>382.21</v>
@@ -16418,10 +16418,10 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>380.5100000000001</v>
+        <v>380.51</v>
       </c>
       <c r="C454" t="n">
-        <v>393.4766666666667</v>
+        <v>393.48</v>
       </c>
       <c r="D454" t="n">
         <v>384.71</v>
@@ -16436,7 +16436,7 @@
         <v>354.22</v>
       </c>
       <c r="H454" t="n">
-        <v>356.5700000000001</v>
+        <v>356.57</v>
       </c>
       <c r="I454" t="n">
         <v>355.18</v>
@@ -16460,7 +16460,7 @@
         <v>379.83</v>
       </c>
       <c r="C455" t="n">
-        <v>382.0333333333333</v>
+        <v>382.03</v>
       </c>
       <c r="D455" t="n">
         <v>379.3</v>
@@ -16520,7 +16520,7 @@
         <v>385.96</v>
       </c>
       <c r="C457" t="n">
-        <v>391.8133333333333</v>
+        <v>391.81</v>
       </c>
       <c r="D457" t="n">
         <v>396.3</v>
@@ -16559,7 +16559,7 @@
         <v>359.97</v>
       </c>
       <c r="C458" t="n">
-        <v>360.0366666666667</v>
+        <v>360.04</v>
       </c>
       <c r="D458" t="n">
         <v>354.01</v>
@@ -16598,7 +16598,7 @@
         <v>361.01</v>
       </c>
       <c r="C459" t="n">
-        <v>368.5533333333333</v>
+        <v>368.55</v>
       </c>
       <c r="D459" t="n">
         <v>368.47</v>
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B461" t="inlineStr"/>
       <c r="C461" t="n">
-        <v>372.6433333333333</v>
+        <v>372.64</v>
       </c>
       <c r="D461" t="n">
         <v>357.73</v>
@@ -16707,7 +16707,7 @@
         <v>367.18</v>
       </c>
       <c r="C462" t="n">
-        <v>373.0966666666667</v>
+        <v>373.1</v>
       </c>
       <c r="D462" t="n">
         <v>372.87</v>
@@ -16785,7 +16785,7 @@
         <v>359.22</v>
       </c>
       <c r="C464" t="n">
-        <v>370.1566666666667</v>
+        <v>370.16</v>
       </c>
       <c r="D464" t="n">
         <v>374.65</v>
@@ -16803,7 +16803,7 @@
         <v>349.73</v>
       </c>
       <c r="I464" t="n">
-        <v>347.0700000000001</v>
+        <v>347.07</v>
       </c>
       <c r="J464" t="n">
         <v>345.51</v>
@@ -16824,7 +16824,7 @@
         <v>362</v>
       </c>
       <c r="C465" t="n">
-        <v>365.3033333333333</v>
+        <v>365.3</v>
       </c>
       <c r="D465" t="n">
         <v>369.61</v>
@@ -16923,7 +16923,7 @@
         <v>370</v>
       </c>
       <c r="C468" t="n">
-        <v>382.5266666666667</v>
+        <v>382.53</v>
       </c>
       <c r="D468" t="n">
         <v>391.96</v>
@@ -16954,7 +16954,7 @@
         <v>371.46</v>
       </c>
       <c r="C469" t="n">
-        <v>387.4333333333333</v>
+        <v>387.43</v>
       </c>
       <c r="D469" t="n">
         <v>401.5</v>
@@ -16999,7 +16999,7 @@
         <v>360.71</v>
       </c>
       <c r="E470" t="n">
-        <v>356.5700000000001</v>
+        <v>356.57</v>
       </c>
       <c r="F470" t="n">
         <v>346.27</v>
@@ -17071,7 +17071,7 @@
         <v>372.47</v>
       </c>
       <c r="C472" t="n">
-        <v>379.8133333333333</v>
+        <v>379.81</v>
       </c>
       <c r="D472" t="n">
         <v>371.7</v>
@@ -17110,7 +17110,7 @@
         <v>371.19</v>
       </c>
       <c r="C473" t="n">
-        <v>370.5466666666667</v>
+        <v>370.55</v>
       </c>
       <c r="D473" t="n">
         <v>371.53</v>
@@ -17149,7 +17149,7 @@
         <v>381.05</v>
       </c>
       <c r="C474" t="n">
-        <v>380.8633333333333</v>
+        <v>380.86</v>
       </c>
       <c r="D474" t="n">
         <v>386.1</v>
@@ -17188,7 +17188,7 @@
         <v>352.34</v>
       </c>
       <c r="C475" t="n">
-        <v>360.2733333333333</v>
+        <v>360.27</v>
       </c>
       <c r="D475" t="n">
         <v>365.29</v>
@@ -17227,7 +17227,7 @@
         <v>362.47</v>
       </c>
       <c r="C476" t="n">
-        <v>367.8433333333333</v>
+        <v>367.84</v>
       </c>
       <c r="D476" t="n">
         <v>372.84</v>
@@ -17266,10 +17266,10 @@
         <v>365.18</v>
       </c>
       <c r="C477" t="n">
-        <v>374.2666666666667</v>
+        <v>374.27</v>
       </c>
       <c r="D477" t="n">
-        <v>368.5700000000001</v>
+        <v>368.57</v>
       </c>
       <c r="E477" t="n">
         <v>371.91</v>
@@ -17305,7 +17305,7 @@
         <v>351.38</v>
       </c>
       <c r="C478" t="n">
-        <v>365.1566666666667</v>
+        <v>365.16</v>
       </c>
       <c r="D478" t="n">
         <v>356.95</v>
@@ -17462,7 +17462,7 @@
         <v>328.92</v>
       </c>
       <c r="H482" t="n">
-        <v>317.1799999999999</v>
+        <v>317.18</v>
       </c>
       <c r="I482" t="n">
         <v>329.67</v>
@@ -17486,7 +17486,7 @@
         <v>337.53</v>
       </c>
       <c r="C483" t="n">
-        <v>357.8066666666667</v>
+        <v>357.81</v>
       </c>
       <c r="D483" t="n">
         <v>356.06</v>
@@ -17525,7 +17525,7 @@
         <v>378.48</v>
       </c>
       <c r="C484" t="n">
-        <v>383.5466666666667</v>
+        <v>383.55</v>
       </c>
       <c r="D484" t="n">
         <v>391.46</v>
@@ -17564,7 +17564,7 @@
         <v>374.46</v>
       </c>
       <c r="C485" t="n">
-        <v>384.5533333333333</v>
+        <v>384.55</v>
       </c>
       <c r="D485" t="n">
         <v>387.87</v>
@@ -17640,7 +17640,7 @@
         <v>364.61</v>
       </c>
       <c r="C487" t="n">
-        <v>377.4266666666667</v>
+        <v>377.43</v>
       </c>
       <c r="D487" t="n">
         <v>371.85</v>
@@ -17676,7 +17676,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>357.1799999999999</v>
+        <v>357.18</v>
       </c>
       <c r="C488" t="n">
         <v>367.52</v>
@@ -17710,7 +17710,7 @@
         <v>353.39</v>
       </c>
       <c r="C489" t="n">
-        <v>370.7733333333333</v>
+        <v>370.77</v>
       </c>
       <c r="D489" t="n">
         <v>359.28</v>
@@ -17778,7 +17778,7 @@
         <v>371.39</v>
       </c>
       <c r="E491" t="n">
-        <v>347.3200000000001</v>
+        <v>347.32</v>
       </c>
       <c r="F491" t="n">
         <v>339.19</v>
@@ -17811,7 +17811,7 @@
         <v>349.12</v>
       </c>
       <c r="C492" t="n">
-        <v>357.4766666666667</v>
+        <v>357.48</v>
       </c>
       <c r="D492" t="n">
         <v>342.44</v>
@@ -17914,7 +17914,7 @@
         <v>370.61</v>
       </c>
       <c r="C495" t="n">
-        <v>379.0966666666667</v>
+        <v>379.1</v>
       </c>
       <c r="D495" t="n">
         <v>378.91</v>
@@ -18021,7 +18021,7 @@
         <v>365.94</v>
       </c>
       <c r="C498" t="n">
-        <v>367.2233333333333</v>
+        <v>367.22</v>
       </c>
       <c r="D498" t="n">
         <v>359.83</v>
@@ -18099,7 +18099,7 @@
         <v>349.68</v>
       </c>
       <c r="C500" t="n">
-        <v>355.8733333333333</v>
+        <v>355.87</v>
       </c>
       <c r="D500" t="n">
         <v>356.54</v>
@@ -18165,7 +18165,7 @@
         <v>364.88</v>
       </c>
       <c r="C502" t="n">
-        <v>370.6466666666667</v>
+        <v>370.65</v>
       </c>
       <c r="D502" t="n">
         <v>373.25</v>
@@ -18204,7 +18204,7 @@
         <v>362.38</v>
       </c>
       <c r="C503" t="n">
-        <v>372.3866666666667</v>
+        <v>372.39</v>
       </c>
       <c r="D503" t="n">
         <v>368.57</v>
@@ -18379,7 +18379,7 @@
         <v>368.5</v>
       </c>
       <c r="C508" t="n">
-        <v>359.1833333333333</v>
+        <v>359.18</v>
       </c>
       <c r="D508" t="n">
         <v>355.76</v>
@@ -18418,7 +18418,7 @@
         <v>361.84</v>
       </c>
       <c r="C509" t="n">
-        <v>365.4866666666667</v>
+        <v>365.49</v>
       </c>
       <c r="D509" t="n">
         <v>357.3</v>
@@ -18451,7 +18451,7 @@
         <v>372.2</v>
       </c>
       <c r="C510" t="n">
-        <v>374.1033333333333</v>
+        <v>374.1</v>
       </c>
       <c r="D510" t="n">
         <v>364.58</v>
@@ -18490,7 +18490,7 @@
         <v>364.74</v>
       </c>
       <c r="C511" t="n">
-        <v>373.9033333333333</v>
+        <v>373.9</v>
       </c>
       <c r="D511" t="n">
         <v>370.38</v>
@@ -18529,7 +18529,7 @@
         <v>367.15</v>
       </c>
       <c r="C512" t="n">
-        <v>376.5733333333333</v>
+        <v>376.57</v>
       </c>
       <c r="D512" t="n">
         <v>372.13</v>
@@ -18568,7 +18568,7 @@
         <v>348.14</v>
       </c>
       <c r="C513" t="n">
-        <v>360.8033333333333</v>
+        <v>360.8</v>
       </c>
       <c r="D513" t="n">
         <v>352.97</v>
@@ -18607,7 +18607,7 @@
         <v>348.18</v>
       </c>
       <c r="C514" t="n">
-        <v>362.3333333333333</v>
+        <v>362.33</v>
       </c>
       <c r="D514" t="n">
         <v>361.91</v>
@@ -18679,7 +18679,7 @@
       </c>
       <c r="B516" t="inlineStr"/>
       <c r="C516" t="n">
-        <v>380.9266666666667</v>
+        <v>380.93</v>
       </c>
       <c r="D516" t="n">
         <v>373.77</v>
@@ -18718,7 +18718,7 @@
         <v>344.08</v>
       </c>
       <c r="C517" t="n">
-        <v>354.2733333333333</v>
+        <v>354.27</v>
       </c>
       <c r="D517" t="n">
         <v>356.81</v>
@@ -18784,7 +18784,7 @@
         <v>356.11</v>
       </c>
       <c r="C519" t="n">
-        <v>369.2766666666667</v>
+        <v>369.28</v>
       </c>
       <c r="D519" t="n">
         <v>366.36</v>
@@ -18815,7 +18815,7 @@
         <v>347.33</v>
       </c>
       <c r="C520" t="n">
-        <v>363.3766666666667</v>
+        <v>363.38</v>
       </c>
       <c r="D520" t="n">
         <v>352.67</v>
@@ -18886,7 +18886,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>362.9500000000001</v>
+        <v>362.95</v>
       </c>
       <c r="C522" t="n">
         <v>366.02</v>
@@ -18928,7 +18928,7 @@
         <v>347.22</v>
       </c>
       <c r="C523" t="n">
-        <v>353.8133333333333</v>
+        <v>353.81</v>
       </c>
       <c r="D523" t="n">
         <v>352.91</v>
@@ -18986,7 +18986,7 @@
         <v>372.7</v>
       </c>
       <c r="C525" t="n">
-        <v>375.5033333333333</v>
+        <v>375.5</v>
       </c>
       <c r="D525" t="n">
         <v>364.48</v>
@@ -19017,7 +19017,7 @@
         <v>340.87</v>
       </c>
       <c r="C526" t="n">
-        <v>349.5066666666667</v>
+        <v>349.51</v>
       </c>
       <c r="D526" t="n">
         <v>347.81</v>
@@ -19056,7 +19056,7 @@
         <v>346.07</v>
       </c>
       <c r="C527" t="n">
-        <v>351.1666666666667</v>
+        <v>351.17</v>
       </c>
       <c r="D527" t="n">
         <v>347.9</v>
@@ -19095,7 +19095,7 @@
         <v>362.86</v>
       </c>
       <c r="C528" t="n">
-        <v>372.8766666666667</v>
+        <v>372.88</v>
       </c>
       <c r="D528" t="n">
         <v>367.02</v>
@@ -19171,7 +19171,7 @@
         <v>371.16</v>
       </c>
       <c r="C530" t="n">
-        <v>371.6566666666667</v>
+        <v>371.66</v>
       </c>
       <c r="D530" t="n">
         <v>366.95</v>
@@ -19274,7 +19274,7 @@
         <v>359.73</v>
       </c>
       <c r="C533" t="n">
-        <v>368.1233333333333</v>
+        <v>368.12</v>
       </c>
       <c r="D533" t="n">
         <v>364.35</v>
@@ -19305,7 +19305,7 @@
         <v>351.53</v>
       </c>
       <c r="C534" t="n">
-        <v>364.0533333333333</v>
+        <v>364.05</v>
       </c>
       <c r="D534" t="n">
         <v>368.69</v>
@@ -19377,7 +19377,7 @@
         <v>364.59</v>
       </c>
       <c r="C536" t="n">
-        <v>376.6166666666667</v>
+        <v>376.62</v>
       </c>
       <c r="D536" t="n">
         <v>372.75</v>
@@ -19416,7 +19416,7 @@
         <v>346.9</v>
       </c>
       <c r="C537" t="n">
-        <v>356.4333333333333</v>
+        <v>356.43</v>
       </c>
       <c r="D537" t="n">
         <v>359.8</v>
@@ -19494,7 +19494,7 @@
         <v>345.52</v>
       </c>
       <c r="C539" t="n">
-        <v>362.1866666666667</v>
+        <v>362.19</v>
       </c>
       <c r="D539" t="n">
         <v>357.31</v>
@@ -19509,7 +19509,7 @@
         <v>325.71</v>
       </c>
       <c r="H539" t="n">
-        <v>323.4299999999999</v>
+        <v>323.43</v>
       </c>
       <c r="I539" t="n">
         <v>324.47</v>
@@ -19533,7 +19533,7 @@
         <v>356.67</v>
       </c>
       <c r="C540" t="n">
-        <v>364.3533333333333</v>
+        <v>364.35</v>
       </c>
       <c r="D540" t="n">
         <v>364.02</v>
@@ -19570,7 +19570,7 @@
         <v>352.09</v>
       </c>
       <c r="C541" t="n">
-        <v>365.7066666666667</v>
+        <v>365.71</v>
       </c>
       <c r="D541" t="n">
         <v>359.67</v>
@@ -19601,13 +19601,13 @@
         <v>362.83</v>
       </c>
       <c r="C542" t="n">
-        <v>373.5033333333333</v>
+        <v>373.5</v>
       </c>
       <c r="D542" t="n">
         <v>374.86</v>
       </c>
       <c r="E542" t="n">
-        <v>370.5700000000001</v>
+        <v>370.57</v>
       </c>
       <c r="F542" t="n">
         <v>352.33</v>
@@ -19636,7 +19636,7 @@
         <v>363.76</v>
       </c>
       <c r="C543" t="n">
-        <v>369.5566666666667</v>
+        <v>369.56</v>
       </c>
       <c r="D543" t="n">
         <v>374.35</v>
@@ -19714,7 +19714,7 @@
         <v>351.39</v>
       </c>
       <c r="C545" t="n">
-        <v>361.4666666666667</v>
+        <v>361.47</v>
       </c>
       <c r="D545" t="n">
         <v>359.59</v>
@@ -19753,7 +19753,7 @@
         <v>358.45</v>
       </c>
       <c r="C546" t="n">
-        <v>371.5166666666667</v>
+        <v>371.52</v>
       </c>
       <c r="D546" t="n">
         <v>367.44</v>
@@ -19827,7 +19827,7 @@
         <v>371.61</v>
       </c>
       <c r="C548" t="n">
-        <v>378.1533333333333</v>
+        <v>378.15</v>
       </c>
       <c r="D548" t="n">
         <v>385.71</v>
@@ -19842,7 +19842,7 @@
         <v>353.73</v>
       </c>
       <c r="H548" t="n">
-        <v>360.7000000000001</v>
+        <v>360.7</v>
       </c>
       <c r="I548" t="n">
         <v>359.05</v>
@@ -19866,7 +19866,7 @@
         <v>367.73</v>
       </c>
       <c r="C549" t="n">
-        <v>380.4366666666667</v>
+        <v>380.44</v>
       </c>
       <c r="D549" t="n">
         <v>386.04</v>
@@ -19905,7 +19905,7 @@
         <v>347.58</v>
       </c>
       <c r="C550" t="n">
-        <v>365.4366666666667</v>
+        <v>365.44</v>
       </c>
       <c r="D550" t="n">
         <v>357.46</v>
@@ -19936,7 +19936,7 @@
         <v>357.04</v>
       </c>
       <c r="C551" t="n">
-        <v>369.1033333333333</v>
+        <v>369.1</v>
       </c>
       <c r="D551" t="n">
         <v>364.83</v>
@@ -19965,7 +19965,7 @@
         <v>358.33</v>
       </c>
       <c r="C552" t="n">
-        <v>367.1033333333333</v>
+        <v>367.1</v>
       </c>
       <c r="D552" t="n">
         <v>369.11</v>
@@ -19998,7 +19998,7 @@
         <v>347.94</v>
       </c>
       <c r="C553" t="n">
-        <v>359.4666666666667</v>
+        <v>359.47</v>
       </c>
       <c r="D553" t="n">
         <v>354.12</v>
@@ -20060,7 +20060,7 @@
         <v>362.38</v>
       </c>
       <c r="C555" t="n">
-        <v>376.4433333333333</v>
+        <v>376.44</v>
       </c>
       <c r="D555" t="n">
         <v>368.9</v>
@@ -20151,7 +20151,7 @@
         <v>352.59</v>
       </c>
       <c r="J557" t="n">
-        <v>350.6799999999999</v>
+        <v>350.68</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr"/>
       <c r="H558" t="n">
-        <v>339.6799999999999</v>
+        <v>339.68</v>
       </c>
       <c r="I558" t="n">
         <v>349.67</v>
@@ -20198,7 +20198,7 @@
         <v>369.66</v>
       </c>
       <c r="C559" t="n">
-        <v>383.8133333333333</v>
+        <v>383.81</v>
       </c>
       <c r="D559" t="n">
         <v>378.36</v>
@@ -20237,7 +20237,7 @@
         <v>370.2</v>
       </c>
       <c r="C560" t="n">
-        <v>376.9933333333333</v>
+        <v>376.99</v>
       </c>
       <c r="D560" t="n">
         <v>381.56</v>
@@ -20270,7 +20270,7 @@
         <v>362.84</v>
       </c>
       <c r="C561" t="n">
-        <v>371.7533333333333</v>
+        <v>371.75</v>
       </c>
       <c r="D561" t="n">
         <v>376.29</v>
@@ -20309,7 +20309,7 @@
         <v>360.46</v>
       </c>
       <c r="C562" t="n">
-        <v>374.4233333333333</v>
+        <v>374.42</v>
       </c>
       <c r="D562" t="n">
         <v>368.81</v>
@@ -20344,7 +20344,7 @@
         <v>344.09</v>
       </c>
       <c r="C563" t="n">
-        <v>354.4466666666667</v>
+        <v>354.45</v>
       </c>
       <c r="D563" t="n">
         <v>368.26</v>
@@ -20359,7 +20359,7 @@
         <v>334.94</v>
       </c>
       <c r="H563" t="n">
-        <v>344.9299999999999</v>
+        <v>344.93</v>
       </c>
       <c r="I563" t="n">
         <v>353.9</v>
@@ -20439,7 +20439,7 @@
         <v>351.12</v>
       </c>
       <c r="C566" t="n">
-        <v>360.7333333333333</v>
+        <v>360.73</v>
       </c>
       <c r="D566" t="n">
         <v>359.34</v>
@@ -20509,7 +20509,7 @@
         <v>355.65</v>
       </c>
       <c r="C568" t="n">
-        <v>371.4766666666667</v>
+        <v>371.48</v>
       </c>
       <c r="D568" t="n">
         <v>357.89</v>
@@ -20579,7 +20579,7 @@
         <v>344.06</v>
       </c>
       <c r="C570" t="n">
-        <v>354.5933333333333</v>
+        <v>354.59</v>
       </c>
       <c r="D570" t="n">
         <v>346.81</v>
@@ -20651,7 +20651,7 @@
         <v>373.17</v>
       </c>
       <c r="C572" t="n">
-        <v>376.3133333333333</v>
+        <v>376.31</v>
       </c>
       <c r="D572" t="n">
         <v>371.29</v>
@@ -20705,7 +20705,7 @@
         <v>325.19</v>
       </c>
       <c r="H573" t="n">
-        <v>324.4299999999999</v>
+        <v>324.43</v>
       </c>
       <c r="I573" t="n">
         <v>322.05</v>
@@ -20768,7 +20768,7 @@
         <v>345.02</v>
       </c>
       <c r="C575" t="n">
-        <v>365.1866666666667</v>
+        <v>365.19</v>
       </c>
       <c r="D575" t="n">
         <v>350.67</v>
@@ -20849,7 +20849,7 @@
         <v>332.62</v>
       </c>
       <c r="J577" t="n">
-        <v>348.9299999999999</v>
+        <v>348.93</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>341.77</v>
       </c>
       <c r="G578" t="n">
-        <v>330.1799999999999</v>
+        <v>330.18</v>
       </c>
       <c r="H578" t="n">
         <v>336.46</v>
@@ -20906,7 +20906,7 @@
         <v>363.23</v>
       </c>
       <c r="C579" t="n">
-        <v>369.3966666666667</v>
+        <v>369.4</v>
       </c>
       <c r="D579" t="n">
         <v>365.79</v>
@@ -21056,7 +21056,7 @@
         <v>358.61</v>
       </c>
       <c r="C583" t="n">
-        <v>367.2333333333333</v>
+        <v>367.23</v>
       </c>
       <c r="D583" t="n">
         <v>377.27</v>
@@ -21095,7 +21095,7 @@
         <v>366.64</v>
       </c>
       <c r="C584" t="n">
-        <v>373.9733333333333</v>
+        <v>373.97</v>
       </c>
       <c r="D584" t="n">
         <v>369.46</v>
@@ -21128,7 +21128,7 @@
         <v>371.57</v>
       </c>
       <c r="C585" t="n">
-        <v>379.3466666666667</v>
+        <v>379.35</v>
       </c>
       <c r="D585" t="n">
         <v>376.59</v>
@@ -21200,7 +21200,7 @@
         <v>354.83</v>
       </c>
       <c r="C587" t="n">
-        <v>362.2333333333333</v>
+        <v>362.23</v>
       </c>
       <c r="D587" t="n">
         <v>357.85</v>
@@ -21237,7 +21237,7 @@
         <v>347.76</v>
       </c>
       <c r="I588" t="n">
-        <v>346.6799999999999</v>
+        <v>346.68</v>
       </c>
       <c r="J588" t="n">
         <v>355.49</v>
@@ -21297,7 +21297,7 @@
         <v>354.45</v>
       </c>
       <c r="C590" t="n">
-        <v>360.7833333333333</v>
+        <v>360.78</v>
       </c>
       <c r="D590" t="inlineStr"/>
       <c r="E590" t="inlineStr"/>
@@ -21326,7 +21326,7 @@
         <v>353.29</v>
       </c>
       <c r="C591" t="n">
-        <v>360.3533333333333</v>
+        <v>360.35</v>
       </c>
       <c r="D591" t="n">
         <v>360.55</v>
@@ -21435,7 +21435,7 @@
         <v>363.56</v>
       </c>
       <c r="C594" t="n">
-        <v>371.3566666666667</v>
+        <v>371.36</v>
       </c>
       <c r="D594" t="n">
         <v>368</v>
@@ -21513,7 +21513,7 @@
         <v>345.23</v>
       </c>
       <c r="C596" t="n">
-        <v>354.9366666666667</v>
+        <v>354.94</v>
       </c>
       <c r="D596" t="n">
         <v>357.14</v>
@@ -21552,7 +21552,7 @@
         <v>351.37</v>
       </c>
       <c r="C597" t="n">
-        <v>360.6633333333333</v>
+        <v>360.66</v>
       </c>
       <c r="D597" t="n">
         <v>364.36</v>
@@ -21708,7 +21708,7 @@
         <v>347.65</v>
       </c>
       <c r="C601" t="n">
-        <v>359.9933333333333</v>
+        <v>359.99</v>
       </c>
       <c r="D601" t="n">
         <v>352.44</v>
@@ -21717,7 +21717,7 @@
         <v>340.69</v>
       </c>
       <c r="F601" t="n">
-        <v>334.8200000000001</v>
+        <v>334.82</v>
       </c>
       <c r="G601" t="n">
         <v>313.74</v>
@@ -21747,7 +21747,7 @@
         <v>356.77</v>
       </c>
       <c r="C602" t="n">
-        <v>363.5566666666667</v>
+        <v>363.56</v>
       </c>
       <c r="D602" t="n">
         <v>349.64</v>
@@ -21786,7 +21786,7 @@
         <v>367.38</v>
       </c>
       <c r="C603" t="n">
-        <v>371.9566666666667</v>
+        <v>371.96</v>
       </c>
       <c r="D603" t="n">
         <v>362.97</v>
@@ -21825,7 +21825,7 @@
         <v>345.65</v>
       </c>
       <c r="C604" t="n">
-        <v>364.2233333333333</v>
+        <v>364.22</v>
       </c>
       <c r="D604" t="n">
         <v>354.14</v>
@@ -21864,7 +21864,7 @@
         <v>358.95</v>
       </c>
       <c r="C605" t="n">
-        <v>372.2433333333333</v>
+        <v>372.24</v>
       </c>
       <c r="D605" t="n">
         <v>363.19</v>
@@ -21941,7 +21941,7 @@
         <v>375.55</v>
       </c>
       <c r="D607" t="n">
-        <v>367.2600000000001</v>
+        <v>367.26</v>
       </c>
       <c r="E607" t="n">
         <v>362.16</v>
@@ -22055,7 +22055,7 @@
         <v>353.58</v>
       </c>
       <c r="C610" t="n">
-        <v>365.8033333333333</v>
+        <v>365.8</v>
       </c>
       <c r="D610" t="n">
         <v>355.2</v>
@@ -22094,7 +22094,7 @@
         <v>350.43</v>
       </c>
       <c r="C611" t="n">
-        <v>365.4566666666667</v>
+        <v>365.46</v>
       </c>
       <c r="D611" t="n">
         <v>360.03</v>
@@ -22275,7 +22275,7 @@
         <v>358.9</v>
       </c>
       <c r="C616" t="n">
-        <v>378.7666666666667</v>
+        <v>378.77</v>
       </c>
       <c r="D616" t="n">
         <v>371.19</v>
@@ -22386,7 +22386,7 @@
         <v>375.32</v>
       </c>
       <c r="C619" t="n">
-        <v>378.2366666666667</v>
+        <v>378.24</v>
       </c>
       <c r="D619" t="n">
         <v>381.24</v>
@@ -22419,7 +22419,7 @@
         <v>385.35</v>
       </c>
       <c r="C620" t="n">
-        <v>384.1133333333333</v>
+        <v>384.11</v>
       </c>
       <c r="D620" t="n">
         <v>378.9</v>
@@ -22450,7 +22450,7 @@
         <v>362.96</v>
       </c>
       <c r="C621" t="n">
-        <v>386.0766666666667</v>
+        <v>386.08</v>
       </c>
       <c r="D621" t="n">
         <v>372.33</v>
@@ -22520,7 +22520,7 @@
         <v>352.06</v>
       </c>
       <c r="C623" t="n">
-        <v>372.1166666666667</v>
+        <v>372.12</v>
       </c>
       <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr"/>
@@ -22592,7 +22592,7 @@
         <v>347.96</v>
       </c>
       <c r="C625" t="n">
-        <v>356.2866666666667</v>
+        <v>356.29</v>
       </c>
       <c r="D625" t="n">
         <v>350.92</v>
@@ -22670,7 +22670,7 @@
         <v>372.06</v>
       </c>
       <c r="C627" t="n">
-        <v>379.8333333333333</v>
+        <v>379.83</v>
       </c>
       <c r="D627" t="n">
         <v>376.65</v>
@@ -22701,7 +22701,7 @@
         <v>348.64</v>
       </c>
       <c r="C628" t="n">
-        <v>354.7033333333333</v>
+        <v>354.7</v>
       </c>
       <c r="D628" t="n">
         <v>360.25</v>
@@ -22779,7 +22779,7 @@
         <v>351.53</v>
       </c>
       <c r="C630" t="n">
-        <v>353.9766666666667</v>
+        <v>353.98</v>
       </c>
       <c r="D630" t="n">
         <v>349.13</v>
@@ -22818,7 +22818,7 @@
         <v>351.18</v>
       </c>
       <c r="C631" t="n">
-        <v>358.8566666666667</v>
+        <v>358.86</v>
       </c>
       <c r="D631" t="n">
         <v>348.59</v>
@@ -22857,7 +22857,7 @@
         <v>349.88</v>
       </c>
       <c r="C632" t="n">
-        <v>358.1566666666667</v>
+        <v>358.16</v>
       </c>
       <c r="D632" t="n">
         <v>359.1</v>
@@ -22896,7 +22896,7 @@
         <v>348.84</v>
       </c>
       <c r="C633" t="n">
-        <v>361.1333333333333</v>
+        <v>361.13</v>
       </c>
       <c r="D633" t="n">
         <v>351.76</v>
@@ -22935,7 +22935,7 @@
         <v>370.03</v>
       </c>
       <c r="C634" t="n">
-        <v>375.8033333333333</v>
+        <v>375.8</v>
       </c>
       <c r="D634" t="n">
         <v>369.05</v>
@@ -22974,7 +22974,7 @@
         <v>348.36</v>
       </c>
       <c r="C635" t="n">
-        <v>356.2966666666667</v>
+        <v>356.3</v>
       </c>
       <c r="D635" t="n">
         <v>353.93</v>
@@ -23052,7 +23052,7 @@
         <v>361.02</v>
       </c>
       <c r="C637" t="n">
-        <v>371.9266666666667</v>
+        <v>371.93</v>
       </c>
       <c r="D637" t="n">
         <v>365.37</v>
@@ -23120,7 +23120,7 @@
         <v>356.8</v>
       </c>
       <c r="C639" t="n">
-        <v>368.5766666666667</v>
+        <v>368.58</v>
       </c>
       <c r="D639" t="n">
         <v>361.39</v>
@@ -23198,7 +23198,7 @@
         <v>342.43</v>
       </c>
       <c r="C641" t="n">
-        <v>349.9566666666667</v>
+        <v>349.96</v>
       </c>
       <c r="D641" t="n">
         <v>334.32</v>
@@ -23237,7 +23237,7 @@
         <v>352.66</v>
       </c>
       <c r="C642" t="n">
-        <v>357.8733333333333</v>
+        <v>357.87</v>
       </c>
       <c r="D642" t="n">
         <v>344.94</v>
@@ -23315,7 +23315,7 @@
         <v>339.92</v>
       </c>
       <c r="C644" t="n">
-        <v>356.7866666666667</v>
+        <v>356.79</v>
       </c>
       <c r="D644" t="n">
         <v>339.66</v>
@@ -23354,7 +23354,7 @@
         <v>349.98</v>
       </c>
       <c r="C645" t="n">
-        <v>360.0266666666667</v>
+        <v>360.03</v>
       </c>
       <c r="D645" t="n">
         <v>346.93</v>
@@ -23393,7 +23393,7 @@
         <v>368.54</v>
       </c>
       <c r="C646" t="n">
-        <v>372.0066666666667</v>
+        <v>372.01</v>
       </c>
       <c r="D646" t="n">
         <v>360.72</v>
@@ -23510,7 +23510,7 @@
         <v>344.67</v>
       </c>
       <c r="C649" t="n">
-        <v>352.0666666666667</v>
+        <v>352.07</v>
       </c>
       <c r="D649" t="n">
         <v>336.65</v>
@@ -23549,7 +23549,7 @@
         <v>343.46</v>
       </c>
       <c r="C650" t="n">
-        <v>354.9233333333333</v>
+        <v>354.92</v>
       </c>
       <c r="D650" t="n">
         <v>340.69</v>
@@ -23627,7 +23627,7 @@
         <v>344.06</v>
       </c>
       <c r="C652" t="n">
-        <v>355.8466666666667</v>
+        <v>355.85</v>
       </c>
       <c r="D652" t="n">
         <v>343.47</v>
@@ -23705,7 +23705,7 @@
         <v>348.45</v>
       </c>
       <c r="C654" t="n">
-        <v>363.3666666666667</v>
+        <v>363.37</v>
       </c>
       <c r="D654" t="n">
         <v>374.12</v>
@@ -23783,7 +23783,7 @@
         <v>351.56</v>
       </c>
       <c r="C656" t="n">
-        <v>363.0366666666667</v>
+        <v>363.04</v>
       </c>
       <c r="D656" t="n">
         <v>370.52</v>
@@ -23822,7 +23822,7 @@
         <v>368.79</v>
       </c>
       <c r="C657" t="n">
-        <v>376.0666666666667</v>
+        <v>376.07</v>
       </c>
       <c r="D657" t="n">
         <v>371.2</v>
@@ -23861,7 +23861,7 @@
         <v>348.91</v>
       </c>
       <c r="C658" t="n">
-        <v>359.8233333333333</v>
+        <v>359.82</v>
       </c>
       <c r="D658" t="n">
         <v>355.35</v>
@@ -23900,7 +23900,7 @@
         <v>357.23</v>
       </c>
       <c r="C659" t="n">
-        <v>368.9266666666667</v>
+        <v>368.93</v>
       </c>
       <c r="D659" t="n">
         <v>368.02</v>
@@ -23939,7 +23939,7 @@
         <v>340.23</v>
       </c>
       <c r="C660" t="n">
-        <v>353.1333333333333</v>
+        <v>353.13</v>
       </c>
       <c r="D660" t="n">
         <v>355.94</v>
@@ -24003,7 +24003,7 @@
         <v>369.23</v>
       </c>
       <c r="C662" t="n">
-        <v>380.1366666666667</v>
+        <v>380.14</v>
       </c>
       <c r="D662" t="n">
         <v>375.42</v>
@@ -24042,7 +24042,7 @@
         <v>352.62</v>
       </c>
       <c r="C663" t="n">
-        <v>366.9866666666667</v>
+        <v>366.99</v>
       </c>
       <c r="D663" t="n">
         <v>367.99</v>
@@ -24063,7 +24063,7 @@
         <v>356.86</v>
       </c>
       <c r="J663" t="n">
-        <v>360.5700000000001</v>
+        <v>360.57</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>346.89</v>
       </c>
       <c r="C665" t="n">
-        <v>361.5133333333333</v>
+        <v>361.51</v>
       </c>
       <c r="D665" t="n">
         <v>359.25</v>
@@ -24123,7 +24123,7 @@
         <v>345.2</v>
       </c>
       <c r="F665" t="n">
-        <v>322.5700000000001</v>
+        <v>322.57</v>
       </c>
       <c r="G665" t="n">
         <v>322.65</v>
@@ -24132,7 +24132,7 @@
         <v>338.25</v>
       </c>
       <c r="I665" t="n">
-        <v>354.0700000000001</v>
+        <v>354.07</v>
       </c>
       <c r="J665" t="n">
         <v>355.66</v>
@@ -24192,7 +24192,7 @@
         <v>351.71</v>
       </c>
       <c r="C667" t="n">
-        <v>360.4266666666667</v>
+        <v>360.43</v>
       </c>
       <c r="D667" t="n">
         <v>356.97</v>
@@ -24231,7 +24231,7 @@
         <v>369.87</v>
       </c>
       <c r="C668" t="n">
-        <v>378.9033333333333</v>
+        <v>378.9</v>
       </c>
       <c r="D668" t="n">
         <v>376.98</v>
@@ -24272,7 +24272,7 @@
       <c r="E669" t="inlineStr"/>
       <c r="F669" t="inlineStr"/>
       <c r="G669" t="n">
-        <v>355.0700000000001</v>
+        <v>355.07</v>
       </c>
       <c r="H669" t="n">
         <v>366.88</v>
@@ -24299,7 +24299,7 @@
         <v>362.52</v>
       </c>
       <c r="C670" t="n">
-        <v>372.0366666666667</v>
+        <v>372.04</v>
       </c>
       <c r="D670" t="n">
         <v>362.48</v>
@@ -24338,7 +24338,7 @@
         <v>356.31</v>
       </c>
       <c r="C671" t="n">
-        <v>363.8366666666667</v>
+        <v>363.84</v>
       </c>
       <c r="D671" t="n">
         <v>366.18</v>
@@ -24369,7 +24369,7 @@
         <v>350.14</v>
       </c>
       <c r="C672" t="n">
-        <v>356.4733333333333</v>
+        <v>356.47</v>
       </c>
       <c r="D672" t="n">
         <v>363.29</v>
@@ -24408,7 +24408,7 @@
         <v>344.95</v>
       </c>
       <c r="C673" t="n">
-        <v>359.2633333333333</v>
+        <v>359.26</v>
       </c>
       <c r="D673" t="n">
         <v>365.68</v>
@@ -24447,7 +24447,7 @@
         <v>369.91</v>
       </c>
       <c r="C674" t="n">
-        <v>385.4066666666667</v>
+        <v>385.41</v>
       </c>
       <c r="D674" t="n">
         <v>381.24</v>
@@ -24486,7 +24486,7 @@
         <v>380.2</v>
       </c>
       <c r="C675" t="n">
-        <v>387.2166666666667</v>
+        <v>387.22</v>
       </c>
       <c r="D675" t="n">
         <v>381.99</v>
@@ -24564,7 +24564,7 @@
         <v>359.91</v>
       </c>
       <c r="C677" t="n">
-        <v>375.0733333333333</v>
+        <v>375.07</v>
       </c>
       <c r="D677" t="n">
         <v>373.99</v>
@@ -24576,7 +24576,7 @@
         <v>366.97</v>
       </c>
       <c r="G677" t="n">
-        <v>362.8200000000001</v>
+        <v>362.82</v>
       </c>
       <c r="H677" t="n">
         <v>367.87</v>
@@ -24642,7 +24642,7 @@
         <v>368.45</v>
       </c>
       <c r="C679" t="n">
-        <v>372.9933333333333</v>
+        <v>372.99</v>
       </c>
       <c r="D679" t="n">
         <v>376.84</v>
@@ -24681,7 +24681,7 @@
         <v>355.52</v>
       </c>
       <c r="C680" t="n">
-        <v>360.9866666666667</v>
+        <v>360.99</v>
       </c>
       <c r="D680" t="n">
         <v>360.36</v>
@@ -24720,7 +24720,7 @@
         <v>351.4</v>
       </c>
       <c r="C681" t="n">
-        <v>356.7866666666667</v>
+        <v>356.79</v>
       </c>
       <c r="D681" t="n">
         <v>355.58</v>
@@ -24759,7 +24759,7 @@
         <v>361.92</v>
       </c>
       <c r="C682" t="n">
-        <v>367.7066666666667</v>
+        <v>367.71</v>
       </c>
       <c r="D682" t="n">
         <v>369.17</v>
@@ -24798,7 +24798,7 @@
         <v>365.85</v>
       </c>
       <c r="C683" t="n">
-        <v>377.2833333333333</v>
+        <v>377.28</v>
       </c>
       <c r="D683" t="n">
         <v>373.71</v>
@@ -24837,7 +24837,7 @@
         <v>344.41</v>
       </c>
       <c r="C684" t="n">
-        <v>354.4266666666667</v>
+        <v>354.43</v>
       </c>
       <c r="D684" t="n">
         <v>353.28</v>
@@ -24993,7 +24993,7 @@
         <v>347.15</v>
       </c>
       <c r="C688" t="n">
-        <v>360.8033333333333</v>
+        <v>360.8</v>
       </c>
       <c r="D688" t="n">
         <v>355.58</v>
@@ -25032,7 +25032,7 @@
         <v>346.89</v>
       </c>
       <c r="C689" t="n">
-        <v>355.1433333333333</v>
+        <v>355.14</v>
       </c>
       <c r="D689" t="n">
         <v>346.37</v>
@@ -25071,7 +25071,7 @@
         <v>344.89</v>
       </c>
       <c r="C690" t="n">
-        <v>360.0566666666667</v>
+        <v>360.06</v>
       </c>
       <c r="D690" t="n">
         <v>345.12</v>
@@ -25083,13 +25083,13 @@
         <v>334.55</v>
       </c>
       <c r="G690" t="n">
-        <v>336.1799999999999</v>
+        <v>336.18</v>
       </c>
       <c r="H690" t="n">
         <v>327.85</v>
       </c>
       <c r="I690" t="n">
-        <v>321.9299999999999</v>
+        <v>321.93</v>
       </c>
       <c r="J690" t="n">
         <v>330.38</v>
@@ -25110,7 +25110,7 @@
         <v>362.99</v>
       </c>
       <c r="C691" t="n">
-        <v>374.2166666666667</v>
+        <v>374.22</v>
       </c>
       <c r="D691" t="n">
         <v>365.14</v>
@@ -25188,7 +25188,7 @@
         <v>348.84</v>
       </c>
       <c r="C693" t="n">
-        <v>357.0433333333333</v>
+        <v>357.04</v>
       </c>
       <c r="D693" t="n">
         <v>348.52</v>
@@ -25227,7 +25227,7 @@
         <v>365.73</v>
       </c>
       <c r="C694" t="n">
-        <v>378.2766666666667</v>
+        <v>378.28</v>
       </c>
       <c r="D694" t="n">
         <v>369.63</v>
@@ -25305,7 +25305,7 @@
         <v>365.84</v>
       </c>
       <c r="C696" t="n">
-        <v>375.8333333333333</v>
+        <v>375.83</v>
       </c>
       <c r="D696" t="n">
         <v>378.75</v>
@@ -25375,7 +25375,7 @@
         <v>361.61</v>
       </c>
       <c r="C698" t="n">
-        <v>372.4366666666667</v>
+        <v>372.44</v>
       </c>
       <c r="D698" t="n">
         <v>373.95</v>
@@ -25556,7 +25556,7 @@
         <v>375.49</v>
       </c>
       <c r="C703" t="n">
-        <v>383.2333333333333</v>
+        <v>383.23</v>
       </c>
       <c r="D703" t="n">
         <v>390.09</v>
@@ -25626,7 +25626,7 @@
         <v>356.29</v>
       </c>
       <c r="C705" t="n">
-        <v>372.7666666666667</v>
+        <v>372.77</v>
       </c>
       <c r="D705" t="n">
         <v>372.3</v>
@@ -25665,10 +25665,10 @@
         <v>349.12</v>
       </c>
       <c r="C706" t="n">
-        <v>368.2666666666667</v>
+        <v>368.27</v>
       </c>
       <c r="D706" t="n">
-        <v>365.7000000000001</v>
+        <v>365.7</v>
       </c>
       <c r="E706" t="n">
         <v>362.37</v>
@@ -25743,7 +25743,7 @@
         <v>352.68</v>
       </c>
       <c r="C708" t="n">
-        <v>375.1966666666667</v>
+        <v>375.2</v>
       </c>
       <c r="D708" t="n">
         <v>373.06</v>
@@ -25782,7 +25782,7 @@
         <v>352.22</v>
       </c>
       <c r="C709" t="n">
-        <v>359.7633333333333</v>
+        <v>359.76</v>
       </c>
       <c r="D709" t="n">
         <v>364.63</v>
@@ -25821,7 +25821,7 @@
         <v>355.37</v>
       </c>
       <c r="C710" t="n">
-        <v>380.2433333333333</v>
+        <v>380.24</v>
       </c>
       <c r="D710" t="n">
         <v>388.76</v>
@@ -25860,7 +25860,7 @@
         <v>355.72</v>
       </c>
       <c r="C711" t="n">
-        <v>365.3733333333333</v>
+        <v>365.37</v>
       </c>
       <c r="D711" t="n">
         <v>368.44</v>
@@ -25899,13 +25899,13 @@
         <v>360.14</v>
       </c>
       <c r="C712" t="n">
-        <v>367.1566666666667</v>
+        <v>367.16</v>
       </c>
       <c r="D712" t="n">
-        <v>379.2600000000001</v>
+        <v>379.26</v>
       </c>
       <c r="E712" t="n">
-        <v>372.3200000000001</v>
+        <v>372.32</v>
       </c>
       <c r="F712" t="n">
         <v>367.9</v>
@@ -25938,7 +25938,7 @@
         <v>359.09</v>
       </c>
       <c r="C713" t="n">
-        <v>369.3033333333333</v>
+        <v>369.3</v>
       </c>
       <c r="D713" t="n">
         <v>368.43</v>
@@ -25977,7 +25977,7 @@
         <v>362.62</v>
       </c>
       <c r="C714" t="n">
-        <v>368.6166666666667</v>
+        <v>368.62</v>
       </c>
       <c r="D714" t="n">
         <v>363.62</v>
@@ -26016,7 +26016,7 @@
         <v>374.18</v>
       </c>
       <c r="C715" t="n">
-        <v>377.0733333333333</v>
+        <v>377.07</v>
       </c>
       <c r="D715" t="n">
         <v>370.96</v>
@@ -26034,7 +26034,7 @@
         <v>357.3</v>
       </c>
       <c r="I715" t="n">
-        <v>360.9500000000001</v>
+        <v>360.95</v>
       </c>
       <c r="J715" t="n">
         <v>370.24</v>
@@ -26055,7 +26055,7 @@
         <v>361.15</v>
       </c>
       <c r="C716" t="n">
-        <v>383.8466666666667</v>
+        <v>383.85</v>
       </c>
       <c r="D716" t="n">
         <v>393.89</v>
@@ -26094,7 +26094,7 @@
         <v>364.19</v>
       </c>
       <c r="C717" t="n">
-        <v>371.4966666666666</v>
+        <v>371.5</v>
       </c>
       <c r="D717" t="n">
         <v>366.43</v>
@@ -26133,7 +26133,7 @@
         <v>366.45</v>
       </c>
       <c r="C718" t="n">
-        <v>376.6933333333333</v>
+        <v>376.69</v>
       </c>
       <c r="D718" t="n">
         <v>367.81</v>
@@ -26172,7 +26172,7 @@
         <v>345.98</v>
       </c>
       <c r="C719" t="n">
-        <v>360.2366666666667</v>
+        <v>360.24</v>
       </c>
       <c r="D719" t="n">
         <v>360.66</v>
@@ -26250,7 +26250,7 @@
         <v>368.57</v>
       </c>
       <c r="C721" t="n">
-        <v>377.2366666666667</v>
+        <v>377.24</v>
       </c>
       <c r="D721" t="n">
         <v>373.68</v>
@@ -26289,7 +26289,7 @@
         <v>362.63</v>
       </c>
       <c r="C722" t="n">
-        <v>366.4966666666666</v>
+        <v>366.5</v>
       </c>
       <c r="D722" t="n">
         <v>356.46</v>
@@ -26367,7 +26367,7 @@
         <v>342.53</v>
       </c>
       <c r="C724" t="n">
-        <v>355.8166666666667</v>
+        <v>355.82</v>
       </c>
       <c r="D724" t="n">
         <v>353.14</v>
@@ -26406,7 +26406,7 @@
         <v>359.94</v>
       </c>
       <c r="C725" t="n">
-        <v>367.6033333333333</v>
+        <v>367.6</v>
       </c>
       <c r="D725" t="n">
         <v>364.63</v>
@@ -26445,7 +26445,7 @@
         <v>366.4</v>
       </c>
       <c r="C726" t="n">
-        <v>373.2166666666667</v>
+        <v>373.22</v>
       </c>
       <c r="D726" t="n">
         <v>367.15</v>
@@ -26484,7 +26484,7 @@
         <v>373.41</v>
       </c>
       <c r="C727" t="n">
-        <v>379.9933333333333</v>
+        <v>379.99</v>
       </c>
       <c r="D727" t="n">
         <v>372.1</v>
@@ -34064,7 +34064,7 @@
         <v>595</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1897467077590832</v>
+        <v>0.1897467077590833</v>
       </c>
       <c r="M2" t="n">
         <v>9.516749567482863</v>
@@ -34133,7 +34133,7 @@
         <v>0.0311</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6406067458283004</v>
+        <v>-0.6405817734667765</v>
       </c>
       <c r="J3" t="n">
         <v>726</v>
@@ -34142,19 +34142,19 @@
         <v>597</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1684507670773522</v>
+        <v>0.1684414263155661</v>
       </c>
       <c r="M3" t="n">
-        <v>8.644031297085995</v>
+        <v>8.643897491030224</v>
       </c>
       <c r="N3" t="n">
-        <v>115.6910598542111</v>
+        <v>115.6897547728906</v>
       </c>
       <c r="O3" t="n">
-        <v>10.75597786601531</v>
+        <v>10.75591719812358</v>
       </c>
       <c r="P3" t="n">
-        <v>384.130909600814</v>
+        <v>384.1304574241582</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34211,7 +34211,7 @@
         <v>0.026</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8055224495391087</v>
+        <v>-0.8055224495391089</v>
       </c>
       <c r="J4" t="n">
         <v>726</v>
@@ -34220,13 +34220,13 @@
         <v>588</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1729565698707587</v>
+        <v>0.1729565698707588</v>
       </c>
       <c r="M4" t="n">
         <v>10.65387798092509</v>
       </c>
       <c r="N4" t="n">
-        <v>178.0238884354997</v>
+        <v>178.0238884354998</v>
       </c>
       <c r="O4" t="n">
         <v>13.34255929106181</v>
@@ -34298,16 +34298,16 @@
         <v>594</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1045494510515982</v>
+        <v>0.1045494510515983</v>
       </c>
       <c r="M5" t="n">
         <v>10.47280976471072</v>
       </c>
       <c r="N5" t="n">
-        <v>169.8849075362499</v>
+        <v>169.88490753625</v>
       </c>
       <c r="O5" t="n">
-        <v>13.03399046862663</v>
+        <v>13.03399046862664</v>
       </c>
       <c r="P5" t="n">
         <v>374.7491836960628</v>
@@ -34367,7 +34367,7 @@
         <v>0.0265</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4695854600097661</v>
+        <v>-0.469585460009766</v>
       </c>
       <c r="J6" t="n">
         <v>726</v>
@@ -34376,7 +34376,7 @@
         <v>609</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06058124075340843</v>
+        <v>0.06058124075340854</v>
       </c>
       <c r="M6" t="n">
         <v>10.96891140149788</v>
@@ -34385,7 +34385,7 @@
         <v>192.4553000489011</v>
       </c>
       <c r="O6" t="n">
-        <v>13.87282595756542</v>
+        <v>13.87282595756543</v>
       </c>
       <c r="P6" t="n">
         <v>363.1432255554768</v>
@@ -34445,7 +34445,7 @@
         <v>0.0267</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.352403955725604</v>
+        <v>-0.3524039557256038</v>
       </c>
       <c r="J7" t="n">
         <v>726</v>
@@ -34463,7 +34463,7 @@
         <v>183.2255645675629</v>
       </c>
       <c r="O7" t="n">
-        <v>13.5360837973013</v>
+        <v>13.53608379730131</v>
       </c>
       <c r="P7" t="n">
         <v>351.1732146477369</v>
@@ -34523,7 +34523,7 @@
         <v>0.0309</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2564045809460079</v>
+        <v>-0.2564045809460078</v>
       </c>
       <c r="J8" t="n">
         <v>726</v>
@@ -34541,7 +34541,7 @@
         <v>203.8698008477192</v>
       </c>
       <c r="O8" t="n">
-        <v>14.27829824761058</v>
+        <v>14.27829824761057</v>
       </c>
       <c r="P8" t="n">
         <v>349.8465514949554</v>
@@ -34610,13 +34610,13 @@
         <v>598</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01291707413666021</v>
+        <v>0.01291707413666032</v>
       </c>
       <c r="M9" t="n">
         <v>11.3770367474929</v>
       </c>
       <c r="N9" t="n">
-        <v>211.0438583669308</v>
+        <v>211.0438583669309</v>
       </c>
       <c r="O9" t="n">
         <v>14.52734863514092</v>
@@ -34987,7 +34987,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-40.022513398927295,176.8911758004408</t>
+          <t>-40.02251341162688,176.89117583578124</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -35044,7 +35044,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-40.02254467796034,176.89126284399097</t>
+          <t>-40.022544690659885,176.89126287933144</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -35215,7 +35215,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-40.022514414893735,176.8911786276763</t>
+          <t>-40.02251440219416,176.89117859233588</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -35272,7 +35272,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-40.022468315342905,176.89105034194483</t>
+          <t>-40.02246830264329,176.89105030660446</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -35329,7 +35329,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-40.02235737101174,176.89074160869217</t>
+          <t>-40.022357358312036,176.89074157335187</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -35443,7 +35443,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-40.02249789273047,176.89113264976856</t>
+          <t>-40.022497905430065,176.891132685109</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -35500,7 +35500,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-40.02253378173992,176.8912325218687</t>
+          <t>-40.022533794439475,176.89123255720915</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -35614,7 +35614,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-40.02243204517697,176.8909494098153</t>
+          <t>-40.02243203247732,176.89094937447496</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -35728,7 +35728,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-40.02240074049436,176.89086229585664</t>
+          <t>-40.02240075319405,176.89086233119698</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -35944,7 +35944,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-40.02245236460918,176.89100595441317</t>
+          <t>-40.02245237730881,176.89100598975355</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -36058,7 +36058,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-40.02244918969982,176.89099711931766</t>
+          <t>-40.02244917700019,176.89099708397725</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -36172,7 +36172,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-40.02249034916908,176.89111165755637</t>
+          <t>-40.02249036186868,176.89111169289677</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -36229,7 +36229,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-40.02243448351039,176.89095619516536</t>
+          <t>-40.022434470810744,176.89095615982498</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -36343,7 +36343,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-40.02249479402898,176.89112402670443</t>
+          <t>-40.022494781329385,176.891123991364</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -36400,7 +36400,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-40.022435791574495,176.89095983522313</t>
+          <t>-40.022435804274146,176.8909598705635</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -36457,7 +36457,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-40.022418062850655,176.89091050008244</t>
+          <t>-40.02241805015099,176.89091046474206</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -36514,7 +36514,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-40.02246367998026,176.8910374426999</t>
+          <t>-40.0224636926799,176.89103747804035</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -36571,7 +36571,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-40.02252725416326,176.89121435687207</t>
+          <t>-40.022527241463685,176.89121432153163</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -36685,7 +36685,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-40.02249953097812,176.89113720868392</t>
+          <t>-40.02249954367771,176.89113724402435</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36742,7 +36742,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-40.02256494643185,176.89131924740366</t>
+          <t>-40.02256495913138,176.89131928274415</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -36799,7 +36799,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-40.02249715615395,176.89113060002373</t>
+          <t>-40.02249714345435,176.89113056468332</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -37068,7 +37068,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-40.022510452624225,176.89116760145825</t>
+          <t>-40.02251043992465,176.89116756611782</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -37125,7 +37125,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-40.02246961070425,176.89105394666564</t>
+          <t>-40.02246959800462,176.89105391132523</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -37219,7 +37219,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-40.022483592979356,176.8910928564542</t>
+          <t>-40.02248358027975,176.89109282111377</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -37276,7 +37276,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-40.02257062312259,176.89133504460574</t>
+          <t>-40.02257063582212,176.89133507994626</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -37333,7 +37333,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-40.02249343517197,176.891120245279</t>
+          <t>-40.02249344787156,176.89112028061942</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -37390,7 +37390,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-40.022484812141656,176.89109624913402</t>
+          <t>-40.02248479944204,176.8910962137936</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -37447,7 +37447,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-40.0225045854154,176.89115127417602</t>
+          <t>-40.022504572715796,176.89115123883556</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -37504,7 +37504,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-40.022477509865915,176.89107592839719</t>
+          <t>-40.02247752256553,176.8910759637376</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -37561,7 +37561,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-40.02248947289654,176.89110921906735</t>
+          <t>-40.02248948559613,176.89110925440775</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -37659,7 +37659,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-40.0225006612419,176.89114035398222</t>
+          <t>-40.022500648542305,176.89114031864182</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -37716,7 +37716,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-40.02244808483121,176.8909940447046</t>
+          <t>-40.02244807213157,176.89099400936422</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -37773,7 +37773,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-40.022463413288115,176.89103670055164</t>
+          <t>-40.022463425987745,176.89103673589204</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -37887,7 +37887,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-40.02247781465664,176.891076776567</t>
+          <t>-40.02247782735624,176.8910768119074</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -37944,7 +37944,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-40.02255297076581,176.8912859213233</t>
+          <t>-40.022552958066264,176.8912858859828</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -38115,7 +38115,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-40.02245118354298,176.89100266775753</t>
+          <t>-40.02245119624261,176.89100270309794</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -38172,7 +38172,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-40.02245118354298,176.89100266775753</t>
+          <t>-40.02245119624261,176.89100270309794</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -38225,7 +38225,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-40.02251461808702,176.89117919312343</t>
+          <t>-40.022514630786596,176.8911792284639</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -38282,7 +38282,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-40.022490946050354,176.89111331855617</t>
+          <t>-40.022490933350745,176.89111328321573</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -38339,7 +38339,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-40.0224495452897,176.89099810884832</t>
+          <t>-40.02244955798935,176.89099814418867</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -38396,7 +38396,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-40.02243094030701,176.89094633520372</t>
+          <t>-40.02243092760735,176.89094629986334</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -38449,7 +38449,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-40.022484697845194,176.89109593107028</t>
+          <t>-40.02248468514559,176.89109589572988</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -38604,7 +38604,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-40.02250473781046,176.8911516982612</t>
+          <t>-40.02250472511087,176.89115166292078</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -38661,7 +38661,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-40.02250439492156,176.89115074406948</t>
+          <t>-40.02250438222196,176.89115070872907</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -38718,7 +38718,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-40.022491974718,176.89111618113031</t>
+          <t>-40.02249196201842,176.8911161457899</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -38861,7 +38861,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-40.02247814484657,176.8910776954176</t>
+          <t>-40.02247813214696,176.8910776600772</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -38975,7 +38975,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-40.02250574107793,176.89115449015563</t>
+          <t>-40.02250575377753,176.89115452549606</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -39073,7 +39073,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-40.022401565973695,176.89086459297832</t>
+          <t>-40.022401553274015,176.89086455763797</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -39208,7 +39208,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-40.02249121274198,176.891114060705</t>
+          <t>-40.02249120004237,176.89111402536457</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -39306,7 +39306,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-40.02251506257231,176.89118043003901</t>
+          <t>-40.02251504987272,176.89118039469855</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -39351,7 +39351,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-40.02249514961771,176.89112501623634</t>
+          <t>-40.022495162317306,176.89112505157678</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -39408,7 +39408,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-40.0224544854482,176.89101185625742</t>
+          <t>-40.022454472748585,176.89101182091704</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -39445,7 +39445,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-40.02239662579662,176.8908508455894</t>
+          <t>-40.02239663849631,176.89085088092975</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -39572,7 +39572,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-40.022569022981806,176.89133059170288</t>
+          <t>-40.02256903568133,176.8913306270434</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -39605,7 +39605,7 @@
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-40.022519748716334,176.89119347066412</t>
+          <t>-40.022519736016754,176.89119343532366</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -39662,7 +39662,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-40.02253397223335,176.89123305197563</t>
+          <t>-40.022533984932906,176.8912330873161</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -39719,7 +39719,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-40.02248490103891,176.89109649651692</t>
+          <t>-40.02248491373851,176.89109653185733</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -39760,7 +39760,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-40.0225074428226,176.89115922577415</t>
+          <t>-40.02250743012301,176.8911591904337</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -39801,7 +39801,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-40.02245758415859,176.89102047931192</t>
+          <t>-40.02245759685822,176.89102051465227</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -39887,7 +39887,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-40.022531762509324,176.89122690273516</t>
+          <t>-40.0225317752089,176.8912269380756</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -39944,7 +39944,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-40.02243609636611,176.89096068339197</t>
+          <t>-40.022436109065765,176.89096071873232</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -40001,7 +40001,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-40.022456009404216,176.8910160971038</t>
+          <t>-40.02245599670459,176.8910160617634</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -40058,7 +40058,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-40.02247056317574,176.89105659719573</t>
+          <t>-40.02247055047612,176.8910565618553</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -40107,7 +40107,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-40.02248355488055,176.89109275043296</t>
+          <t>-40.022483542180936,176.89109271509253</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -40213,7 +40213,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-40.02250024215533,176.891139187748</t>
+          <t>-40.022500229455744,176.8911391524076</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -40291,7 +40291,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-40.02242373960062,176.89092629722012</t>
+          <t>-40.02242372690096,176.89092626187977</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -40332,7 +40332,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-40.022461990929926,176.89103274242754</t>
+          <t>-40.02246197823031,176.89103270708716</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -40426,7 +40426,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-40.022441849306674,176.89097669257978</t>
+          <t>-40.02244186200632,176.89097672792016</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -40573,7 +40573,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-40.022486983774236,176.89110229234527</t>
+          <t>-40.022486971074635,176.89110225700483</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -40614,7 +40614,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-40.0225270382706,176.8912137560843</t>
+          <t>-40.02252705097017,176.89121379142478</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -40671,7 +40671,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-40.022472747510136,176.89106267574493</t>
+          <t>-40.022472760209745,176.89106271108534</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -40785,7 +40785,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-40.0224914794336,176.89111480285385</t>
+          <t>-40.022491466734,176.89111476751344</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -40883,7 +40883,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-40.02243939827489,176.890969871888</t>
+          <t>-40.022439385575225,176.8909698365476</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -40940,7 +40940,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-40.02240061349753,176.8908619424533</t>
+          <t>-40.022400600797845,176.890861907113</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -40997,7 +40997,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-40.02243983006289,176.8909710734606</t>
+          <t>-40.02243984276255,176.89097110880095</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -41091,7 +41091,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-40.022420310691516,176.89091675532455</t>
+          <t>-40.022420297991864,176.89091671998423</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -41148,7 +41148,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-40.0224087285924,176.89088452492857</t>
+          <t>-40.022408715892716,176.89088448958822</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -41205,7 +41205,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-40.02246588971497,176.8910435919288</t>
+          <t>-40.0224659024146,176.89104362726923</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -41246,7 +41246,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-40.022412627392185,176.89089537441376</t>
+          <t>-40.02241264009186,176.8908954097541</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -41295,7 +41295,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-40.02247103306166,176.89105790479059</t>
+          <t>-40.02247104576127,176.89105794013096</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -41377,7 +41377,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-40.02248553601922,176.8910982635377</t>
+          <t>-40.02248552331961,176.8910982281973</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -41434,7 +41434,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-40.02248740286118,176.89110345857904</t>
+          <t>-40.02248739016157,176.89110342323863</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -41626,7 +41626,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-40.022441773108795,176.89097648053755</t>
+          <t>-40.02244178580845,176.89097651587792</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -41850,7 +41850,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-40.02238948857115,176.8908309843265</t>
+          <t>-40.02238947587146,176.89083094898618</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -42058,7 +42058,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-40.02248001168951,176.89108289045788</t>
+          <t>-40.02247999898991,176.89108285511747</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -42095,7 +42095,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-40.02235246891834,176.89072796734095</t>
+          <t>-40.02235248161807,176.89072800268124</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -42132,7 +42132,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-40.0223648384461,176.89076238878508</t>
+          <t>-40.02236482574638,176.89076235344479</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -42189,7 +42189,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-40.022446903764646,176.89099075804936</t>
+          <t>-40.02244689106501,176.89099072270898</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -42385,7 +42385,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-40.02238108137208,176.89080758903611</t>
+          <t>-40.02238109407179,176.8908076243764</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -42499,7 +42499,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-40.02240632835356,176.89087784560436</t>
+          <t>-40.02240631565389,176.89087781026404</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -42544,7 +42544,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-40.022457088872955,176.89101910103676</t>
+          <t>-40.022457101572584,176.8910191363771</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -42581,7 +42581,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-40.02244325896724,176.8909806153613</t>
+          <t>-40.02244327166688,176.8909806507017</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -42752,7 +42752,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-40.02245407905991,176.89101072536508</t>
+          <t>-40.022454091759556,176.89101076070546</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -42789,7 +42789,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-40.022509690649194,176.89116548103183</t>
+          <t>-40.0225096779496,176.8911654456914</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -42883,7 +42883,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-40.022541401475365,176.89125372614905</t>
+          <t>-40.02254141417492,176.8912537614895</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -42920,7 +42920,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-40.02240988426281,176.89088774089961</t>
+          <t>-40.02240989696247,176.89088777623996</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -43018,7 +43018,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-40.022469191616764,176.89105278043243</t>
+          <t>-40.02246917891714,176.89105274509203</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -43059,7 +43059,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-40.022517551689646,176.89118735676652</t>
+          <t>-40.02251756438923,176.89118739210696</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -43169,7 +43169,7 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-40.02247521123573,176.8910695317835</t>
+          <t>-40.022475198536114,176.89106949644307</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -43226,7 +43226,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-40.02248153564276,176.89108713130724</t>
+          <t>-40.022481522943146,176.89108709596684</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -43267,7 +43267,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-40.022507595217625,176.89115964985942</t>
+          <t>-40.02250758251805,176.89115961451898</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -43324,7 +43324,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-40.02258939301438,176.89138727787787</t>
+          <t>-40.022589380314855,176.89138724253735</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -43365,7 +43365,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-40.02241018905499,176.89088858906783</t>
+          <t>-40.02241020175467,176.89088862440818</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -43598,7 +43598,7 @@
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-40.02255899034895,176.8913026727133</t>
+          <t>-40.02255897764941,176.89130263737283</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -43655,7 +43655,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-40.022527177965856,176.89121414482935</t>
+          <t>-40.02252716526629,176.89121410948889</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -43692,7 +43692,7 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-40.02259232660142,176.89139544153787</t>
+          <t>-40.02259231390192,176.89139540619735</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -43839,7 +43839,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-40.02245654278878,176.89101758140006</t>
+          <t>-40.02245653008914,176.8910175460597</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -43962,7 +43962,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-40.02246592781385,176.89104369794998</t>
+          <t>-40.02246594051346,176.8910437332904</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -44109,7 +44109,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-40.022488126738615,176.8911054729829</t>
+          <t>-40.022488114039014,176.89110543764247</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -44150,7 +44150,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-40.02247951640468,176.89108151218187</t>
+          <t>-40.02247950370506,176.89108147684144</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -44236,7 +44236,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-40.02246032727866,176.89102811283615</t>
+          <t>-40.0224603399783,176.89102814817656</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -44273,7 +44273,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-40.02247189663572,176.89106030793792</t>
+          <t>-40.022471883936106,176.89106027259754</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -44326,7 +44326,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-40.02249903569397,176.89113583040717</t>
+          <t>-40.02249904839356,176.8911358657476</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -44363,7 +44363,7 @@
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-40.022441417518706,176.8909754910071</t>
+          <t>-40.02244140481906,176.89097545566676</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -44616,7 +44616,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-40.02250431872403,176.89115053202687</t>
+          <t>-40.022504306024445,176.89115049668644</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -44673,7 +44673,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-40.02241813904866,176.89091071212454</t>
+          <t>-40.02241812634899,176.8909106767842</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -44714,7 +44714,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-40.022513843412625,176.89117703735633</t>
+          <t>-40.02251383071305,176.8911770020159</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -44812,7 +44812,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-40.02246097495972,176.89102991519616</t>
+          <t>-40.02246098765936,176.89102995053653</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -44861,7 +44861,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-40.02255220879307,176.89128380089434</t>
+          <t>-40.02255219609352,176.89128376555388</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -44951,7 +44951,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-40.02243217217352,176.89094976321894</t>
+          <t>-40.022432184873175,176.89094979855932</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -45053,7 +45053,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-40.0224626767098,176.8910346508088</t>
+          <t>-40.02246266401017,176.8910346154684</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -45442,7 +45442,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-40.02251880894773,176.89119085547088</t>
+          <t>-40.02251882164732,176.89119089081132</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -45618,7 +45618,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-40.0224704107803,176.89105617311088</t>
+          <t>-40.022470398080685,176.8910561377705</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -45659,7 +45659,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-40.022443855850504,176.89098227635893</t>
+          <t>-40.02244384315086,176.89098224101855</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -45814,7 +45814,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-40.022454002862105,176.89101051332275</t>
+          <t>-40.022454015561756,176.89101054866316</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -46031,7 +46031,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-40.022445722698,176.89098747139423</t>
+          <t>-40.02244570999835,176.89098743605388</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -46117,7 +46117,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-40.02249989926633,176.89113823355638</t>
+          <t>-40.02249988656672,176.89113819821597</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -46170,7 +46170,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-40.02258082084093,176.891363423031</t>
+          <t>-40.022580808141406,176.8913633876905</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -46240,7 +46240,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-40.022471299753654,176.89105864693903</t>
+          <t>-40.02247131245328,176.8910586822794</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -46342,7 +46342,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-40.02245476484017,176.8910126337459</t>
+          <t>-40.0224547775398,176.89101266908628</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -46591,7 +46591,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-40.02239337467657,176.8908417984656</t>
+          <t>-40.02239336197688,176.89084176312528</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -46779,7 +46779,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-40.022421428262,176.8909198652756</t>
+          <t>-40.02242144096165,176.89091990061596</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -46816,7 +46816,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-40.02242001859923,176.89091594249646</t>
+          <t>-40.02242003129889,176.8909159778368</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -46902,7 +46902,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-40.02247342058984,176.89106454878637</t>
+          <t>-40.022473407890224,176.89106451344594</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -46951,7 +46951,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-40.02247838613921,176.89107836688538</t>
+          <t>-40.02247839883881,176.8910784022258</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -47049,7 +47049,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-40.02247838613921,176.89107836688538</t>
+          <t>-40.02247839883881,176.8910784022258</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -47106,7 +47106,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-40.02252764784988,176.89121545242628</t>
+          <t>-40.02252766054944,176.89121548776671</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -47208,7 +47208,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-40.02243560107972,176.89095930511763</t>
+          <t>-40.022435613779365,176.89095934045798</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -47466,7 +47466,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-40.022383862606176,176.8908153285651</t>
+          <t>-40.02238387530587,176.89081536390543</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -47511,7 +47511,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-40.02239905143648,176.89085759559248</t>
+          <t>-40.02239903873679,176.89085756025213</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -47634,7 +47634,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-40.02245299959096,176.89100772143237</t>
+          <t>-40.02245298689132,176.89100768609197</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -47777,7 +47777,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-40.0224651150379,176.8910414361646</t>
+          <t>-40.02246510233827,176.89104140082424</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -47834,7 +47834,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-40.022476087509155,176.89107197027153</t>
+          <t>-40.02247607480954,176.89107193493112</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -47875,7 +47875,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-40.02249210171401,176.89111653453455</t>
+          <t>-40.022492114413616,176.89111656987498</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -47932,7 +47932,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-40.022468582034946,176.89105108409322</t>
+          <t>-40.02246856933534,176.89105104875284</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -47981,7 +47981,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-40.0225203709955,176.89119520234618</t>
+          <t>-40.022520383695074,176.89119523768662</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -48026,7 +48026,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-40.022463781577265,176.8910377254231</t>
+          <t>-40.022463768877635,176.8910376900827</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -48157,7 +48157,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-40.02237344885016,176.89078634950982</t>
+          <t>-40.02237343615046,176.8907863141695</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -48214,7 +48214,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-40.02244446543339,176.89098397269697</t>
+          <t>-40.02244445273376,176.8909839373566</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -48361,7 +48361,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-40.022432743657944,176.8909513535353</t>
+          <t>-40.022432756357595,176.8909513888757</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -48414,7 +48414,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-40.022480735567314,176.8910849048613</t>
+          <t>-40.02248072286771,176.89108486952088</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
@@ -48451,7 +48451,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-40.022482907200526,176.89109094807185</t>
+          <t>-40.022482894500925,176.89109091273144</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -48765,7 +48765,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-40.02244737365135,176.89099206564336</t>
+          <t>-40.022447386351,176.89099210098374</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -48806,7 +48806,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-40.0224196249096,176.89091484694558</t>
+          <t>-40.022419612209944,176.8909148116052</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -48863,7 +48863,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-40.02247461435379,176.8910678707844</t>
+          <t>-40.022474627053406,176.89106790612482</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -48961,7 +48961,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-40.02243760762444,176.8909648888958</t>
+          <t>-40.022437594924796,176.89096485355543</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -49018,7 +49018,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-40.022383062525186,176.89081310212518</t>
+          <t>-40.02238307522488,176.8908131374655</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -49124,7 +49124,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-40.02238533577103,176.8908194280419</t>
+          <t>-40.02238532307133,176.8908193927016</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -49234,7 +49234,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-40.02244664977182,176.8909900512418</t>
+          <t>-40.02244666247147,176.89099008658218</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -49336,7 +49336,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-40.022426419229,176.89093375403542</t>
+          <t>-40.022426431928665,176.89093378937577</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -49602,7 +49602,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-40.02243433111456,176.89095577108097</t>
+          <t>-40.022434318414916,176.89095573574062</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -49700,7 +49700,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-40.02241818984733,176.89091085348593</t>
+          <t>-40.022418202547,176.89091088882628</t>
         </is>
       </c>
       <c r="D302" t="inlineStr"/>
@@ -49892,7 +49892,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-40.0224392966777,176.89096958916502</t>
+          <t>-40.02243930937735,176.89096962450537</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -49933,7 +49933,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-40.02247773845896,176.89107656452452</t>
+          <t>-40.02247775115856,176.89107659986496</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -49990,7 +49990,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-40.02246625800405,176.89104461680034</t>
+          <t>-40.02246624530442,176.8910445814599</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -50088,7 +50088,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-40.02244352565977,176.8909813575092</t>
+          <t>-40.022443538359404,176.89098139284954</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -50247,7 +50247,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-40.02241478633623,176.89090138227255</t>
+          <t>-40.02241477363654,176.8909013469322</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -50361,7 +50361,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-40.0224475133474,176.89099245438751</t>
+          <t>-40.02244750064776,176.89099241904717</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -50504,7 +50504,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>-40.02245231381063,176.89100581305166</t>
+          <t>-40.022452301110995,176.89100577771126</t>
         </is>
       </c>
       <c r="D318" t="inlineStr"/>
@@ -50570,7 +50570,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>-40.022457850850834,176.89102122146008</t>
+          <t>-40.022457863550464,176.89102125680046</t>
         </is>
       </c>
       <c r="D320" t="inlineStr"/>
@@ -50721,7 +50721,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-40.02243899188615,176.8909687409961</t>
+          <t>-40.022439004585806,176.89096877633648</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -50819,7 +50819,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>-40.02250589347299,176.89115491424087</t>
+          <t>-40.022505906172576,176.89115494958128</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -50876,7 +50876,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>-40.022483364386424,176.89109222032675</t>
+          <t>-40.02248335168681,176.89109218498632</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -50917,7 +50917,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>-40.02245052316183,176.89100083005766</t>
+          <t>-40.0224505104622,176.89100079471729</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -51084,7 +51084,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-40.022320910063726,176.89064014676964</t>
+          <t>-40.02232089736397,176.8906401114294</t>
         </is>
       </c>
       <c r="D330" t="inlineStr"/>
@@ -51162,7 +51162,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>-40.02238752011865,176.89082550657676</t>
+          <t>-40.02238753281834,176.89082554191708</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -51219,7 +51219,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>-40.022423206214825,176.8909248129252</t>
+          <t>-40.02242319351515,176.89092477758484</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -51268,7 +51268,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>-40.022425161962666,176.89093025534</t>
+          <t>-40.02242517466233,176.89093029068036</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -51325,7 +51325,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>-40.022400651596584,176.8908620484743</t>
+          <t>-40.0224006388969,176.89086201313398</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -51480,7 +51480,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>-40.02240971916704,176.8908872814752</t>
+          <t>-40.02240970646737,176.89088724613484</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -51578,7 +51578,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>-40.022372686867726,176.89078422909148</t>
+          <t>-40.02237267416801,176.8907841937512</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -51684,7 +51684,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>-40.02236206990797,176.89075468460047</t>
+          <t>-40.02236208260769,176.89075471994076</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -51741,7 +51741,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>-40.02240679824161,176.8908791531969</t>
+          <t>-40.022406810941305,176.89087918853724</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -51782,7 +51782,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>-40.0224121194053,176.8908939608</t>
+          <t>-40.02241210670563,176.89089392545966</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -51966,7 +51966,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>-40.02243071171321,176.89094569907718</t>
+          <t>-40.022430699013555,176.8909456637368</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -52064,7 +52064,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>-40.022406442650656,176.8908781636674</t>
+          <t>-40.02240642995097,176.89087812832707</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -52121,7 +52121,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>-40.02242161875694,176.8909203953809</t>
+          <t>-40.02242163145661,176.89092043072125</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -52195,7 +52195,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>-40.0225100081388,176.89116636454284</t>
+          <t>-40.02251002083838,176.89116639988328</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -52252,7 +52252,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>-40.02249354946835,176.8911205633428</t>
+          <t>-40.02249356216796,176.89112059868322</t>
         </is>
       </c>
       <c r="D354" t="inlineStr"/>
@@ -52350,7 +52350,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>-40.02250820479775,176.89116134620045</t>
+          <t>-40.02250819209817,176.89116131086</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -52432,7 +52432,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>-40.02245821914013,176.89102224633135</t>
+          <t>-40.022458206440504,176.89102221099097</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -52489,7 +52489,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>-40.02249179692361,176.8911156863644</t>
+          <t>-40.0224918096232,176.89111572170484</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -52689,7 +52689,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>-40.022493727262734,176.89112105810875</t>
+          <t>-40.02249371456313,176.89112102276832</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -52779,7 +52779,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>-40.022470258384864,176.8910557490261</t>
+          <t>-40.02247024568525,176.89105571368566</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -52836,7 +52836,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>-40.02248913000727,176.891108264876</t>
+          <t>-40.022489142706874,176.89110830021642</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -52877,7 +52877,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>-40.02248646309044,176.89110084338813</t>
+          <t>-40.02248647579004,176.89110087872854</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -52987,7 +52987,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>-40.02246534363113,176.89104207229175</t>
+          <t>-40.02246533093152,176.89104203695138</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -53028,7 +53028,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>-40.02243886488968,176.8909683875924</t>
+          <t>-40.02243885219002,176.89096835225203</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -53085,7 +53085,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>-40.022477001881384,176.89107451478085</t>
+          <t>-40.02247698918177,176.89107447944048</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -53142,7 +53142,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>-40.02245038346582,176.89100044131348</t>
+          <t>-40.02245039616545,176.89100047665386</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -53244,7 +53244,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>-40.02241487523391,176.890901629655</t>
+          <t>-40.022414887933586,176.8909016649953</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -53293,7 +53293,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>-40.022465432528506,176.89104231967454</t>
+          <t>-40.022465445228136,176.89104235501492</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -53338,7 +53338,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>-40.02248987928382,176.8911103499608</t>
+          <t>-40.02248986658421,176.89111031462036</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -53395,7 +53395,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>-40.022454523547125,176.89101196227855</t>
+          <t>-40.02245451084749,176.89101192693818</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -53575,7 +53575,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>-40.022353408698045,176.89073058252214</t>
+          <t>-40.02235339599833,176.89073054718187</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -53689,7 +53689,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>-40.02248798704297,176.89110508423826</t>
+          <t>-40.02248799974258,176.8911051195787</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -53791,7 +53791,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>-40.0224169579796,176.89090742547202</t>
+          <t>-40.02241694527993,176.89090739013167</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -53848,7 +53848,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>-40.022450675557494,176.89100125414225</t>
+          <t>-40.02245066285786,176.89100121880188</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -53999,7 +53999,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>-40.02242283792461,176.8909237880549</t>
+          <t>-40.02242285062427,176.89092382339524</t>
         </is>
       </c>
       <c r="D389" t="inlineStr"/>
@@ -54036,7 +54036,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>-40.0224743857607,176.8910672346571</t>
+          <t>-40.02247439846031,176.89106726999754</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -54134,7 +54134,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>-40.02250793810646,176.89116060405124</t>
+          <t>-40.02250792540688,176.8911605687108</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -54236,7 +54236,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>-40.02252401577294,176.89120534505594</t>
+          <t>-40.02252400307337,176.8912053097155</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -54281,7 +54281,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>-40.02254757345806,176.8912709016194</t>
+          <t>-40.0225475861576,176.89127093695987</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -54379,7 +54379,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>-40.02248477404283,176.89109614311278</t>
+          <t>-40.022484761343236,176.89109610777234</t>
         </is>
       </c>
       <c r="D397" t="inlineStr"/>
@@ -54461,7 +54461,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>-40.022500889834554,176.89114099011</t>
+          <t>-40.02250087713496,176.89114095476955</t>
         </is>
       </c>
       <c r="D399" t="inlineStr"/>
@@ -54498,7 +54498,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>-40.02252146315887,176.89119824162495</t>
+          <t>-40.0225214504593,176.89119820628449</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -54653,7 +54653,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>-40.0224126146925,176.89089533907344</t>
+          <t>-40.02241260199284,176.8908953037331</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -54710,7 +54710,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>-40.0224377219213,176.89096520695912</t>
+          <t>-40.02243770922164,176.89096517161875</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -54767,7 +54767,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>-40.02239955942383,176.8908590092057</t>
+          <t>-40.02239957212351,176.89085904454606</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -54824,7 +54824,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>-40.0224566697851,176.89101793480395</t>
+          <t>-40.02245668248474,176.89101797014433</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -54881,7 +54881,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>-40.022470258384864,176.8910557490261</t>
+          <t>-40.02247024568525,176.89105571368566</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -55049,7 +55049,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>-40.02246785815652,176.89104906969047</t>
+          <t>-40.022467845456895,176.8910490343501</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -55204,7 +55204,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>-40.02233440989632,176.89067771346743</t>
+          <t>-40.02233442259605,176.8906777488077</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -55372,7 +55372,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>-40.02244248428892,176.89097845959847</t>
+          <t>-40.02244247158929,176.8909784242581</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -55429,7 +55429,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>-40.022451551832454,176.89100369262863</t>
+          <t>-40.02245153913281,176.89100365728825</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -55527,7 +55527,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>-40.02247008059019,176.89105525426046</t>
+          <t>-40.022470093289805,176.89105528960087</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -55576,7 +55576,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>-40.0223837483089,176.89081501050228</t>
+          <t>-40.02238376100859,176.8908150458426</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -55621,7 +55621,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>-40.022413986257,176.89089915583074</t>
+          <t>-40.02241397355732,176.8908991204904</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -55678,7 +55678,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>-40.022446903764646,176.89099075804936</t>
+          <t>-40.02244689106501,176.89099072270898</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
@@ -55715,7 +55715,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>-40.02247613830761,176.89107211163318</t>
+          <t>-40.02247615100723,176.89107214697356</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -55772,7 +55772,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>-40.02243015292836,176.89094414410124</t>
+          <t>-40.022430165628016,176.89094417944162</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -55878,7 +55878,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>-40.02239300638557,176.89084077359615</t>
+          <t>-40.022393019085264,176.89084080893647</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -55931,7 +55931,7 @@
       <c r="B429" t="inlineStr"/>
       <c r="C429" t="inlineStr">
         <is>
-          <t>-40.0224916699276,176.89111533296017</t>
+          <t>-40.02249165722801,176.89111529761976</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -56331,7 +56331,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>-40.02246888682586,176.89105193226283</t>
+          <t>-40.02246887412624,176.89105189692242</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
@@ -56372,7 +56372,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>-40.02248062127082,176.8910845867976</t>
+          <t>-40.02248060857121,176.8910845514572</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -56429,7 +56429,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>-40.02245484103797,176.8910128457882</t>
+          <t>-40.02245485373761,176.8910128811286</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -56539,7 +56539,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>-40.02244527821053,176.89098623448103</t>
+          <t>-40.02244529091017,176.8909862698214</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -56702,7 +56702,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>-40.022476976482146,176.89107444410004</t>
+          <t>-40.02247698918177,176.89107447944048</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -56759,7 +56759,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>-40.02252932419275,176.89122011736677</t>
+          <t>-40.02252933689232,176.8912201527072</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
@@ -56878,7 +56878,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>-40.02246195283105,176.89103263640638</t>
+          <t>-40.022461940131436,176.89103260106597</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -56935,7 +56935,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>-40.022429797337985,176.89094315457112</t>
+          <t>-40.022429784638334,176.89094311923074</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -57062,7 +57062,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>-40.022456098301646,176.8910163444865</t>
+          <t>-40.022456111001276,176.89101637982688</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
@@ -57103,7 +57103,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>-40.022483377086026,176.89109225566716</t>
+          <t>-40.02248338978564,176.89109229100757</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -57160,7 +57160,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>-40.02251736119599,176.8911868266598</t>
+          <t>-40.02251737389557,176.89118686200024</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -57217,7 +57217,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>-40.0224737634795,176.89106550297728</t>
+          <t>-40.02247375077988,176.89106546763688</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -57295,7 +57295,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>-40.02251102410548,176.8911691917781</t>
+          <t>-40.022511011405896,176.89116915643766</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -57352,7 +57352,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>-40.022389958459776,176.89083229191843</t>
+          <t>-40.02238997115946,176.89083232725875</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -57409,7 +57409,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>-40.02242240613607,176.89092258648284</t>
+          <t>-40.022422393436415,176.8909225511425</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -57507,7 +57507,7 @@
       <c r="B461" t="inlineStr"/>
       <c r="C461" t="inlineStr">
         <is>
-          <t>-40.02243798861392,176.89096594910689</t>
+          <t>-40.02243797591428,176.8909659137665</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -57564,7 +57564,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>-40.022439715766076,176.89097075539726</t>
+          <t>-40.02243972846573,176.89097079073764</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -57678,7 +57678,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>-40.02242851467265,176.89093958519467</t>
+          <t>-40.022428527372305,176.89093962053502</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -57735,7 +57735,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>-40.02241002395922,176.8908881296434</t>
+          <t>-40.02241001125955,176.89088809430305</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -57870,7 +57870,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>-40.02247564302265,176.8910707333573</t>
+          <t>-40.02247565572225,176.8910707686977</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -57911,7 +57911,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>-40.02249433684346,176.89112275444913</t>
+          <t>-40.02249432414386,176.8911227191087</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -58082,7 +58082,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>-40.022465305532265,176.89104196627056</t>
+          <t>-40.02246529283265,176.89104193093016</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -58139,7 +58139,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>-40.02243000053249,176.89094372001694</t>
+          <t>-40.02243001323214,176.89094375535726</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -58196,7 +58196,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>-40.022469305913354,176.89105309849603</t>
+          <t>-40.02246929321373,176.89105306315562</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -58253,7 +58253,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>-40.02239086013789,176.89083480108135</t>
+          <t>-40.0223908474382,176.89083476574103</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -58310,7 +58310,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>-40.022419701107594,176.89091505898767</t>
+          <t>-40.022419688407936,176.89091502364732</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -58367,7 +58367,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>-40.02244417334159,176.8909831598683</t>
+          <t>-40.02244418604124,176.8909831952087</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -58424,7 +58424,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>-40.022409465173546,176.89088657466834</t>
+          <t>-40.022409477873225,176.8908866100087</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -58681,7 +58681,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>-40.02238146236309,176.89080864924554</t>
+          <t>-40.022381475062794,176.89080868458586</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -58738,7 +58738,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>-40.022479529104274,176.89108154752228</t>
+          <t>-40.0224795418039,176.89108158286265</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -58795,7 +58795,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>-40.022483364386424,176.89109222032675</t>
+          <t>-40.02248335168681,176.89109218498632</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -58905,7 +58905,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>-40.022456212598335,176.89101666255</t>
+          <t>-40.02245622529798,176.89101669789036</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -59003,7 +59003,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>-40.022430864109076,176.89094612316154</t>
+          <t>-40.022430851409425,176.8909460878212</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -59142,7 +59142,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>-40.02238020509274,176.8908051505545</t>
+          <t>-40.02238021779245,176.8908051858948</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -59285,7 +59285,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>-40.02246257511278,176.89103436808566</t>
+          <t>-40.022462587812406,176.89103440342603</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -59436,7 +59436,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>-40.02241733896962,176.8909084856825</t>
+          <t>-40.02241732626997,176.89090845034215</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -59550,7 +59550,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>-40.0223740965352,176.89078815186545</t>
+          <t>-40.022374083835516,176.89078811652513</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -59640,7 +59640,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>-40.02243038152216,176.89094478022778</t>
+          <t>-40.02243039422182,176.89094481556813</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -59697,7 +59697,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>-40.02243701074093,176.89096322789848</t>
+          <t>-40.02243702344058,176.89096326323883</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -59942,7 +59942,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>-40.02238670733818,176.8908232447963</t>
+          <t>-40.02238669463848,176.890823209456</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -59999,7 +59999,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>-40.02241072244128,176.89089007336221</t>
+          <t>-40.02241073514096,176.89089010870256</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -60044,7 +60044,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>-40.022443551059055,176.89098142818995</t>
+          <t>-40.022443538359404,176.89098139284954</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -60101,7 +60101,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>-40.0224427890804,176.89097930776745</t>
+          <t>-40.02244277638076,176.89097927242707</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -60158,7 +60158,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>-40.02245296149204,176.89100761541124</t>
+          <t>-40.02245294879242,176.89100758007083</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -60215,7 +60215,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>-40.02239287938868,176.89084042019292</t>
+          <t>-40.02239286668899,176.8908403848526</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -60272,7 +60272,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>-40.022398708545005,176.89085664140353</t>
+          <t>-40.02239869584532,176.8908566060632</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -60374,7 +60374,7 @@
       <c r="B516" t="inlineStr"/>
       <c r="C516" t="inlineStr">
         <is>
-          <t>-40.022469547206136,176.89105376996363</t>
+          <t>-40.02246955990576,176.89105380530404</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -60431,7 +60431,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>-40.02236800067476,176.8907711885196</t>
+          <t>-40.022367987975045,176.89077115317932</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -60521,7 +60521,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>-40.022425161962666,176.89093025534</t>
+          <t>-40.02242517466233,176.89093029068036</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -60562,7 +60562,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>-40.02240268354566,176.89086770292772</t>
+          <t>-40.02240269624532,176.89086773826807</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -60725,7 +60725,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>-40.02236624811439,176.89076631155822</t>
+          <t>-40.022366235414665,176.8907662762179</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -60799,7 +60799,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>-40.0224488849085,176.89099627114854</t>
+          <t>-40.022448872208855,176.89099623580813</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -60840,7 +60840,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>-40.02234984007481,176.89072065190211</t>
+          <t>-40.022349852774546,176.89072068724238</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -60897,7 +60897,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>-40.02235616453814,176.8907382513646</t>
+          <t>-40.02235617723786,176.8907382867049</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -60954,7 +60954,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>-40.02243887758932,176.8909684229328</t>
+          <t>-40.02243889028897,176.89096845827314</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -61064,7 +61064,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>-40.022434229517344,176.89095548835803</t>
+          <t>-40.02243424221699,176.8909555236984</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -61207,7 +61207,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>-40.02242076787945,176.89091802757724</t>
+          <t>-40.022420755179795,176.89091799223692</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -61248,7 +61248,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>-40.02240526158062,176.890874877016</t>
+          <t>-40.02240524888093,176.89087484167564</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -61350,7 +61350,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>-40.02245312658731,176.8910080748362</t>
+          <t>-40.022453139286945,176.8910081101766</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -61407,7 +61407,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>-40.022376230085754,176.89079408903717</t>
+          <t>-40.02237621738605,176.89079405369688</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -61521,7 +61521,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>-40.022398149758885,176.89085508642896</t>
+          <t>-40.02239816245857,176.8908551217693</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -61578,7 +61578,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>-40.022406404551624,176.89087805764638</t>
+          <t>-40.022406391851945,176.89087802230605</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -61631,7 +61631,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>-40.02241156061972,176.89089240582487</t>
+          <t>-40.02241157331938,176.8908924411652</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -61672,7 +61672,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>-40.022441265122964,176.89097506692264</t>
+          <t>-40.02244125242332,176.8909750315823</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -61721,7 +61721,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>-40.022426228734105,176.89093322393003</t>
+          <t>-40.02242624143377,176.8909332592704</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -61835,7 +61835,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>-40.022395406626686,176.89084745291788</t>
+          <t>-40.02239541932637,176.89084748825823</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -61892,7 +61892,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>-40.02243369613193,176.89095400406268</t>
+          <t>-40.022433708831606,176.89095403940306</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -61998,7 +61998,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>-40.02245898111794,176.89102436675475</t>
+          <t>-40.02245896841832,176.89102433141434</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -62055,7 +62055,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>-40.022467680361814,176.8910485749249</t>
+          <t>-40.02246769306144,176.8910486102653</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -62112,7 +62112,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>-40.02241053194617,176.8908895432571</t>
+          <t>-40.022410544645844,176.8908895785974</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -62153,7 +62153,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>-40.02242450158031,176.89092841764148</t>
+          <t>-40.02242448888066,176.89092838230113</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -62190,7 +62190,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>-40.022416881781595,176.89090721342993</t>
+          <t>-40.02241686908192,176.89090717808958</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -62235,7 +62235,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>-40.022387786812224,176.89082624872347</t>
+          <t>-40.022387799511925,176.89082628406382</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -62317,7 +62317,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>-40.02245246620626,176.89100623713625</t>
+          <t>-40.022452453506624,176.89100620179588</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -62509,7 +62509,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>-40.02248054507317,176.89108437475514</t>
+          <t>-40.022480532373564,176.89108433941473</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -62566,7 +62566,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>-40.022454561646015,176.89101206829974</t>
+          <t>-40.02245454894639,176.89101203295934</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -62611,7 +62611,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>-40.02243459780726,176.89095651322864</t>
+          <t>-40.02243458510761,176.8909564778883</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -62668,7 +62668,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>-40.02244477022482,176.89098482086598</t>
+          <t>-40.02244475752518,176.89098478552563</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -62717,7 +62717,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>-40.022368661059765,176.89077302621527</t>
+          <t>-40.02236867375948,176.8907730615556</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -62844,7 +62844,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>-40.0223926126952,176.8908396780461</t>
+          <t>-40.022392599995506,176.89083964270574</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -62942,7 +62942,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>-40.0224335437361,176.89095357997832</t>
+          <t>-40.02243355643575,176.89095361531867</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -63040,7 +63040,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>-40.02236921984706,176.89077458118857</t>
+          <t>-40.02236920714735,176.89077454584825</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -63142,7 +63142,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>-40.02245197092046,176.89100485886127</t>
+          <t>-40.02245195822082,176.89100482352092</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -63313,7 +63313,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>-40.02240957947062,176.89088689273143</t>
+          <t>-40.02240959217029,176.89088692807178</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -63505,7 +63505,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>-40.02242561915045,176.89093152759287</t>
+          <t>-40.022425631850105,176.89093156293322</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -63721,7 +63721,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>-40.022417377068635,176.89090859170355</t>
+          <t>-40.02241736436897,176.8909085563632</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -63778,7 +63778,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>-40.02244305577294,176.89098004991533</t>
+          <t>-40.022443043073295,176.89098001457495</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -63823,7 +63823,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>-40.022463527584755,176.8910370186152</t>
+          <t>-40.02246354028437,176.89103705395559</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -63925,7 +63925,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>-40.02239832755448,176.89085558119362</t>
+          <t>-40.02239831485479,176.89085554585327</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -64056,7 +64056,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>-40.02239280319055,176.89084020815096</t>
+          <t>-40.02239279049086,176.89084017281064</t>
         </is>
       </c>
       <c r="D590" t="inlineStr"/>
@@ -64093,7 +64093,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>-40.02239116493048,176.8908356492491</t>
+          <t>-40.02239115223079,176.8908356139088</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -64248,7 +64248,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>-40.02243308654859,176.89095230772517</t>
+          <t>-40.02243309924823,176.89095234306552</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -64362,7 +64362,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>-40.022370527917225,176.8907782212397</t>
+          <t>-40.02237054061693,176.89077825658003</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -64419,7 +64419,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>-40.022392346001716,176.89083893589924</t>
+          <t>-40.02239233330202,176.89083890055895</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -64647,7 +64647,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>-40.022389793363764,176.89083183249423</t>
+          <t>-40.02238978066407,176.8908317971539</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -64704,7 +64704,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>-40.022403369328394,176.89086961130585</t>
+          <t>-40.022403382028074,176.89086964664617</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -64761,7 +64761,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>-40.02243537248601,176.890958668991</t>
+          <t>-40.02243538518566,176.8909587043314</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -64818,7 +64818,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>-40.0224059092642,176.89087667937318</t>
+          <t>-40.02240589656452,176.89087664403286</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -64875,7 +64875,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>-40.02243646465597,176.89096170826264</t>
+          <t>-40.022436451956324,176.89096167292226</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -65152,7 +65152,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>-40.02241192891021,176.89089343069486</t>
+          <t>-40.022411916210544,176.89089339535448</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -65209,7 +65209,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>-40.02241060814423,176.89088975529913</t>
+          <t>-40.02241062084389,176.89088979063948</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -65466,7 +65466,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>-40.022461317849675,176.89103086938673</t>
+          <t>-40.022461330549305,176.8910309047271</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -65625,7 +65625,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>-40.022459298608695,176.89102525026448</t>
+          <t>-40.022459311308324,176.89102528560488</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -65670,7 +65670,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>-40.02248168803807,176.89108755539218</t>
+          <t>-40.02248167533846,176.89108752005177</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -65711,7 +65711,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>-40.02248916810608,176.89110837089726</t>
+          <t>-40.02248918080569,176.8911084062377</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -65809,7 +65809,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>-40.02243598206925,176.89096036532865</t>
+          <t>-40.02243599476889,176.89096040066903</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
@@ -65911,7 +65911,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>-40.02237567129873,176.8907925340636</t>
+          <t>-40.02237568399846,176.8907925694039</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -66025,7 +66025,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>-40.022465381730015,176.89104217831294</t>
+          <t>-40.02246536903039,176.89104214297254</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -66066,7 +66066,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>-40.02236963893751,176.89077574741853</t>
+          <t>-40.02236962623781,176.89077571207824</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -66180,7 +66180,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>-40.02236687040033,176.89076804323287</t>
+          <t>-40.02236688310005,176.8907680785732</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -66237,7 +66237,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>-40.022385462768,176.8908197814451</t>
+          <t>-40.0223854754677,176.89081981678538</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
@@ -66294,7 +66294,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>-40.022382795831525,176.89081235997858</t>
+          <t>-40.022382808531226,176.8908123953189</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -66351,7 +66351,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>-40.022394136657894,176.8908439188852</t>
+          <t>-40.022394123958215,176.89084388354485</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -66408,7 +66408,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>-40.02245002787596,176.8909994517828</t>
+          <t>-40.02245001517632,176.8909994164424</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
@@ -66465,7 +66465,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>-40.022375709397856,176.89079264008453</t>
+          <t>-40.022375722097564,176.89079267542485</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -66579,7 +66579,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>-40.02243525818914,176.89095835092775</t>
+          <t>-40.02243527088879,176.8909583862681</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
@@ -66673,7 +66673,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>-40.022422495033695,176.89092283386532</t>
+          <t>-40.02242250773338,176.8909228692057</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -66787,7 +66787,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>-40.02235155453804,176.89072542284043</t>
+          <t>-40.02235156723776,176.89072545818073</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -66844,7 +66844,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>-40.022381716357096,176.89080935605182</t>
+          <t>-40.02238170365739,176.8908093207115</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -66958,7 +66958,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>-40.022377576254385,176.89079783511002</t>
+          <t>-40.022377588954086,176.8907978704503</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -67015,7 +67015,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>-40.0223899203607,176.89083218589747</t>
+          <t>-40.02238993306038,176.8908322212378</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -67072,7 +67072,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>-40.022435562980775,176.89095919909653</t>
+          <t>-40.02243557568042,176.8909592344369</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -67243,7 +67243,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>-40.02235959346287,176.89074779324318</t>
+          <t>-40.02235960616259,176.89074782858347</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -67300,7 +67300,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>-40.02237047711839,176.89077807987852</t>
+          <t>-40.02237046441868,176.89077804453822</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -67414,7 +67414,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>-40.02237399493757,176.890787869143</t>
+          <t>-40.022374007637275,176.89078790448332</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -67528,7 +67528,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>-40.022402645446604,176.89086759690673</t>
+          <t>-40.02240265814629,176.89086763224708</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -67642,7 +67642,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>-40.02240138817815,176.89086409821365</t>
+          <t>-40.022401400877825,176.89086413355398</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -67699,7 +67699,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>-40.02245103114733,176.89100224367297</t>
+          <t>-40.02245104384698,176.89100227901335</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -67756,7 +67756,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>-40.02238914567944,176.89083003013783</t>
+          <t>-40.02238913297975,176.89082999479749</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -67813,7 +67813,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>-40.022423828498255,176.8909265446026</t>
+          <t>-40.02242384119792,176.89092657994297</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -67870,7 +67870,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>-40.022363657372566,176.89075910213745</t>
+          <t>-40.02236364467284,176.89075906679716</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -67956,7 +67956,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>-40.02246653739577,176.89104539428905</t>
+          <t>-40.022466550095395,176.89104542962946</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
@@ -68013,7 +68013,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>-40.02241643729321,176.89090597651776</t>
+          <t>-40.022416449992875,176.89090601185808</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -68115,7 +68115,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>-40.022395584422306,176.8908479476825</t>
+          <t>-40.02239557172263,176.89084791234214</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
@@ -68229,7 +68229,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>-40.02239144432369,176.89083642673623</t>
+          <t>-40.022391457023375,176.89083646207658</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
@@ -68286,7 +68286,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>-40.022461838534404,176.89103231834284</t>
+          <t>-40.02246182583478,176.89103228300246</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
@@ -68380,7 +68380,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>-40.02243567727763,176.89095951715984</t>
+          <t>-40.02243568997728,176.8909595525002</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -68437,7 +68437,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>-40.022404436101496,176.89087257989408</t>
+          <t>-40.02240444880117,176.8908726152344</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -68478,7 +68478,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>-40.022376382482214,176.8907945131209</t>
+          <t>-40.022376369782506,176.8907944777806</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -68535,7 +68535,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>-40.022387012130864,176.89082409296395</t>
+          <t>-40.02238699943116,176.89082405762366</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -68592,7 +68592,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>-40.0224866154857,176.89110126747315</t>
+          <t>-40.0224866281853,176.89110130281355</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -68649,7 +68649,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>-40.02249351136956,176.89112045732153</t>
+          <t>-40.022493524069155,176.89112049266197</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -68763,7 +68763,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>-40.022447246654956,176.89099171223958</t>
+          <t>-40.0224472339553,176.8909916768992</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -68877,7 +68877,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>-40.02243932207699,176.89096965984575</t>
+          <t>-40.02243930937735,176.89096962450537</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
@@ -68934,7 +68934,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>-40.02239357787159,176.89084236391082</t>
+          <t>-40.022393590571276,176.89084239925114</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
@@ -68991,7 +68991,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>-40.022377576254385,176.89079783511002</t>
+          <t>-40.022377588954086,176.8907978704503</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
@@ -69048,7 +69048,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>-40.0224191804213,176.89091361003327</t>
+          <t>-40.02241919312097,176.89091364537362</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
@@ -69105,7 +69105,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>-40.02245566651414,176.89101514291335</t>
+          <t>-40.022455653814504,176.89101510757297</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
@@ -69162,7 +69162,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>-40.022368584861496,176.89077281417346</t>
+          <t>-40.02236859756121,176.89077284951378</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -69390,7 +69390,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>-40.02239287938868,176.89084042019292</t>
+          <t>-40.02239286668899,176.8908403848526</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -69447,7 +69447,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>-40.0223713152992,176.89078041233856</t>
+          <t>-40.0223713025995,176.89078037699826</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
@@ -69504,7 +69504,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>-40.022390034657924,176.89083250396035</t>
+          <t>-40.02239004735762,176.89083253930067</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -69561,7 +69561,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>-40.02244398284694,176.89098262976268</t>
+          <t>-40.02244399554659,176.89098266510308</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -69675,7 +69675,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>-40.022378554131514,176.89080055631393</t>
+          <t>-40.022378541431806,176.89080052097364</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
@@ -69732,7 +69732,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>-40.02245945100426,176.89102567434918</t>
+          <t>-40.02245946370389,176.8910257096896</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
@@ -69846,7 +69846,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>-40.022450142172694,176.89099976984625</t>
+          <t>-40.02245012947306,176.89099973450584</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -69944,7 +69944,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>-40.02243720123567,176.890963758004</t>
+          <t>-40.02243721393531,176.89096379334435</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -70201,7 +70201,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>-40.02247833534076,176.89107822552376</t>
+          <t>-40.02247832264115,176.89107819018335</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -70299,7 +70299,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>-40.022438458500936,176.89096725670055</t>
+          <t>-40.02243847120057,176.89096729204095</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -70356,7 +70356,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>-40.02242131396502,176.89091954721243</t>
+          <t>-40.02242132666468,176.89091958255278</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
@@ -70470,7 +70470,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>-40.022447716541635,176.89099301983362</t>
+          <t>-40.022447729241286,176.89099305517396</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -70527,7 +70527,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>-40.02238891708497,176.89082939401203</t>
+          <t>-40.02238890438527,176.8908293586717</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
@@ -70584,7 +70584,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>-40.022466943783705,176.8910465251818</t>
+          <t>-40.02246693108408,176.89104648984141</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -70641,7 +70641,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>-40.022410290652374,176.89088887179057</t>
+          <t>-40.0224102779527,176.89088883645022</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -70698,7 +70698,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>-40.022417084976276,176.89090777887552</t>
+          <t>-40.02241709767594,176.89090781421586</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -70755,7 +70755,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>-40.022425263559946,176.89093053806286</t>
+          <t>-40.02242525086029,176.8909305027225</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -70812,7 +70812,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>-40.022422647429664,176.89092325794957</t>
+          <t>-40.02242266012932,176.89092329328994</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -70869,7 +70869,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>-40.02245486643723,176.89101291646898</t>
+          <t>-40.02245485373761,176.8910128811286</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -70926,7 +70926,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>-40.022480672069264,176.89108472815926</t>
+          <t>-40.02248068476887,176.89108476349966</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
@@ -70983,7 +70983,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>-40.02243361993402,176.8909537920205</t>
+          <t>-40.02243363263367,176.89095382736087</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -71040,7 +71040,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>-40.022453418678914,176.89100888766507</t>
+          <t>-40.022453405979284,176.89100885232466</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
@@ -71097,7 +71097,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>-40.022390720441294,176.8908344123378</t>
+          <t>-40.02239073314097,176.89083444767812</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -71211,7 +71211,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>-40.022455488719274,176.89101464814792</t>
+          <t>-40.02245550141891,176.8910146834883</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
@@ -71268,7 +71268,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>-40.022414570441825,176.89090078148664</t>
+          <t>-40.0224145831415,176.89090081682698</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
@@ -71382,7 +71382,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>-40.02237388064021,176.89078755108025</t>
+          <t>-40.02237389333991,176.89078758642054</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -71439,7 +71439,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>-40.022418786731656,176.89091251448238</t>
+          <t>-40.02241877403198,176.89091247914206</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -71496,7 +71496,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>-40.02244017295338,176.89097202765063</t>
+          <t>-40.02244018565301,176.890972062991</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -71553,7 +71553,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>-40.02246599131196,176.89104387465198</t>
+          <t>-40.022465978612345,176.89104383931158</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">

--- a/data/nzd0304/nzd0304.xlsx
+++ b/data/nzd0304/nzd0304.xlsx
@@ -34046,13 +34046,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0248</v>
+        <v>0.0388</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0302</v>
+        <v>0.0428</v>
       </c>
       <c r="I2" t="n">
         <v>-0.7531743509419274</v>
@@ -34124,13 +34124,13 @@
         <v>0.1250011645056375</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0293</v>
+        <v>0.039</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0311</v>
+        <v>0.0458</v>
       </c>
       <c r="I3" t="n">
         <v>-0.6405817734667765</v>
@@ -34202,13 +34202,13 @@
         <v>0.2500023290091798</v>
       </c>
       <c r="F4" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0243</v>
+        <v>0.0297</v>
       </c>
       <c r="H4" t="n">
-        <v>0.026</v>
+        <v>0.0356</v>
       </c>
       <c r="I4" t="n">
         <v>-0.8055224495391089</v>
@@ -34280,13 +34280,13 @@
         <v>0.3750034935148174</v>
       </c>
       <c r="F5" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0242</v>
+        <v>0.0344</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0256</v>
+        <v>0.0368</v>
       </c>
       <c r="I5" t="n">
         <v>-0.589556081352012</v>
@@ -34358,13 +34358,13 @@
         <v>0.5000046580214945</v>
       </c>
       <c r="F6" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0246</v>
+        <v>0.034</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0265</v>
+        <v>0.0361</v>
       </c>
       <c r="I6" t="n">
         <v>-0.469585460009766</v>
@@ -34436,13 +34436,13 @@
         <v>0.624996506486499</v>
       </c>
       <c r="F7" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0245</v>
+        <v>0.0345</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0267</v>
+        <v>0.0362</v>
       </c>
       <c r="I7" t="n">
         <v>-0.3524039557256038</v>
@@ -34514,13 +34514,13 @@
         <v>0.7499976709917046</v>
       </c>
       <c r="F8" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0246</v>
+        <v>0.0341</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0309</v>
+        <v>0.036</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2564045809460078</v>
@@ -34592,13 +34592,13 @@
         <v>0.8749988354958523</v>
       </c>
       <c r="F9" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0246</v>
+        <v>0.0341</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0258</v>
+        <v>0.0354</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2216924505543078</v>
@@ -34670,13 +34670,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0249</v>
+        <v>0.0389</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0259</v>
+        <v>0.0406</v>
       </c>
       <c r="I10" t="n">
         <v>-0.07435938849895914</v>
